--- a/Stocks/FCEL/HighLow.xlsx
+++ b/Stocks/FCEL/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,1273 +417,1273 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>9.720000267028809</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="B2">
-        <v>10.43000030517578</v>
+        <v>7.860000133514404</v>
       </c>
       <c r="C2">
-        <v>9.199999809265137</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="D2">
-        <v>9.300000190734863</v>
+        <v>7.130000114440918</v>
       </c>
       <c r="E2">
-        <v>9.300000190734863</v>
+        <v>7.130000114440918</v>
       </c>
       <c r="F2">
-        <v>52141800</v>
+        <v>27454400</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>9.430000305175781</v>
+        <v>7.710000038146973</v>
       </c>
       <c r="B3">
-        <v>10.21000003814697</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="C3">
-        <v>9.159999847412109</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="D3">
-        <v>10.19999980926514</v>
+        <v>7.75</v>
       </c>
       <c r="E3">
-        <v>10.19999980926514</v>
+        <v>7.75</v>
       </c>
       <c r="F3">
-        <v>25973100</v>
+        <v>18866500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>10.72000026702881</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="B4">
-        <v>10.75</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="C4">
-        <v>9.909999847412109</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="D4">
-        <v>10.60999965667725</v>
+        <v>7.949999809265137</v>
       </c>
       <c r="E4">
-        <v>10.60999965667725</v>
+        <v>7.949999809265137</v>
       </c>
       <c r="F4">
-        <v>33130000</v>
+        <v>15691000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>10.60000038146973</v>
+        <v>8.020000457763672</v>
       </c>
       <c r="B5">
-        <v>10.85000038146973</v>
+        <v>8.659999847412109</v>
       </c>
       <c r="C5">
-        <v>10.21000003814697</v>
+        <v>7.820000171661377</v>
       </c>
       <c r="D5">
-        <v>10.38000011444092</v>
+        <v>8.270000457763672</v>
       </c>
       <c r="E5">
-        <v>10.38000011444092</v>
+        <v>8.270000457763672</v>
       </c>
       <c r="F5">
-        <v>23271300</v>
+        <v>21922400</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>10.0600004196167</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>10.59000015258789</v>
+        <v>8.529999732971191</v>
       </c>
       <c r="C6">
-        <v>9.829999923706055</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="D6">
-        <v>10.43000030517578</v>
+        <v>8.489999771118164</v>
       </c>
       <c r="E6">
-        <v>10.43000030517578</v>
+        <v>8.489999771118164</v>
       </c>
       <c r="F6">
-        <v>16451000</v>
+        <v>18307900</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>10.60999965667725</v>
+        <v>8.710000038146973</v>
       </c>
       <c r="B7">
-        <v>10.65999984741211</v>
+        <v>8.789999961853027</v>
       </c>
       <c r="C7">
-        <v>9.75</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="D7">
-        <v>10.07999992370605</v>
+        <v>8.479999542236328</v>
       </c>
       <c r="E7">
-        <v>10.07999992370605</v>
+        <v>8.479999542236328</v>
       </c>
       <c r="F7">
-        <v>20379100</v>
+        <v>17078200</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>9.819999694824219</v>
+        <v>8.510000228881836</v>
       </c>
       <c r="B8">
-        <v>10.42000007629395</v>
+        <v>9.029999732971191</v>
       </c>
       <c r="C8">
-        <v>9.579999923706055</v>
+        <v>8.380000114440918</v>
       </c>
       <c r="D8">
-        <v>9.710000038146973</v>
+        <v>8.909999847412109</v>
       </c>
       <c r="E8">
-        <v>9.710000038146973</v>
+        <v>8.909999847412109</v>
       </c>
       <c r="F8">
-        <v>19497800</v>
+        <v>23093900</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>9.760000228881836</v>
+        <v>9.039999961853027</v>
       </c>
       <c r="B9">
-        <v>9.770000457763672</v>
+        <v>9.039999961853027</v>
       </c>
       <c r="C9">
-        <v>8.960000038146973</v>
+        <v>8.229999542236328</v>
       </c>
       <c r="D9">
-        <v>9.090000152587891</v>
+        <v>8.5</v>
       </c>
       <c r="E9">
-        <v>9.090000152587891</v>
+        <v>8.5</v>
       </c>
       <c r="F9">
-        <v>19971000</v>
+        <v>21615800</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>8.640000343322754</v>
+        <v>8.380000114440918</v>
       </c>
       <c r="B10">
-        <v>8.779999732971191</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="C10">
-        <v>8.270000457763672</v>
+        <v>8.319999694824219</v>
       </c>
       <c r="D10">
-        <v>8.649999618530273</v>
+        <v>8.420000076293945</v>
       </c>
       <c r="E10">
-        <v>8.649999618530273</v>
+        <v>8.420000076293945</v>
       </c>
       <c r="F10">
-        <v>22970900</v>
+        <v>13782500</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>8.819999694824219</v>
+        <v>8.449999809265137</v>
       </c>
       <c r="B11">
-        <v>8.869999885559082</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="C11">
-        <v>8.25</v>
+        <v>8.380000114440918</v>
       </c>
       <c r="D11">
-        <v>8.359999656677246</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="E11">
-        <v>8.359999656677246</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="F11">
-        <v>17603200</v>
+        <v>25853500</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>8.039999961853027</v>
+        <v>9.659999847412109</v>
       </c>
       <c r="B12">
-        <v>8.310000419616699</v>
+        <v>9.869999885559082</v>
       </c>
       <c r="C12">
-        <v>7.659999847412109</v>
+        <v>9.289999961853027</v>
       </c>
       <c r="D12">
-        <v>7.929999828338623</v>
+        <v>9.840000152587891</v>
       </c>
       <c r="E12">
-        <v>7.929999828338623</v>
+        <v>9.840000152587891</v>
       </c>
       <c r="F12">
-        <v>24211600</v>
+        <v>20734800</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>8.079999923706055</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="B13">
-        <v>8.600000381469727</v>
+        <v>10.57999992370605</v>
       </c>
       <c r="C13">
-        <v>7.980000019073486</v>
+        <v>9.75</v>
       </c>
       <c r="D13">
-        <v>8.180000305175781</v>
+        <v>9.819999694824219</v>
       </c>
       <c r="E13">
-        <v>8.180000305175781</v>
+        <v>9.819999694824219</v>
       </c>
       <c r="F13">
-        <v>17697200</v>
+        <v>24919000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>8.010000228881836</v>
+        <v>9.960000038146973</v>
       </c>
       <c r="B14">
-        <v>8.060000419616699</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="C14">
-        <v>7.210000038146973</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="D14">
-        <v>7.25</v>
+        <v>10.09000015258789</v>
       </c>
       <c r="E14">
-        <v>7.25</v>
+        <v>10.09000015258789</v>
       </c>
       <c r="F14">
-        <v>24034300</v>
+        <v>15402900</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>6.659999847412109</v>
+        <v>10.07999992370605</v>
       </c>
       <c r="B15">
-        <v>8.029999732971191</v>
+        <v>10.4399995803833</v>
       </c>
       <c r="C15">
-        <v>6.420000076293945</v>
+        <v>9.779999732971191</v>
       </c>
       <c r="D15">
-        <v>7.900000095367432</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="E15">
-        <v>7.900000095367432</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="F15">
-        <v>39777100</v>
+        <v>17329100</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>7.650000095367432</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="B16">
-        <v>8.159999847412109</v>
+        <v>10.63000011444092</v>
       </c>
       <c r="C16">
-        <v>7.539999961853027</v>
+        <v>9.949999809265137</v>
       </c>
       <c r="D16">
-        <v>7.630000114440918</v>
+        <v>10.03999996185303</v>
       </c>
       <c r="E16">
-        <v>7.630000114440918</v>
+        <v>10.03999996185303</v>
       </c>
       <c r="F16">
-        <v>23024400</v>
+        <v>17839600</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>7.699999809265137</v>
+        <v>10.10999965667725</v>
       </c>
       <c r="B17">
-        <v>7.860000133514404</v>
+        <v>10.51000022888184</v>
       </c>
       <c r="C17">
-        <v>6.800000190734863</v>
+        <v>9.970000267028809</v>
       </c>
       <c r="D17">
-        <v>7.130000114440918</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="E17">
-        <v>7.130000114440918</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="F17">
-        <v>27454400</v>
+        <v>13719600</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>7.710000038146973</v>
+        <v>10.03999996185303</v>
       </c>
       <c r="B18">
-        <v>7.900000095367432</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C18">
-        <v>7.260000228881836</v>
+        <v>9.939999580383301</v>
       </c>
       <c r="D18">
-        <v>7.75</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="E18">
-        <v>7.75</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="F18">
-        <v>18866500</v>
+        <v>38076000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>7.699999809265137</v>
+        <v>12.14999961853027</v>
       </c>
       <c r="B19">
-        <v>8.100000381469727</v>
+        <v>12.61999988555908</v>
       </c>
       <c r="C19">
-        <v>7.519999980926514</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="D19">
-        <v>7.949999809265137</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="E19">
-        <v>7.949999809265137</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="F19">
-        <v>15691000</v>
+        <v>45860600</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>8.020000457763672</v>
+        <v>12.42000007629395</v>
       </c>
       <c r="B20">
-        <v>8.659999847412109</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="C20">
-        <v>7.820000171661377</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="D20">
-        <v>8.270000457763672</v>
+        <v>11.27000045776367</v>
       </c>
       <c r="E20">
-        <v>8.270000457763672</v>
+        <v>11.27000045776367</v>
       </c>
       <c r="F20">
-        <v>21922400</v>
+        <v>23345100</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>8</v>
+        <v>9.979999542236328</v>
       </c>
       <c r="B21">
-        <v>8.529999732971191</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="C21">
-        <v>7.849999904632568</v>
+        <v>9.659999847412109</v>
       </c>
       <c r="D21">
-        <v>8.489999771118164</v>
+        <v>10.0600004196167</v>
       </c>
       <c r="E21">
-        <v>8.489999771118164</v>
+        <v>10.0600004196167</v>
       </c>
       <c r="F21">
-        <v>18307900</v>
+        <v>43544200</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>8.710000038146973</v>
+        <v>10.17000007629395</v>
       </c>
       <c r="B22">
-        <v>8.789999961853027</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="C22">
-        <v>8.100000381469727</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="D22">
-        <v>8.479999542236328</v>
+        <v>10.57999992370605</v>
       </c>
       <c r="E22">
-        <v>8.479999542236328</v>
+        <v>10.57999992370605</v>
       </c>
       <c r="F22">
-        <v>17078200</v>
+        <v>18880700</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>8.510000228881836</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="B23">
-        <v>9.029999732971191</v>
+        <v>10.27000045776367</v>
       </c>
       <c r="C23">
-        <v>8.380000114440918</v>
+        <v>9.579999923706055</v>
       </c>
       <c r="D23">
-        <v>8.909999847412109</v>
+        <v>9.680000305175781</v>
       </c>
       <c r="E23">
-        <v>8.909999847412109</v>
+        <v>9.680000305175781</v>
       </c>
       <c r="F23">
-        <v>23093900</v>
+        <v>28768900</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>9.039999961853027</v>
+        <v>9.630000114440918</v>
       </c>
       <c r="B24">
-        <v>9.039999961853027</v>
+        <v>9.859999656677246</v>
       </c>
       <c r="C24">
-        <v>8.229999542236328</v>
+        <v>9.020000457763672</v>
       </c>
       <c r="D24">
-        <v>8.5</v>
+        <v>9.210000038146973</v>
       </c>
       <c r="E24">
-        <v>8.5</v>
+        <v>9.210000038146973</v>
       </c>
       <c r="F24">
-        <v>21615800</v>
+        <v>23062800</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>8.380000114440918</v>
+        <v>9.010000228881836</v>
       </c>
       <c r="B25">
-        <v>8.680000305175781</v>
+        <v>9.310000419616699</v>
       </c>
       <c r="C25">
-        <v>8.319999694824219</v>
+        <v>8.930000305175781</v>
       </c>
       <c r="D25">
-        <v>8.420000076293945</v>
+        <v>9.170000076293945</v>
       </c>
       <c r="E25">
-        <v>8.420000076293945</v>
+        <v>9.170000076293945</v>
       </c>
       <c r="F25">
-        <v>13782500</v>
+        <v>20935900</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>8.449999809265137</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>9.600000381469727</v>
+        <v>9.329999923706055</v>
       </c>
       <c r="C26">
-        <v>8.380000114440918</v>
+        <v>8.880000114440918</v>
       </c>
       <c r="D26">
-        <v>9.409999847412109</v>
+        <v>9.029999732971191</v>
       </c>
       <c r="E26">
-        <v>9.409999847412109</v>
+        <v>9.029999732971191</v>
       </c>
       <c r="F26">
-        <v>25853500</v>
+        <v>20047700</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>9.659999847412109</v>
+        <v>9.020000457763672</v>
       </c>
       <c r="B27">
-        <v>9.869999885559082</v>
+        <v>9.220000267028809</v>
       </c>
       <c r="C27">
-        <v>9.289999961853027</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="D27">
-        <v>9.840000152587891</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="E27">
-        <v>9.840000152587891</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="F27">
-        <v>20734800</v>
+        <v>17843300</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>10.22000026702881</v>
+        <v>8.840000152587891</v>
       </c>
       <c r="B28">
-        <v>10.57999992370605</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="C28">
-        <v>9.75</v>
+        <v>8.489999771118164</v>
       </c>
       <c r="D28">
-        <v>9.819999694824219</v>
+        <v>8.829999923706055</v>
       </c>
       <c r="E28">
-        <v>9.819999694824219</v>
+        <v>8.829999923706055</v>
       </c>
       <c r="F28">
-        <v>24919000</v>
+        <v>16355800</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>9.960000038146973</v>
+        <v>8.880000114440918</v>
       </c>
       <c r="B29">
-        <v>10.19999980926514</v>
+        <v>9.520000457763672</v>
       </c>
       <c r="C29">
-        <v>9.600000381469727</v>
+        <v>8.770000457763672</v>
       </c>
       <c r="D29">
-        <v>10.09000015258789</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="E29">
-        <v>10.09000015258789</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="F29">
-        <v>15402900</v>
+        <v>28968100</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>10.07999992370605</v>
+        <v>9.319999694824219</v>
       </c>
       <c r="B30">
-        <v>10.4399995803833</v>
+        <v>9.510000228881836</v>
       </c>
       <c r="C30">
-        <v>9.779999732971191</v>
+        <v>9.119999885559082</v>
       </c>
       <c r="D30">
-        <v>10.43000030517578</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="E30">
-        <v>10.43000030517578</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="F30">
-        <v>17329100</v>
+        <v>19480900</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>10.19999980926514</v>
+        <v>9.5</v>
       </c>
       <c r="B31">
-        <v>10.63000011444092</v>
+        <v>9.619999885559082</v>
       </c>
       <c r="C31">
-        <v>9.949999809265137</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="D31">
-        <v>10.03999996185303</v>
+        <v>9.229999542236328</v>
       </c>
       <c r="E31">
-        <v>10.03999996185303</v>
+        <v>9.229999542236328</v>
       </c>
       <c r="F31">
-        <v>17839600</v>
+        <v>14835100</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>10.10999965667725</v>
+        <v>9.289999961853027</v>
       </c>
       <c r="B32">
-        <v>10.51000022888184</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="C32">
-        <v>9.970000267028809</v>
+        <v>8.829999923706055</v>
       </c>
       <c r="D32">
-        <v>9.989999771118164</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="E32">
-        <v>9.989999771118164</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="F32">
-        <v>13719600</v>
+        <v>21702000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>10.03999996185303</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="B33">
-        <v>11.77000045776367</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="C33">
-        <v>9.939999580383301</v>
+        <v>8.880000114440918</v>
       </c>
       <c r="D33">
-        <v>11.52000045776367</v>
+        <v>9.289999961853027</v>
       </c>
       <c r="E33">
-        <v>11.52000045776367</v>
+        <v>9.289999961853027</v>
       </c>
       <c r="F33">
-        <v>38076000</v>
+        <v>18982200</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>12.14999961853027</v>
+        <v>9.399999618530273</v>
       </c>
       <c r="B34">
-        <v>12.61999988555908</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="C34">
-        <v>11.53999996185303</v>
+        <v>8.960000038146973</v>
       </c>
       <c r="D34">
-        <v>12.14000034332275</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="E34">
-        <v>12.14000034332275</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="F34">
-        <v>45860600</v>
+        <v>27469600</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>12.42000007629395</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="B35">
-        <v>12.44999980926514</v>
+        <v>9.119999885559082</v>
       </c>
       <c r="C35">
-        <v>11.22999954223633</v>
+        <v>8.760000228881836</v>
       </c>
       <c r="D35">
-        <v>11.27000045776367</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="E35">
-        <v>11.27000045776367</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="F35">
-        <v>23345100</v>
+        <v>16138200</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>9.979999542236328</v>
+        <v>8.979999542236328</v>
       </c>
       <c r="B36">
-        <v>10.42000007629395</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="C36">
-        <v>9.659999847412109</v>
+        <v>8.430000305175781</v>
       </c>
       <c r="D36">
-        <v>10.0600004196167</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="E36">
-        <v>10.0600004196167</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="F36">
-        <v>43544200</v>
+        <v>19084200</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>10.17000007629395</v>
+        <v>8.569999694824219</v>
       </c>
       <c r="B37">
-        <v>10.68000030517578</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="C37">
-        <v>10.10000038146973</v>
+        <v>8.220000267028809</v>
       </c>
       <c r="D37">
-        <v>10.57999992370605</v>
+        <v>8.380000114440918</v>
       </c>
       <c r="E37">
-        <v>10.57999992370605</v>
+        <v>8.380000114440918</v>
       </c>
       <c r="F37">
-        <v>18880700</v>
+        <v>14747500</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>10.10000038146973</v>
+        <v>8.439999580383301</v>
       </c>
       <c r="B38">
-        <v>10.27000045776367</v>
+        <v>8.75</v>
       </c>
       <c r="C38">
-        <v>9.579999923706055</v>
+        <v>8.260000228881836</v>
       </c>
       <c r="D38">
-        <v>9.680000305175781</v>
+        <v>8.390000343322754</v>
       </c>
       <c r="E38">
-        <v>9.680000305175781</v>
+        <v>8.390000343322754</v>
       </c>
       <c r="F38">
-        <v>28768900</v>
+        <v>15376600</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>9.630000114440918</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="B39">
-        <v>9.859999656677246</v>
+        <v>8.409999847412109</v>
       </c>
       <c r="C39">
-        <v>9.020000457763672</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="D39">
-        <v>9.210000038146973</v>
+        <v>8.069999694824219</v>
       </c>
       <c r="E39">
-        <v>9.210000038146973</v>
+        <v>8.069999694824219</v>
       </c>
       <c r="F39">
-        <v>23062800</v>
+        <v>16892400</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>9.010000228881836</v>
+        <v>7.630000114440918</v>
       </c>
       <c r="B40">
-        <v>9.310000419616699</v>
+        <v>8.170000076293945</v>
       </c>
       <c r="C40">
-        <v>8.930000305175781</v>
+        <v>7.579999923706055</v>
       </c>
       <c r="D40">
-        <v>9.170000076293945</v>
+        <v>8.039999961853027</v>
       </c>
       <c r="E40">
-        <v>9.170000076293945</v>
+        <v>8.039999961853027</v>
       </c>
       <c r="F40">
-        <v>20935900</v>
+        <v>15245000</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>9</v>
+        <v>8.090000152587891</v>
       </c>
       <c r="B41">
-        <v>9.329999923706055</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="C41">
-        <v>8.880000114440918</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="D41">
-        <v>9.029999732971191</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="E41">
-        <v>9.029999732971191</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="F41">
-        <v>20047700</v>
+        <v>8752400</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>9.020000457763672</v>
+        <v>8.119999885559082</v>
       </c>
       <c r="B42">
-        <v>9.220000267028809</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="C42">
-        <v>8.680000305175781</v>
+        <v>7.730000019073486</v>
       </c>
       <c r="D42">
-        <v>8.800000190734863</v>
+        <v>8.020000457763672</v>
       </c>
       <c r="E42">
-        <v>8.800000190734863</v>
+        <v>8.020000457763672</v>
       </c>
       <c r="F42">
-        <v>17843300</v>
+        <v>11095600</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>8.840000152587891</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="B43">
-        <v>8.859999656677246</v>
+        <v>7.960000038146973</v>
       </c>
       <c r="C43">
-        <v>8.489999771118164</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="D43">
-        <v>8.829999923706055</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="E43">
-        <v>8.829999923706055</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="F43">
-        <v>16355800</v>
+        <v>12783200</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>8.880000114440918</v>
+        <v>7.579999923706055</v>
       </c>
       <c r="B44">
-        <v>9.520000457763672</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="C44">
-        <v>8.770000457763672</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D44">
-        <v>9.350000381469727</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="E44">
-        <v>9.350000381469727</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="F44">
-        <v>28968100</v>
+        <v>22182900</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>9.319999694824219</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B45">
-        <v>9.510000228881836</v>
+        <v>7.340000152587891</v>
       </c>
       <c r="C45">
-        <v>9.119999885559082</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="D45">
-        <v>9.460000038146973</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="E45">
-        <v>9.460000038146973</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="F45">
-        <v>19480900</v>
+        <v>20820800</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>9.5</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B46">
-        <v>9.619999885559082</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="C46">
-        <v>9.199999809265137</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="D46">
-        <v>9.229999542236328</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="E46">
-        <v>9.229999542236328</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="F46">
-        <v>14835100</v>
+        <v>16472600</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>9.289999961853027</v>
+        <v>6.309999942779541</v>
       </c>
       <c r="B47">
-        <v>9.430000305175781</v>
+        <v>6.760000228881836</v>
       </c>
       <c r="C47">
-        <v>8.829999923706055</v>
+        <v>6.25</v>
       </c>
       <c r="D47">
-        <v>8.859999656677246</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="E47">
-        <v>8.859999656677246</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="F47">
-        <v>21702000</v>
+        <v>22172200</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>8.939999580383301</v>
+        <v>6.71999979019165</v>
       </c>
       <c r="B48">
-        <v>9.369999885559082</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="C48">
-        <v>8.880000114440918</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="D48">
-        <v>9.289999961853027</v>
+        <v>6.75</v>
       </c>
       <c r="E48">
-        <v>9.289999961853027</v>
+        <v>6.75</v>
       </c>
       <c r="F48">
-        <v>18982200</v>
+        <v>15526900</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>9.399999618530273</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="B49">
-        <v>9.800000190734863</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="C49">
-        <v>8.960000038146973</v>
+        <v>6.75</v>
       </c>
       <c r="D49">
-        <v>9.100000381469727</v>
+        <v>7</v>
       </c>
       <c r="E49">
-        <v>9.100000381469727</v>
+        <v>7</v>
       </c>
       <c r="F49">
-        <v>27469600</v>
+        <v>15734700</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>9.100000381469727</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B50">
-        <v>9.119999885559082</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="C50">
-        <v>8.760000228881836</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="D50">
-        <v>8.899999618530273</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="E50">
-        <v>8.899999618530273</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="F50">
-        <v>16138200</v>
+        <v>11808000</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>8.979999542236328</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="B51">
-        <v>8.989999771118164</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="C51">
-        <v>8.430000305175781</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="D51">
-        <v>8.600000381469727</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="E51">
-        <v>8.600000381469727</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="F51">
-        <v>19084200</v>
+        <v>12550400</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>8.569999694824219</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="B52">
-        <v>8.699999809265137</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="C52">
-        <v>8.220000267028809</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="D52">
-        <v>8.380000114440918</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="E52">
-        <v>8.380000114440918</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="F52">
-        <v>14747500</v>
+        <v>11039600</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>8.439999580383301</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="B53">
-        <v>8.75</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="C53">
-        <v>8.260000228881836</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="D53">
-        <v>8.390000343322754</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="E53">
-        <v>8.390000343322754</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="F53">
-        <v>15376600</v>
+        <v>13635400</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>8.399999618530273</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="B54">
-        <v>8.409999847412109</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="C54">
-        <v>7.840000152587891</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="D54">
-        <v>8.069999694824219</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="E54">
-        <v>8.069999694824219</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="F54">
-        <v>16892400</v>
+        <v>12700800</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>7.630000114440918</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B55">
-        <v>8.170000076293945</v>
+        <v>6.639999866485596</v>
       </c>
       <c r="C55">
-        <v>7.579999923706055</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="D55">
-        <v>8.039999961853027</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="E55">
-        <v>8.039999961853027</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="F55">
-        <v>15245000</v>
+        <v>9464800</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>8.090000152587891</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="B56">
-        <v>8.149999618530273</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="C56">
-        <v>7.849999904632568</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="D56">
-        <v>8.050000190734863</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="E56">
-        <v>8.050000190734863</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="F56">
-        <v>8752400</v>
+        <v>9270300</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>8.119999885559082</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="B57">
-        <v>8.199999809265137</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="C57">
-        <v>7.730000019073486</v>
+        <v>6.309999942779541</v>
       </c>
       <c r="D57">
-        <v>8.020000457763672</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="E57">
-        <v>8.020000457763672</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="F57">
-        <v>11095600</v>
+        <v>8350000</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>7.940000057220459</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="B58">
-        <v>7.960000038146973</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="C58">
-        <v>7.559999942779541</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="D58">
-        <v>7.570000171661377</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="E58">
-        <v>7.570000171661377</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="F58">
-        <v>12783200</v>
+        <v>10066100</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>7.579999923706055</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B59">
-        <v>7.599999904632568</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="C59">
-        <v>7.010000228881836</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="D59">
-        <v>7.070000171661377</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="E59">
-        <v>7.070000171661377</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="F59">
-        <v>22182900</v>
+        <v>13209800</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>7.019999980926514</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="B60">
-        <v>7.340000152587891</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="C60">
-        <v>6.670000076293945</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="D60">
-        <v>6.940000057220459</v>
+        <v>6.190000057220459</v>
       </c>
       <c r="E60">
-        <v>6.940000057220459</v>
+        <v>6.190000057220459</v>
       </c>
       <c r="F60">
-        <v>20820800</v>
+        <v>13217700</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>7.019999980926514</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="B61">
-        <v>7.03000020980835</v>
+        <v>6.579999923706055</v>
       </c>
       <c r="C61">
-        <v>6.53000020980835</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="D61">
-        <v>6.550000190734863</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="E61">
-        <v>6.550000190734863</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="F61">
-        <v>16472600</v>
+        <v>14300500</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>6.309999942779541</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="B62">
-        <v>6.760000228881836</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="C62">
-        <v>6.25</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="D62">
-        <v>6.619999885559082</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="E62">
-        <v>6.619999885559082</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="F62">
-        <v>22172200</v>
+        <v>39677800</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>6.71999979019165</v>
+        <v>7.829999923706055</v>
       </c>
       <c r="B63">
-        <v>6.849999904632568</v>
+        <v>8.310000419616699</v>
       </c>
       <c r="C63">
-        <v>6.400000095367432</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="D63">
-        <v>6.75</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="E63">
-        <v>6.75</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="F63">
-        <v>15526900</v>
+        <v>63891500</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>6.789999961853027</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="B64">
-        <v>7.170000076293945</v>
+        <v>7.639999866485596</v>
       </c>
       <c r="C64">
         <v>6.75</v>
       </c>
       <c r="D64">
-        <v>7</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="E64">
-        <v>7</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="F64">
-        <v>15734700</v>
+        <v>34846900</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>7.059999942779541</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="B65">
-        <v>7.079999923706055</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="C65">
-        <v>6.599999904632568</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="D65">
         <v>6.690000057220459</v>
@@ -1692,1287 +1692,1307 @@
         <v>6.690000057220459</v>
       </c>
       <c r="F65">
-        <v>11808000</v>
+        <v>15876600</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>6.699999809265137</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="B66">
-        <v>6.710000038146973</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="C66">
-        <v>6.289999961853027</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="D66">
-        <v>6.400000095367432</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E66">
-        <v>6.400000095367432</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F66">
-        <v>12550400</v>
+        <v>20928500</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>6.340000152587891</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="B67">
-        <v>6.690000057220459</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="C67">
-        <v>6.320000171661377</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D67">
-        <v>6.460000038146973</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="E67">
-        <v>6.460000038146973</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="F67">
-        <v>11039600</v>
+        <v>22713400</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>6.420000076293945</v>
+        <v>6</v>
       </c>
       <c r="B68">
-        <v>6.460000038146973</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="C68">
-        <v>6.050000190734863</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="D68">
-        <v>6.340000152587891</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="E68">
-        <v>6.340000152587891</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="F68">
-        <v>13635400</v>
+        <v>17495200</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>6.409999847412109</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="B69">
-        <v>6.690000057220459</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="C69">
-        <v>6.28000020980835</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="D69">
-        <v>6.550000190734863</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="E69">
-        <v>6.550000190734863</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="F69">
-        <v>12700800</v>
+        <v>16864100</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>6.619999885559082</v>
+        <v>6</v>
       </c>
       <c r="B70">
-        <v>6.639999866485596</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C70">
-        <v>6.369999885559082</v>
+        <v>5.679999828338623</v>
       </c>
       <c r="D70">
-        <v>6.429999828338623</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E70">
-        <v>6.429999828338623</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F70">
-        <v>9464800</v>
+        <v>13918700</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>6.380000114440918</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="B71">
-        <v>6.559999942779541</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="C71">
-        <v>6.28000020980835</v>
+        <v>5.690000057220459</v>
       </c>
       <c r="D71">
-        <v>6.329999923706055</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="E71">
-        <v>6.329999923706055</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="F71">
-        <v>9270300</v>
+        <v>11070600</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>6.46999979019165</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="B72">
-        <v>6.550000190734863</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="C72">
-        <v>6.309999942779541</v>
+        <v>5.809999942779541</v>
       </c>
       <c r="D72">
-        <v>6.329999923706055</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E72">
-        <v>6.329999923706055</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F72">
-        <v>8350000</v>
+        <v>13515900</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>6.340000152587891</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B73">
-        <v>6.349999904632568</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="C73">
-        <v>6.119999885559082</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="D73">
-        <v>6.199999809265137</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="E73">
-        <v>6.199999809265137</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="F73">
-        <v>10066100</v>
+        <v>15727100</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>6.150000095367432</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="B74">
-        <v>6.320000171661377</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="C74">
-        <v>5.929999828338623</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="D74">
-        <v>5.980000019073486</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="E74">
-        <v>5.980000019073486</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="F74">
-        <v>13209800</v>
+        <v>11296100</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>5.96999979019165</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B75">
-        <v>6.349999904632568</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="C75">
-        <v>5.880000114440918</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="D75">
-        <v>6.190000057220459</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E75">
-        <v>6.190000057220459</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F75">
-        <v>13217700</v>
+        <v>13388500</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>6.429999828338623</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B76">
-        <v>6.579999923706055</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="C76">
-        <v>6.21999979019165</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="D76">
-        <v>6.329999923706055</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="E76">
-        <v>6.329999923706055</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="F76">
-        <v>14300500</v>
+        <v>9814900</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>6.389999866485596</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="B77">
-        <v>7.53000020980835</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="C77">
-        <v>6.289999961853027</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D77">
-        <v>7.21999979019165</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="E77">
-        <v>7.21999979019165</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="F77">
-        <v>39677800</v>
+        <v>14003400</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>7.829999923706055</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B78">
-        <v>8.310000419616699</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="C78">
-        <v>7.300000190734863</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="D78">
-        <v>7.519999980926514</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="E78">
-        <v>7.519999980926514</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="F78">
-        <v>63891500</v>
+        <v>10318100</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>7.550000190734863</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="B79">
-        <v>7.639999866485596</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="C79">
-        <v>6.75</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="D79">
-        <v>6.840000152587891</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="E79">
-        <v>6.840000152587891</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="F79">
-        <v>34846900</v>
+        <v>12659900</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>6.800000190734863</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="B80">
-        <v>6.96999979019165</v>
+        <v>6.590000152587891</v>
       </c>
       <c r="C80">
-        <v>6.46999979019165</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="D80">
-        <v>6.690000057220459</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="E80">
-        <v>6.690000057220459</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="F80">
-        <v>15876600</v>
+        <v>12398000</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>6.570000171661377</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="B81">
-        <v>6.610000133514404</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="C81">
-        <v>6.070000171661377</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="D81">
-        <v>6.139999866485596</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E81">
-        <v>6.139999866485596</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F81">
-        <v>20928500</v>
+        <v>13980600</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>6.210000038146973</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B82">
-        <v>6.360000133514404</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="C82">
-        <v>5.940000057220459</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="D82">
-        <v>6.070000171661377</v>
+        <v>6</v>
       </c>
       <c r="E82">
-        <v>6.070000171661377</v>
+        <v>6</v>
       </c>
       <c r="F82">
-        <v>22713400</v>
+        <v>15292000</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>6</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="B83">
-        <v>6.139999866485596</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="C83">
-        <v>5.769999980926514</v>
+        <v>5.690000057220459</v>
       </c>
       <c r="D83">
-        <v>5.920000076293945</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E83">
-        <v>5.920000076293945</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F83">
-        <v>17495200</v>
+        <v>17939600</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>5.96999979019165</v>
+        <v>5.739999771118164</v>
       </c>
       <c r="B84">
-        <v>6.320000171661377</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="C84">
-        <v>5.78000020980835</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="D84">
-        <v>6.070000171661377</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="E84">
-        <v>6.070000171661377</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="F84">
-        <v>16864100</v>
+        <v>14641800</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>6</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="B85">
-        <v>6.099999904632568</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="C85">
-        <v>5.679999828338623</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="D85">
-        <v>5.71999979019165</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="E85">
-        <v>5.71999979019165</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="F85">
-        <v>13918700</v>
+        <v>19485900</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>5.71999979019165</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="B86">
-        <v>5.920000076293945</v>
+        <v>5.75</v>
       </c>
       <c r="C86">
-        <v>5.690000057220459</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="D86">
-        <v>5.78000020980835</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="E86">
-        <v>5.78000020980835</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="F86">
-        <v>11070600</v>
+        <v>22075100</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>5.900000095367432</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="B87">
-        <v>6.199999809265137</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="C87">
-        <v>5.809999942779541</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="D87">
-        <v>6.139999866485596</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E87">
-        <v>6.139999866485596</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F87">
-        <v>13515900</v>
+        <v>214559900</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>6.159999847412109</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="B88">
-        <v>6.389999866485596</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="C88">
-        <v>6.019999980926514</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D88">
-        <v>6.269999980926514</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E88">
-        <v>6.269999980926514</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F88">
-        <v>15727100</v>
+        <v>59485900</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>6.269999980926514</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B89">
-        <v>6.46999979019165</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="C89">
-        <v>6.119999885559082</v>
+        <v>6</v>
       </c>
       <c r="D89">
-        <v>6.230000019073486</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="E89">
-        <v>6.230000019073486</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="F89">
-        <v>11296100</v>
+        <v>20369000</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>6.159999847412109</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="B90">
-        <v>6.53000020980835</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="C90">
-        <v>6.03000020980835</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="D90">
-        <v>6.119999885559082</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="E90">
-        <v>6.119999885559082</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="F90">
-        <v>13388500</v>
+        <v>31480400</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>6.159999847412109</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="B91">
-        <v>6.369999885559082</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="C91">
-        <v>6.090000152587891</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="D91">
-        <v>6.28000020980835</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E91">
-        <v>6.28000020980835</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F91">
-        <v>9814900</v>
+        <v>23518100</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
+        <v>6.269999980926514</v>
+      </c>
+      <c r="B92">
         <v>6.300000190734863</v>
       </c>
-      <c r="B92">
-        <v>6.329999923706055</v>
-      </c>
       <c r="C92">
-        <v>5.940000057220459</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="D92">
-        <v>6.210000038146973</v>
+        <v>6</v>
       </c>
       <c r="E92">
-        <v>6.210000038146973</v>
+        <v>6</v>
       </c>
       <c r="F92">
-        <v>14003400</v>
+        <v>18779700</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>6.150000095367432</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="B93">
-        <v>6.380000114440918</v>
+        <v>6.75</v>
       </c>
       <c r="C93">
-        <v>6.130000114440918</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="D93">
-        <v>6.239999771118164</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="E93">
-        <v>6.239999771118164</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="F93">
-        <v>10318100</v>
+        <v>34335200</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>6.210000038146973</v>
+        <v>6.760000228881836</v>
       </c>
       <c r="B94">
-        <v>6.53000020980835</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C94">
-        <v>6.199999809265137</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D94">
-        <v>6.369999885559082</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="E94">
-        <v>6.369999885559082</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="F94">
-        <v>12659900</v>
+        <v>39926500</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>6.440000057220459</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B95">
-        <v>6.590000152587891</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="C95">
-        <v>6.320000171661377</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="D95">
-        <v>6.420000076293945</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="E95">
-        <v>6.420000076293945</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="F95">
-        <v>12398000</v>
+        <v>20537600</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>6.420000076293945</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B96">
-        <v>6.440000057220459</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C96">
-        <v>6.059999942779541</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="D96">
-        <v>6.119999885559082</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="E96">
-        <v>6.119999885559082</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="F96">
-        <v>13980600</v>
+        <v>32138700</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>6.150000095367432</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="B97">
-        <v>6.329999923706055</v>
+        <v>7.860000133514404</v>
       </c>
       <c r="C97">
-        <v>5.989999771118164</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="D97">
-        <v>6</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="E97">
-        <v>6</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="F97">
-        <v>15292000</v>
+        <v>27209500</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>6.019999980926514</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="B98">
-        <v>6.059999942779541</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="C98">
-        <v>5.690000057220459</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D98">
-        <v>5.71999979019165</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="E98">
-        <v>5.71999979019165</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="F98">
-        <v>17939600</v>
+        <v>25907200</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>5.739999771118164</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B99">
-        <v>6.039999961853027</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C99">
-        <v>5.699999809265137</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D99">
-        <v>5.820000171661377</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="E99">
-        <v>5.820000171661377</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="F99">
-        <v>14641800</v>
+        <v>15831500</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>5.96999979019165</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="B100">
-        <v>5.96999979019165</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="C100">
-        <v>5.550000190734863</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="D100">
-        <v>5.579999923706055</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="E100">
-        <v>5.579999923706055</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="F100">
-        <v>19485900</v>
+        <v>16087800</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>5.619999885559082</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="B101">
-        <v>5.75</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="C101">
-        <v>5.340000152587891</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D101">
-        <v>5.619999885559082</v>
+        <v>6</v>
       </c>
       <c r="E101">
-        <v>5.619999885559082</v>
+        <v>6</v>
       </c>
       <c r="F101">
-        <v>22075100</v>
+        <v>19212300</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>6.199999809265137</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="B102">
-        <v>7.539999961853027</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="C102">
-        <v>6.119999885559082</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="D102">
-        <v>6.440000057220459</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="E102">
-        <v>6.440000057220459</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="F102">
-        <v>214559900</v>
+        <v>16756400</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>6.480000019073486</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="B103">
-        <v>6.610000133514404</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="C103">
-        <v>5.889999866485596</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="D103">
-        <v>6.139999866485596</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="E103">
-        <v>6.139999866485596</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="F103">
-        <v>59485900</v>
+        <v>14496300</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>6.070000171661377</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="B104">
-        <v>6.289999961853027</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="C104">
-        <v>6</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="D104">
-        <v>6.150000095367432</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="E104">
-        <v>6.150000095367432</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="F104">
-        <v>20369000</v>
+        <v>17549900</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>6.170000076293945</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="B105">
-        <v>6.550000190734863</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="C105">
-        <v>6.130000114440918</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="D105">
-        <v>6.550000190734863</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="E105">
-        <v>6.550000190734863</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="F105">
-        <v>31480400</v>
+        <v>13090500</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>6.239999771118164</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="B106">
-        <v>6.380000114440918</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="C106">
-        <v>5.96999979019165</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="D106">
-        <v>6.119999885559082</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="E106">
-        <v>6.119999885559082</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="F106">
-        <v>23518100</v>
+        <v>19742200</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>6.269999980926514</v>
+        <v>6.75</v>
       </c>
       <c r="B107">
-        <v>6.300000190734863</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="C107">
-        <v>5.949999809265137</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="D107">
-        <v>6</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E107">
-        <v>6</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F107">
-        <v>18779700</v>
+        <v>18894600</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>6.039999961853027</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="B108">
-        <v>6.75</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C108">
-        <v>6.010000228881836</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="D108">
-        <v>6.659999847412109</v>
+        <v>7.25</v>
       </c>
       <c r="E108">
-        <v>6.659999847412109</v>
+        <v>7.25</v>
       </c>
       <c r="F108">
-        <v>34335200</v>
+        <v>29360600</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>6.760000228881836</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="B109">
-        <v>7.309999942779541</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="C109">
-        <v>6.610000133514404</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="D109">
-        <v>7.239999771118164</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="E109">
-        <v>7.239999771118164</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="F109">
-        <v>39926500</v>
+        <v>39061800</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>7.050000190734863</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="B110">
-        <v>7.239999771118164</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="C110">
-        <v>6.949999809265137</v>
+        <v>7.130000114440918</v>
       </c>
       <c r="D110">
-        <v>6.96999979019165</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E110">
-        <v>6.96999979019165</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F110">
-        <v>20537600</v>
+        <v>45530600</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>7.059999942779541</v>
+        <v>7.690000057220459</v>
       </c>
       <c r="B111">
-        <v>7.789999961853027</v>
+        <v>8.930000305175781</v>
       </c>
       <c r="C111">
-        <v>7.03000020980835</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="D111">
-        <v>7.650000095367432</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="E111">
-        <v>7.650000095367432</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="F111">
-        <v>32138700</v>
+        <v>158157900</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>7.480000019073486</v>
+        <v>8.649999618530273</v>
       </c>
       <c r="B112">
-        <v>7.860000133514404</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="C112">
-        <v>7.170000076293945</v>
+        <v>8.029999732971191</v>
       </c>
       <c r="D112">
-        <v>7.190000057220459</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="E112">
-        <v>7.190000057220459</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="F112">
-        <v>27209500</v>
+        <v>133341000</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>7.320000171661377</v>
+        <v>8.449999809265137</v>
       </c>
       <c r="B113">
-        <v>7.349999904632568</v>
+        <v>8.659999847412109</v>
       </c>
       <c r="C113">
-        <v>6.559999942779541</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="D113">
-        <v>6.570000171661377</v>
+        <v>8.130000114440918</v>
       </c>
       <c r="E113">
-        <v>6.570000171661377</v>
+        <v>8.130000114440918</v>
       </c>
       <c r="F113">
-        <v>25907200</v>
+        <v>53993700</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>6.619999885559082</v>
+        <v>8.170000076293945</v>
       </c>
       <c r="B114">
-        <v>6.840000152587891</v>
+        <v>8.789999961853027</v>
       </c>
       <c r="C114">
-        <v>6.559999942779541</v>
+        <v>8.039999961853027</v>
       </c>
       <c r="D114">
-        <v>6.690000057220459</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="E114">
-        <v>6.690000057220459</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="F114">
-        <v>15831500</v>
+        <v>63505200</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>6.739999771118164</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="B115">
-        <v>6.809999942779541</v>
+        <v>8.189999580383301</v>
       </c>
       <c r="C115">
-        <v>6.369999885559082</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="D115">
-        <v>6.429999828338623</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E115">
-        <v>6.429999828338623</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F115">
-        <v>16087800</v>
+        <v>45161200</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>6.349999904632568</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="B116">
-        <v>6.369999885559082</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C116">
-        <v>5.940000057220459</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="D116">
-        <v>6</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="E116">
-        <v>6</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="F116">
-        <v>19212300</v>
+        <v>32354000</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>6.099999904632568</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="B117">
-        <v>6.28000020980835</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C117">
-        <v>5.980000019073486</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="D117">
-        <v>6.039999961853027</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="E117">
-        <v>6.039999961853027</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="F117">
-        <v>16756400</v>
+        <v>27876700</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>5.900000095367432</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="B118">
-        <v>6.199999809265137</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="C118">
-        <v>5.860000133514404</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="D118">
-        <v>6.070000171661377</v>
+        <v>7</v>
       </c>
       <c r="E118">
-        <v>6.070000171661377</v>
+        <v>7</v>
       </c>
       <c r="F118">
-        <v>14496300</v>
+        <v>24447100</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>6.119999885559082</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B119">
-        <v>6.460000038146973</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="C119">
-        <v>6.03000020980835</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D119">
-        <v>6.360000133514404</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="E119">
-        <v>6.360000133514404</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="F119">
-        <v>17549900</v>
+        <v>52828600</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>6.400000095367432</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="B120">
-        <v>6.599999904632568</v>
+        <v>8.060000419616699</v>
       </c>
       <c r="C120">
-        <v>6.340000152587891</v>
+        <v>7.5</v>
       </c>
       <c r="D120">
-        <v>6.389999866485596</v>
+        <v>7.989999771118164</v>
       </c>
       <c r="E120">
-        <v>6.389999866485596</v>
+        <v>7.989999771118164</v>
       </c>
       <c r="F120">
-        <v>13090500</v>
+        <v>33618200</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>6.369999885559082</v>
+        <v>8.279999732971191</v>
       </c>
       <c r="B121">
-        <v>6.96999979019165</v>
+        <v>9.649999618530273</v>
       </c>
       <c r="C121">
-        <v>6.349999904632568</v>
+        <v>8.25</v>
       </c>
       <c r="D121">
-        <v>6.710000038146973</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="E121">
-        <v>6.710000038146973</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="F121">
-        <v>19742200</v>
+        <v>81021500</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>6.75</v>
+        <v>9.899999618530273</v>
       </c>
       <c r="B122">
-        <v>7.039999961853027</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="C122">
-        <v>6.710000038146973</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="D122">
-        <v>6.920000076293945</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="E122">
-        <v>6.920000076293945</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="F122">
-        <v>18894600</v>
+        <v>82411400</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>7.199999809265137</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B123">
-        <v>7.309999942779541</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="C123">
-        <v>6.929999828338623</v>
+        <v>8.779999732971191</v>
       </c>
       <c r="D123">
-        <v>7.25</v>
+        <v>9.479999542236328</v>
       </c>
       <c r="E123">
-        <v>7.25</v>
+        <v>9.479999542236328</v>
       </c>
       <c r="F123">
-        <v>29360600</v>
+        <v>33335700</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>7.380000114440918</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="B124">
-        <v>7.440000057220459</v>
+        <v>9.630000114440918</v>
       </c>
       <c r="C124">
-        <v>6.869999885559082</v>
+        <v>9.119999885559082</v>
       </c>
       <c r="D124">
-        <v>7.21999979019165</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="E124">
-        <v>7.21999979019165</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="F124">
-        <v>39061800</v>
+        <v>28500800</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>7.260000228881836</v>
+        <v>9.130000114440918</v>
       </c>
       <c r="B125">
-        <v>7.849999904632568</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="C125">
-        <v>7.130000114440918</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="D125">
-        <v>7.389999866485596</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="E125">
-        <v>7.389999866485596</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="F125">
-        <v>45530600</v>
+        <v>23868500</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>7.690000057220459</v>
+        <v>9.560000419616699</v>
       </c>
       <c r="B126">
-        <v>8.930000305175781</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="C126">
-        <v>7.670000076293945</v>
+        <v>9.449999809265137</v>
       </c>
       <c r="D126">
-        <v>8.739999771118164</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="E126">
-        <v>8.739999771118164</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="F126">
-        <v>158157900</v>
+        <v>88991800</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>8.649999618530273</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="B127">
-        <v>8.899999618530273</v>
+        <v>11</v>
       </c>
       <c r="C127">
-        <v>8.029999732971191</v>
+        <v>9.850000381469727</v>
       </c>
       <c r="D127">
-        <v>8.590000152587891</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="E127">
-        <v>8.590000152587891</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="F127">
-        <v>133341000</v>
+        <v>46187600</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>8.449999809265137</v>
+        <v>10.25</v>
       </c>
       <c r="B128">
-        <v>8.659999847412109</v>
+        <v>10.96000003814697</v>
       </c>
       <c r="C128">
-        <v>8.050000190734863</v>
+        <v>9.960000038146973</v>
       </c>
       <c r="D128">
-        <v>8.130000114440918</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="E128">
-        <v>8.130000114440918</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F128">
-        <v>53993700</v>
+        <v>35711100</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>8.170000076293945</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="B129">
-        <v>8.789999961853027</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="C129">
-        <v>8.039999961853027</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="D129">
-        <v>8.109999656677246</v>
+        <v>11.11999988555908</v>
       </c>
       <c r="E129">
-        <v>8.109999656677246</v>
+        <v>11.11999988555908</v>
       </c>
       <c r="F129">
-        <v>63215900</v>
+        <v>45159100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>11.25</v>
+      </c>
+      <c r="B130">
+        <v>11.63000011444092</v>
+      </c>
+      <c r="C130">
+        <v>10.80000019073486</v>
+      </c>
+      <c r="D130">
+        <v>11.22999954223633</v>
+      </c>
+      <c r="E130">
+        <v>11.22999954223633</v>
+      </c>
+      <c r="F130">
+        <v>34855600</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/FCEL/HighLow.xlsx
+++ b/Stocks/FCEL/HighLow.xlsx
@@ -417,1093 +417,1093 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>7.699999809265137</v>
+        <v>8.710000038146973</v>
       </c>
       <c r="B2">
-        <v>7.860000133514404</v>
+        <v>8.789999961853027</v>
       </c>
       <c r="C2">
-        <v>6.800000190734863</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="D2">
-        <v>7.130000114440918</v>
+        <v>8.479999542236328</v>
       </c>
       <c r="E2">
-        <v>7.130000114440918</v>
+        <v>8.479999542236328</v>
       </c>
       <c r="F2">
-        <v>27454400</v>
+        <v>17078200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>7.710000038146973</v>
+        <v>8.510000228881836</v>
       </c>
       <c r="B3">
-        <v>7.900000095367432</v>
+        <v>9.029999732971191</v>
       </c>
       <c r="C3">
-        <v>7.260000228881836</v>
+        <v>8.380000114440918</v>
       </c>
       <c r="D3">
-        <v>7.75</v>
+        <v>8.909999847412109</v>
       </c>
       <c r="E3">
-        <v>7.75</v>
+        <v>8.909999847412109</v>
       </c>
       <c r="F3">
-        <v>18866500</v>
+        <v>23093900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>7.699999809265137</v>
+        <v>9.039999961853027</v>
       </c>
       <c r="B4">
-        <v>8.100000381469727</v>
+        <v>9.039999961853027</v>
       </c>
       <c r="C4">
-        <v>7.519999980926514</v>
+        <v>8.229999542236328</v>
       </c>
       <c r="D4">
-        <v>7.949999809265137</v>
+        <v>8.5</v>
       </c>
       <c r="E4">
-        <v>7.949999809265137</v>
+        <v>8.5</v>
       </c>
       <c r="F4">
-        <v>15691000</v>
+        <v>21615800</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>8.020000457763672</v>
+        <v>8.380000114440918</v>
       </c>
       <c r="B5">
-        <v>8.659999847412109</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="C5">
-        <v>7.820000171661377</v>
+        <v>8.319999694824219</v>
       </c>
       <c r="D5">
-        <v>8.270000457763672</v>
+        <v>8.420000076293945</v>
       </c>
       <c r="E5">
-        <v>8.270000457763672</v>
+        <v>8.420000076293945</v>
       </c>
       <c r="F5">
-        <v>21922400</v>
+        <v>13782500</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>8</v>
+        <v>8.449999809265137</v>
       </c>
       <c r="B6">
-        <v>8.529999732971191</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="C6">
-        <v>7.849999904632568</v>
+        <v>8.380000114440918</v>
       </c>
       <c r="D6">
-        <v>8.489999771118164</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="E6">
-        <v>8.489999771118164</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="F6">
-        <v>18307900</v>
+        <v>25853500</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>8.710000038146973</v>
+        <v>9.659999847412109</v>
       </c>
       <c r="B7">
-        <v>8.789999961853027</v>
+        <v>9.869999885559082</v>
       </c>
       <c r="C7">
-        <v>8.100000381469727</v>
+        <v>9.289999961853027</v>
       </c>
       <c r="D7">
-        <v>8.479999542236328</v>
+        <v>9.840000152587891</v>
       </c>
       <c r="E7">
-        <v>8.479999542236328</v>
+        <v>9.840000152587891</v>
       </c>
       <c r="F7">
-        <v>17078200</v>
+        <v>20734800</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>8.510000228881836</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="B8">
-        <v>9.029999732971191</v>
+        <v>10.57999992370605</v>
       </c>
       <c r="C8">
-        <v>8.380000114440918</v>
+        <v>9.75</v>
       </c>
       <c r="D8">
-        <v>8.909999847412109</v>
+        <v>9.819999694824219</v>
       </c>
       <c r="E8">
-        <v>8.909999847412109</v>
+        <v>9.819999694824219</v>
       </c>
       <c r="F8">
-        <v>23093900</v>
+        <v>24919000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>9.039999961853027</v>
+        <v>9.960000038146973</v>
       </c>
       <c r="B9">
-        <v>9.039999961853027</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="C9">
-        <v>8.229999542236328</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="D9">
-        <v>8.5</v>
+        <v>10.09000015258789</v>
       </c>
       <c r="E9">
-        <v>8.5</v>
+        <v>10.09000015258789</v>
       </c>
       <c r="F9">
-        <v>21615800</v>
+        <v>15402900</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>8.380000114440918</v>
+        <v>10.07999992370605</v>
       </c>
       <c r="B10">
-        <v>8.680000305175781</v>
+        <v>10.4399995803833</v>
       </c>
       <c r="C10">
-        <v>8.319999694824219</v>
+        <v>9.779999732971191</v>
       </c>
       <c r="D10">
-        <v>8.420000076293945</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="E10">
-        <v>8.420000076293945</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="F10">
-        <v>13782500</v>
+        <v>17329100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>8.449999809265137</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="B11">
-        <v>9.600000381469727</v>
+        <v>10.63000011444092</v>
       </c>
       <c r="C11">
-        <v>8.380000114440918</v>
+        <v>9.949999809265137</v>
       </c>
       <c r="D11">
-        <v>9.409999847412109</v>
+        <v>10.03999996185303</v>
       </c>
       <c r="E11">
-        <v>9.409999847412109</v>
+        <v>10.03999996185303</v>
       </c>
       <c r="F11">
-        <v>25853500</v>
+        <v>17839600</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>9.659999847412109</v>
+        <v>10.10999965667725</v>
       </c>
       <c r="B12">
-        <v>9.869999885559082</v>
+        <v>10.51000022888184</v>
       </c>
       <c r="C12">
-        <v>9.289999961853027</v>
+        <v>9.970000267028809</v>
       </c>
       <c r="D12">
-        <v>9.840000152587891</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="E12">
-        <v>9.840000152587891</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="F12">
-        <v>20734800</v>
+        <v>13719600</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>10.22000026702881</v>
+        <v>10.03999996185303</v>
       </c>
       <c r="B13">
-        <v>10.57999992370605</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C13">
-        <v>9.75</v>
+        <v>9.939999580383301</v>
       </c>
       <c r="D13">
-        <v>9.819999694824219</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="E13">
-        <v>9.819999694824219</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="F13">
-        <v>24919000</v>
+        <v>38076000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>9.960000038146973</v>
+        <v>12.14999961853027</v>
       </c>
       <c r="B14">
-        <v>10.19999980926514</v>
+        <v>12.61999988555908</v>
       </c>
       <c r="C14">
-        <v>9.600000381469727</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="D14">
-        <v>10.09000015258789</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="E14">
-        <v>10.09000015258789</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="F14">
-        <v>15402900</v>
+        <v>45860600</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>10.07999992370605</v>
+        <v>12.42000007629395</v>
       </c>
       <c r="B15">
-        <v>10.4399995803833</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="C15">
-        <v>9.779999732971191</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="D15">
-        <v>10.43000030517578</v>
+        <v>11.27000045776367</v>
       </c>
       <c r="E15">
-        <v>10.43000030517578</v>
+        <v>11.27000045776367</v>
       </c>
       <c r="F15">
-        <v>17329100</v>
+        <v>23345100</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>10.19999980926514</v>
+        <v>9.979999542236328</v>
       </c>
       <c r="B16">
-        <v>10.63000011444092</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="C16">
-        <v>9.949999809265137</v>
+        <v>9.659999847412109</v>
       </c>
       <c r="D16">
-        <v>10.03999996185303</v>
+        <v>10.0600004196167</v>
       </c>
       <c r="E16">
-        <v>10.03999996185303</v>
+        <v>10.0600004196167</v>
       </c>
       <c r="F16">
-        <v>17839600</v>
+        <v>43544200</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>10.10999965667725</v>
+        <v>10.17000007629395</v>
       </c>
       <c r="B17">
-        <v>10.51000022888184</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="C17">
-        <v>9.970000267028809</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="D17">
-        <v>9.989999771118164</v>
+        <v>10.57999992370605</v>
       </c>
       <c r="E17">
-        <v>9.989999771118164</v>
+        <v>10.57999992370605</v>
       </c>
       <c r="F17">
-        <v>13719600</v>
+        <v>18880700</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>10.03999996185303</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="B18">
-        <v>11.77000045776367</v>
+        <v>10.27000045776367</v>
       </c>
       <c r="C18">
-        <v>9.939999580383301</v>
+        <v>9.579999923706055</v>
       </c>
       <c r="D18">
-        <v>11.52000045776367</v>
+        <v>9.680000305175781</v>
       </c>
       <c r="E18">
-        <v>11.52000045776367</v>
+        <v>9.680000305175781</v>
       </c>
       <c r="F18">
-        <v>38076000</v>
+        <v>28768900</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>12.14999961853027</v>
+        <v>9.630000114440918</v>
       </c>
       <c r="B19">
-        <v>12.61999988555908</v>
+        <v>9.859999656677246</v>
       </c>
       <c r="C19">
-        <v>11.53999996185303</v>
+        <v>9.020000457763672</v>
       </c>
       <c r="D19">
-        <v>12.14000034332275</v>
+        <v>9.210000038146973</v>
       </c>
       <c r="E19">
-        <v>12.14000034332275</v>
+        <v>9.210000038146973</v>
       </c>
       <c r="F19">
-        <v>45860600</v>
+        <v>23062800</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>12.42000007629395</v>
+        <v>9.010000228881836</v>
       </c>
       <c r="B20">
-        <v>12.44999980926514</v>
+        <v>9.310000419616699</v>
       </c>
       <c r="C20">
-        <v>11.22999954223633</v>
+        <v>8.930000305175781</v>
       </c>
       <c r="D20">
-        <v>11.27000045776367</v>
+        <v>9.170000076293945</v>
       </c>
       <c r="E20">
-        <v>11.27000045776367</v>
+        <v>9.170000076293945</v>
       </c>
       <c r="F20">
-        <v>23345100</v>
+        <v>20935900</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>9.979999542236328</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>10.42000007629395</v>
+        <v>9.329999923706055</v>
       </c>
       <c r="C21">
-        <v>9.659999847412109</v>
+        <v>8.880000114440918</v>
       </c>
       <c r="D21">
-        <v>10.0600004196167</v>
+        <v>9.029999732971191</v>
       </c>
       <c r="E21">
-        <v>10.0600004196167</v>
+        <v>9.029999732971191</v>
       </c>
       <c r="F21">
-        <v>43544200</v>
+        <v>20047700</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>10.17000007629395</v>
+        <v>9.020000457763672</v>
       </c>
       <c r="B22">
-        <v>10.68000030517578</v>
+        <v>9.220000267028809</v>
       </c>
       <c r="C22">
-        <v>10.10000038146973</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="D22">
-        <v>10.57999992370605</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="E22">
-        <v>10.57999992370605</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="F22">
-        <v>18880700</v>
+        <v>17843300</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>10.10000038146973</v>
+        <v>8.840000152587891</v>
       </c>
       <c r="B23">
-        <v>10.27000045776367</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="C23">
-        <v>9.579999923706055</v>
+        <v>8.489999771118164</v>
       </c>
       <c r="D23">
-        <v>9.680000305175781</v>
+        <v>8.829999923706055</v>
       </c>
       <c r="E23">
-        <v>9.680000305175781</v>
+        <v>8.829999923706055</v>
       </c>
       <c r="F23">
-        <v>28768900</v>
+        <v>16355800</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>9.630000114440918</v>
+        <v>8.880000114440918</v>
       </c>
       <c r="B24">
-        <v>9.859999656677246</v>
+        <v>9.520000457763672</v>
       </c>
       <c r="C24">
-        <v>9.020000457763672</v>
+        <v>8.770000457763672</v>
       </c>
       <c r="D24">
-        <v>9.210000038146973</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="E24">
-        <v>9.210000038146973</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="F24">
-        <v>23062800</v>
+        <v>28968100</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>9.010000228881836</v>
+        <v>9.319999694824219</v>
       </c>
       <c r="B25">
-        <v>9.310000419616699</v>
+        <v>9.510000228881836</v>
       </c>
       <c r="C25">
-        <v>8.930000305175781</v>
+        <v>9.119999885559082</v>
       </c>
       <c r="D25">
-        <v>9.170000076293945</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="E25">
-        <v>9.170000076293945</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="F25">
-        <v>20935900</v>
+        <v>19480900</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="B26">
-        <v>9.329999923706055</v>
+        <v>9.619999885559082</v>
       </c>
       <c r="C26">
-        <v>8.880000114440918</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="D26">
-        <v>9.029999732971191</v>
+        <v>9.229999542236328</v>
       </c>
       <c r="E26">
-        <v>9.029999732971191</v>
+        <v>9.229999542236328</v>
       </c>
       <c r="F26">
-        <v>20047700</v>
+        <v>14835100</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>9.020000457763672</v>
+        <v>9.289999961853027</v>
       </c>
       <c r="B27">
-        <v>9.220000267028809</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="C27">
-        <v>8.680000305175781</v>
+        <v>8.829999923706055</v>
       </c>
       <c r="D27">
-        <v>8.800000190734863</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="E27">
-        <v>8.800000190734863</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="F27">
-        <v>17843300</v>
+        <v>21702000</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>8.840000152587891</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="B28">
-        <v>8.859999656677246</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="C28">
-        <v>8.489999771118164</v>
+        <v>8.880000114440918</v>
       </c>
       <c r="D28">
-        <v>8.829999923706055</v>
+        <v>9.289999961853027</v>
       </c>
       <c r="E28">
-        <v>8.829999923706055</v>
+        <v>9.289999961853027</v>
       </c>
       <c r="F28">
-        <v>16355800</v>
+        <v>18982200</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>8.880000114440918</v>
+        <v>9.399999618530273</v>
       </c>
       <c r="B29">
-        <v>9.520000457763672</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="C29">
-        <v>8.770000457763672</v>
+        <v>8.960000038146973</v>
       </c>
       <c r="D29">
-        <v>9.350000381469727</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="E29">
-        <v>9.350000381469727</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="F29">
-        <v>28968100</v>
+        <v>27469600</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>9.319999694824219</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="B30">
-        <v>9.510000228881836</v>
+        <v>9.119999885559082</v>
       </c>
       <c r="C30">
-        <v>9.119999885559082</v>
+        <v>8.760000228881836</v>
       </c>
       <c r="D30">
-        <v>9.460000038146973</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="E30">
-        <v>9.460000038146973</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="F30">
-        <v>19480900</v>
+        <v>16138200</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>9.5</v>
+        <v>8.979999542236328</v>
       </c>
       <c r="B31">
-        <v>9.619999885559082</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="C31">
-        <v>9.199999809265137</v>
+        <v>8.430000305175781</v>
       </c>
       <c r="D31">
-        <v>9.229999542236328</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="E31">
-        <v>9.229999542236328</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="F31">
-        <v>14835100</v>
+        <v>19084200</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>9.289999961853027</v>
+        <v>8.569999694824219</v>
       </c>
       <c r="B32">
-        <v>9.430000305175781</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="C32">
-        <v>8.829999923706055</v>
+        <v>8.220000267028809</v>
       </c>
       <c r="D32">
-        <v>8.859999656677246</v>
+        <v>8.380000114440918</v>
       </c>
       <c r="E32">
-        <v>8.859999656677246</v>
+        <v>8.380000114440918</v>
       </c>
       <c r="F32">
-        <v>21702000</v>
+        <v>14747500</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>8.939999580383301</v>
+        <v>8.439999580383301</v>
       </c>
       <c r="B33">
-        <v>9.369999885559082</v>
+        <v>8.75</v>
       </c>
       <c r="C33">
-        <v>8.880000114440918</v>
+        <v>8.260000228881836</v>
       </c>
       <c r="D33">
-        <v>9.289999961853027</v>
+        <v>8.390000343322754</v>
       </c>
       <c r="E33">
-        <v>9.289999961853027</v>
+        <v>8.390000343322754</v>
       </c>
       <c r="F33">
-        <v>18982200</v>
+        <v>15376600</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>9.399999618530273</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="B34">
-        <v>9.800000190734863</v>
+        <v>8.409999847412109</v>
       </c>
       <c r="C34">
-        <v>8.960000038146973</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="D34">
-        <v>9.100000381469727</v>
+        <v>8.069999694824219</v>
       </c>
       <c r="E34">
-        <v>9.100000381469727</v>
+        <v>8.069999694824219</v>
       </c>
       <c r="F34">
-        <v>27469600</v>
+        <v>16892400</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>9.100000381469727</v>
+        <v>7.630000114440918</v>
       </c>
       <c r="B35">
-        <v>9.119999885559082</v>
+        <v>8.170000076293945</v>
       </c>
       <c r="C35">
-        <v>8.760000228881836</v>
+        <v>7.579999923706055</v>
       </c>
       <c r="D35">
-        <v>8.899999618530273</v>
+        <v>8.039999961853027</v>
       </c>
       <c r="E35">
-        <v>8.899999618530273</v>
+        <v>8.039999961853027</v>
       </c>
       <c r="F35">
-        <v>16138200</v>
+        <v>15245000</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>8.979999542236328</v>
+        <v>8.090000152587891</v>
       </c>
       <c r="B36">
-        <v>8.989999771118164</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="C36">
-        <v>8.430000305175781</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="D36">
-        <v>8.600000381469727</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="E36">
-        <v>8.600000381469727</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="F36">
-        <v>19084200</v>
+        <v>8752400</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>8.569999694824219</v>
+        <v>8.119999885559082</v>
       </c>
       <c r="B37">
-        <v>8.699999809265137</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="C37">
-        <v>8.220000267028809</v>
+        <v>7.730000019073486</v>
       </c>
       <c r="D37">
-        <v>8.380000114440918</v>
+        <v>8.020000457763672</v>
       </c>
       <c r="E37">
-        <v>8.380000114440918</v>
+        <v>8.020000457763672</v>
       </c>
       <c r="F37">
-        <v>14747500</v>
+        <v>11095600</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>8.439999580383301</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="B38">
-        <v>8.75</v>
+        <v>7.960000038146973</v>
       </c>
       <c r="C38">
-        <v>8.260000228881836</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="D38">
-        <v>8.390000343322754</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="E38">
-        <v>8.390000343322754</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="F38">
-        <v>15376600</v>
+        <v>12783200</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>8.399999618530273</v>
+        <v>7.579999923706055</v>
       </c>
       <c r="B39">
-        <v>8.409999847412109</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="C39">
-        <v>7.840000152587891</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D39">
-        <v>8.069999694824219</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="E39">
-        <v>8.069999694824219</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="F39">
-        <v>16892400</v>
+        <v>22182900</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>7.630000114440918</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B40">
-        <v>8.170000076293945</v>
+        <v>7.340000152587891</v>
       </c>
       <c r="C40">
-        <v>7.579999923706055</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="D40">
-        <v>8.039999961853027</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="E40">
-        <v>8.039999961853027</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="F40">
-        <v>15245000</v>
+        <v>20820800</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>8.090000152587891</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B41">
-        <v>8.149999618530273</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="C41">
-        <v>7.849999904632568</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="D41">
-        <v>8.050000190734863</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="E41">
-        <v>8.050000190734863</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="F41">
-        <v>8752400</v>
+        <v>16472600</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>8.119999885559082</v>
+        <v>6.309999942779541</v>
       </c>
       <c r="B42">
-        <v>8.199999809265137</v>
+        <v>6.760000228881836</v>
       </c>
       <c r="C42">
-        <v>7.730000019073486</v>
+        <v>6.25</v>
       </c>
       <c r="D42">
-        <v>8.020000457763672</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="E42">
-        <v>8.020000457763672</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="F42">
-        <v>11095600</v>
+        <v>22172200</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>7.940000057220459</v>
+        <v>6.71999979019165</v>
       </c>
       <c r="B43">
-        <v>7.960000038146973</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="C43">
-        <v>7.559999942779541</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="D43">
-        <v>7.570000171661377</v>
+        <v>6.75</v>
       </c>
       <c r="E43">
-        <v>7.570000171661377</v>
+        <v>6.75</v>
       </c>
       <c r="F43">
-        <v>12783200</v>
+        <v>15526900</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>7.579999923706055</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="B44">
-        <v>7.599999904632568</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="C44">
-        <v>7.010000228881836</v>
+        <v>6.75</v>
       </c>
       <c r="D44">
-        <v>7.070000171661377</v>
+        <v>7</v>
       </c>
       <c r="E44">
-        <v>7.070000171661377</v>
+        <v>7</v>
       </c>
       <c r="F44">
-        <v>22182900</v>
+        <v>15734700</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>7.019999980926514</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B45">
-        <v>7.340000152587891</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="C45">
-        <v>6.670000076293945</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="D45">
-        <v>6.940000057220459</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="E45">
-        <v>6.940000057220459</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="F45">
-        <v>20820800</v>
+        <v>11808000</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>7.019999980926514</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="B46">
-        <v>7.03000020980835</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="C46">
-        <v>6.53000020980835</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="D46">
-        <v>6.550000190734863</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="E46">
-        <v>6.550000190734863</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="F46">
-        <v>16472600</v>
+        <v>12550400</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>6.309999942779541</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="B47">
-        <v>6.760000228881836</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="C47">
-        <v>6.25</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="D47">
-        <v>6.619999885559082</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="E47">
-        <v>6.619999885559082</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="F47">
-        <v>22172200</v>
+        <v>11039600</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>6.71999979019165</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="B48">
-        <v>6.849999904632568</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="C48">
-        <v>6.400000095367432</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="D48">
-        <v>6.75</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="E48">
-        <v>6.75</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="F48">
-        <v>15526900</v>
+        <v>13635400</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>6.789999961853027</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="B49">
-        <v>7.170000076293945</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="C49">
-        <v>6.75</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="D49">
-        <v>7</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="F49">
-        <v>15734700</v>
+        <v>12700800</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>7.059999942779541</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B50">
-        <v>7.079999923706055</v>
+        <v>6.639999866485596</v>
       </c>
       <c r="C50">
-        <v>6.599999904632568</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="D50">
-        <v>6.690000057220459</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="E50">
-        <v>6.690000057220459</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="F50">
-        <v>11808000</v>
+        <v>9464800</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>6.699999809265137</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="B51">
-        <v>6.710000038146973</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="C51">
-        <v>6.289999961853027</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="D51">
-        <v>6.400000095367432</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="E51">
-        <v>6.400000095367432</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="F51">
-        <v>12550400</v>
+        <v>9270300</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>6.340000152587891</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="B52">
-        <v>6.690000057220459</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="C52">
-        <v>6.320000171661377</v>
+        <v>6.309999942779541</v>
       </c>
       <c r="D52">
-        <v>6.460000038146973</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="E52">
-        <v>6.460000038146973</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="F52">
-        <v>11039600</v>
+        <v>8350000</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>6.420000076293945</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="B53">
-        <v>6.460000038146973</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="C53">
-        <v>6.050000190734863</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="D53">
-        <v>6.340000152587891</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="E53">
-        <v>6.340000152587891</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="F53">
-        <v>13635400</v>
+        <v>10066100</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>6.409999847412109</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B54">
-        <v>6.690000057220459</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="C54">
-        <v>6.28000020980835</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="D54">
-        <v>6.550000190734863</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="E54">
-        <v>6.550000190734863</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="F54">
-        <v>12700800</v>
+        <v>13209800</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>6.619999885559082</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="B55">
-        <v>6.639999866485596</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="C55">
-        <v>6.369999885559082</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="D55">
-        <v>6.429999828338623</v>
+        <v>6.190000057220459</v>
       </c>
       <c r="E55">
-        <v>6.429999828338623</v>
+        <v>6.190000057220459</v>
       </c>
       <c r="F55">
-        <v>9464800</v>
+        <v>13217700</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>6.380000114440918</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="B56">
-        <v>6.559999942779541</v>
+        <v>6.579999923706055</v>
       </c>
       <c r="C56">
-        <v>6.28000020980835</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="D56">
         <v>6.329999923706055</v>
@@ -1512,1438 +1512,1438 @@
         <v>6.329999923706055</v>
       </c>
       <c r="F56">
-        <v>9270300</v>
+        <v>14300500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>6.46999979019165</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="B57">
-        <v>6.550000190734863</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="C57">
-        <v>6.309999942779541</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="D57">
-        <v>6.329999923706055</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="E57">
-        <v>6.329999923706055</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="F57">
-        <v>8350000</v>
+        <v>39677800</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>6.340000152587891</v>
+        <v>7.829999923706055</v>
       </c>
       <c r="B58">
-        <v>6.349999904632568</v>
+        <v>8.310000419616699</v>
       </c>
       <c r="C58">
-        <v>6.119999885559082</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="D58">
-        <v>6.199999809265137</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="E58">
-        <v>6.199999809265137</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="F58">
-        <v>10066100</v>
+        <v>63891500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>6.150000095367432</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="B59">
-        <v>6.320000171661377</v>
+        <v>7.639999866485596</v>
       </c>
       <c r="C59">
-        <v>5.929999828338623</v>
+        <v>6.75</v>
       </c>
       <c r="D59">
-        <v>5.980000019073486</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="E59">
-        <v>5.980000019073486</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="F59">
-        <v>13209800</v>
+        <v>34846900</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>5.96999979019165</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="B60">
-        <v>6.349999904632568</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="C60">
-        <v>5.880000114440918</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="D60">
-        <v>6.190000057220459</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="E60">
-        <v>6.190000057220459</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="F60">
-        <v>13217700</v>
+        <v>15876600</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>6.429999828338623</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="B61">
-        <v>6.579999923706055</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="C61">
-        <v>6.21999979019165</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="D61">
-        <v>6.329999923706055</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E61">
-        <v>6.329999923706055</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F61">
-        <v>14300500</v>
+        <v>20928500</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>6.389999866485596</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="B62">
-        <v>7.53000020980835</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="C62">
-        <v>6.289999961853027</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D62">
-        <v>7.21999979019165</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="E62">
-        <v>7.21999979019165</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="F62">
-        <v>39677800</v>
+        <v>22713400</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>7.829999923706055</v>
+        <v>6</v>
       </c>
       <c r="B63">
-        <v>8.310000419616699</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="C63">
-        <v>7.300000190734863</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="D63">
-        <v>7.519999980926514</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="E63">
-        <v>7.519999980926514</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="F63">
-        <v>63891500</v>
+        <v>17495200</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>7.550000190734863</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="B64">
-        <v>7.639999866485596</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="C64">
-        <v>6.75</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="D64">
-        <v>6.840000152587891</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="E64">
-        <v>6.840000152587891</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="F64">
-        <v>34846900</v>
+        <v>16864100</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>6.800000190734863</v>
+        <v>6</v>
       </c>
       <c r="B65">
-        <v>6.96999979019165</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C65">
-        <v>6.46999979019165</v>
+        <v>5.679999828338623</v>
       </c>
       <c r="D65">
-        <v>6.690000057220459</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E65">
-        <v>6.690000057220459</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F65">
-        <v>15876600</v>
+        <v>13918700</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>6.570000171661377</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="B66">
-        <v>6.610000133514404</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="C66">
-        <v>6.070000171661377</v>
+        <v>5.690000057220459</v>
       </c>
       <c r="D66">
-        <v>6.139999866485596</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="E66">
-        <v>6.139999866485596</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="F66">
-        <v>20928500</v>
+        <v>11070600</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>6.210000038146973</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="B67">
-        <v>6.360000133514404</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="C67">
-        <v>5.940000057220459</v>
+        <v>5.809999942779541</v>
       </c>
       <c r="D67">
-        <v>6.070000171661377</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E67">
-        <v>6.070000171661377</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F67">
-        <v>22713400</v>
+        <v>13515900</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>6</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B68">
-        <v>6.139999866485596</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="C68">
-        <v>5.769999980926514</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="D68">
-        <v>5.920000076293945</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="E68">
-        <v>5.920000076293945</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="F68">
-        <v>17495200</v>
+        <v>15727100</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>5.96999979019165</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="B69">
-        <v>6.320000171661377</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="C69">
-        <v>5.78000020980835</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="D69">
-        <v>6.070000171661377</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="E69">
-        <v>6.070000171661377</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="F69">
-        <v>16864100</v>
+        <v>11296100</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>6</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B70">
-        <v>6.099999904632568</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="C70">
-        <v>5.679999828338623</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="D70">
-        <v>5.71999979019165</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E70">
-        <v>5.71999979019165</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F70">
-        <v>13918700</v>
+        <v>13388500</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>5.71999979019165</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B71">
-        <v>5.920000076293945</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="C71">
-        <v>5.690000057220459</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="D71">
-        <v>5.78000020980835</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="E71">
-        <v>5.78000020980835</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="F71">
-        <v>11070600</v>
+        <v>9814900</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>5.900000095367432</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="B72">
-        <v>6.199999809265137</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="C72">
-        <v>5.809999942779541</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D72">
-        <v>6.139999866485596</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="E72">
-        <v>6.139999866485596</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="F72">
-        <v>13515900</v>
+        <v>14003400</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>6.159999847412109</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B73">
-        <v>6.389999866485596</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="C73">
-        <v>6.019999980926514</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="D73">
-        <v>6.269999980926514</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="E73">
-        <v>6.269999980926514</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="F73">
-        <v>15727100</v>
+        <v>10318100</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>6.269999980926514</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="B74">
-        <v>6.46999979019165</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="C74">
-        <v>6.119999885559082</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="D74">
-        <v>6.230000019073486</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="E74">
-        <v>6.230000019073486</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="F74">
-        <v>11296100</v>
+        <v>12659900</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>6.159999847412109</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="B75">
-        <v>6.53000020980835</v>
+        <v>6.590000152587891</v>
       </c>
       <c r="C75">
-        <v>6.03000020980835</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="D75">
-        <v>6.119999885559082</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="E75">
-        <v>6.119999885559082</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="F75">
-        <v>13388500</v>
+        <v>12398000</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>6.159999847412109</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="B76">
-        <v>6.369999885559082</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="C76">
-        <v>6.090000152587891</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="D76">
-        <v>6.28000020980835</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E76">
-        <v>6.28000020980835</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F76">
-        <v>9814900</v>
+        <v>13980600</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>6.300000190734863</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B77">
         <v>6.329999923706055</v>
       </c>
       <c r="C77">
-        <v>5.940000057220459</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="D77">
-        <v>6.210000038146973</v>
+        <v>6</v>
       </c>
       <c r="E77">
-        <v>6.210000038146973</v>
+        <v>6</v>
       </c>
       <c r="F77">
-        <v>14003400</v>
+        <v>15292000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>6.150000095367432</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="B78">
-        <v>6.380000114440918</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="C78">
-        <v>6.130000114440918</v>
+        <v>5.690000057220459</v>
       </c>
       <c r="D78">
-        <v>6.239999771118164</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E78">
-        <v>6.239999771118164</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F78">
-        <v>10318100</v>
+        <v>17939600</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>6.210000038146973</v>
+        <v>5.739999771118164</v>
       </c>
       <c r="B79">
-        <v>6.53000020980835</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="C79">
-        <v>6.199999809265137</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="D79">
-        <v>6.369999885559082</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="E79">
-        <v>6.369999885559082</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="F79">
-        <v>12659900</v>
+        <v>14641800</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>6.440000057220459</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="B80">
-        <v>6.590000152587891</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="C80">
-        <v>6.320000171661377</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="D80">
-        <v>6.420000076293945</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="E80">
-        <v>6.420000076293945</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="F80">
-        <v>12398000</v>
+        <v>19485900</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>6.420000076293945</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="B81">
-        <v>6.440000057220459</v>
+        <v>5.75</v>
       </c>
       <c r="C81">
-        <v>6.059999942779541</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="D81">
-        <v>6.119999885559082</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="E81">
-        <v>6.119999885559082</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="F81">
-        <v>13980600</v>
+        <v>22075100</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>6.150000095367432</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="B82">
-        <v>6.329999923706055</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="C82">
-        <v>5.989999771118164</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="D82">
-        <v>6</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E82">
-        <v>6</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F82">
-        <v>15292000</v>
+        <v>214559900</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>6.019999980926514</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="B83">
-        <v>6.059999942779541</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="C83">
-        <v>5.690000057220459</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D83">
-        <v>5.71999979019165</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E83">
-        <v>5.71999979019165</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F83">
-        <v>17939600</v>
+        <v>59485900</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>5.739999771118164</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B84">
-        <v>6.039999961853027</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="C84">
-        <v>5.699999809265137</v>
+        <v>6</v>
       </c>
       <c r="D84">
-        <v>5.820000171661377</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="E84">
-        <v>5.820000171661377</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="F84">
-        <v>14641800</v>
+        <v>20369000</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>5.96999979019165</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="B85">
-        <v>5.96999979019165</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="C85">
-        <v>5.550000190734863</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="D85">
-        <v>5.579999923706055</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="E85">
-        <v>5.579999923706055</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="F85">
-        <v>19485900</v>
+        <v>31480400</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>5.619999885559082</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="B86">
-        <v>5.75</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="C86">
-        <v>5.340000152587891</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="D86">
-        <v>5.619999885559082</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E86">
-        <v>5.619999885559082</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F86">
-        <v>22075100</v>
+        <v>23518100</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>6.199999809265137</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="B87">
-        <v>7.539999961853027</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="C87">
-        <v>6.119999885559082</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="D87">
-        <v>6.440000057220459</v>
+        <v>6</v>
       </c>
       <c r="E87">
-        <v>6.440000057220459</v>
+        <v>6</v>
       </c>
       <c r="F87">
-        <v>214559900</v>
+        <v>18779700</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>6.480000019073486</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="B88">
-        <v>6.610000133514404</v>
+        <v>6.75</v>
       </c>
       <c r="C88">
-        <v>5.889999866485596</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="D88">
-        <v>6.139999866485596</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="E88">
-        <v>6.139999866485596</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="F88">
-        <v>59485900</v>
+        <v>34335200</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>6.070000171661377</v>
+        <v>6.760000228881836</v>
       </c>
       <c r="B89">
-        <v>6.289999961853027</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C89">
-        <v>6</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D89">
-        <v>6.150000095367432</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="E89">
-        <v>6.150000095367432</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="F89">
-        <v>20369000</v>
+        <v>39926500</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>6.170000076293945</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B90">
-        <v>6.550000190734863</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="C90">
-        <v>6.130000114440918</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="D90">
-        <v>6.550000190734863</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="E90">
-        <v>6.550000190734863</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="F90">
-        <v>31480400</v>
+        <v>20537600</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>6.239999771118164</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B91">
-        <v>6.380000114440918</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C91">
-        <v>5.96999979019165</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="D91">
-        <v>6.119999885559082</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="E91">
-        <v>6.119999885559082</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="F91">
-        <v>23518100</v>
+        <v>32138700</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>6.269999980926514</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="B92">
-        <v>6.300000190734863</v>
+        <v>7.860000133514404</v>
       </c>
       <c r="C92">
-        <v>5.949999809265137</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="D92">
-        <v>6</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="E92">
-        <v>6</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="F92">
-        <v>18779700</v>
+        <v>27209500</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>6.039999961853027</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="B93">
-        <v>6.75</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="C93">
-        <v>6.010000228881836</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D93">
-        <v>6.659999847412109</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="E93">
-        <v>6.659999847412109</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="F93">
-        <v>34335200</v>
+        <v>25907200</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>6.760000228881836</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B94">
-        <v>7.309999942779541</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C94">
-        <v>6.610000133514404</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D94">
-        <v>7.239999771118164</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="E94">
-        <v>7.239999771118164</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="F94">
-        <v>39926500</v>
+        <v>15831500</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>7.050000190734863</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="B95">
-        <v>7.239999771118164</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="C95">
-        <v>6.949999809265137</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="D95">
-        <v>6.96999979019165</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="E95">
-        <v>6.96999979019165</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="F95">
-        <v>20537600</v>
+        <v>16087800</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>7.059999942779541</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="B96">
-        <v>7.789999961853027</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="C96">
-        <v>7.03000020980835</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D96">
-        <v>7.650000095367432</v>
+        <v>6</v>
       </c>
       <c r="E96">
-        <v>7.650000095367432</v>
+        <v>6</v>
       </c>
       <c r="F96">
-        <v>32138700</v>
+        <v>19212300</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>7.480000019073486</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="B97">
-        <v>7.860000133514404</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="C97">
-        <v>7.170000076293945</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="D97">
-        <v>7.190000057220459</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="E97">
-        <v>7.190000057220459</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="F97">
-        <v>27209500</v>
+        <v>16756400</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>7.320000171661377</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="B98">
-        <v>7.349999904632568</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="C98">
-        <v>6.559999942779541</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="D98">
-        <v>6.570000171661377</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="E98">
-        <v>6.570000171661377</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="F98">
-        <v>25907200</v>
+        <v>14496300</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>6.619999885559082</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="B99">
-        <v>6.840000152587891</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="C99">
-        <v>6.559999942779541</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="D99">
-        <v>6.690000057220459</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="E99">
-        <v>6.690000057220459</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="F99">
-        <v>15831500</v>
+        <v>17549900</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>6.739999771118164</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="B100">
-        <v>6.809999942779541</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="C100">
-        <v>6.369999885559082</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="D100">
-        <v>6.429999828338623</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="E100">
-        <v>6.429999828338623</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="F100">
-        <v>16087800</v>
+        <v>13090500</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
+        <v>6.369999885559082</v>
+      </c>
+      <c r="B101">
+        <v>6.96999979019165</v>
+      </c>
+      <c r="C101">
         <v>6.349999904632568</v>
       </c>
-      <c r="B101">
-        <v>6.369999885559082</v>
-      </c>
-      <c r="C101">
-        <v>5.940000057220459</v>
-      </c>
       <c r="D101">
-        <v>6</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="E101">
-        <v>6</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="F101">
-        <v>19212300</v>
+        <v>19742200</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>6.099999904632568</v>
+        <v>6.75</v>
       </c>
       <c r="B102">
-        <v>6.28000020980835</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="C102">
-        <v>5.980000019073486</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="D102">
-        <v>6.039999961853027</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E102">
-        <v>6.039999961853027</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F102">
-        <v>16756400</v>
+        <v>18894600</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>5.900000095367432</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="B103">
-        <v>6.199999809265137</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C103">
-        <v>5.860000133514404</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="D103">
-        <v>6.070000171661377</v>
+        <v>7.25</v>
       </c>
       <c r="E103">
-        <v>6.070000171661377</v>
+        <v>7.25</v>
       </c>
       <c r="F103">
-        <v>14496300</v>
+        <v>29360600</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>6.119999885559082</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="B104">
-        <v>6.460000038146973</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="C104">
-        <v>6.03000020980835</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="D104">
-        <v>6.360000133514404</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="E104">
-        <v>6.360000133514404</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="F104">
-        <v>17549900</v>
+        <v>39061800</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>6.400000095367432</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="B105">
-        <v>6.599999904632568</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="C105">
-        <v>6.340000152587891</v>
+        <v>7.130000114440918</v>
       </c>
       <c r="D105">
-        <v>6.389999866485596</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E105">
-        <v>6.389999866485596</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F105">
-        <v>13090500</v>
+        <v>45530600</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>6.369999885559082</v>
+        <v>7.690000057220459</v>
       </c>
       <c r="B106">
-        <v>6.96999979019165</v>
+        <v>8.930000305175781</v>
       </c>
       <c r="C106">
-        <v>6.349999904632568</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="D106">
-        <v>6.710000038146973</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="E106">
-        <v>6.710000038146973</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="F106">
-        <v>19742200</v>
+        <v>158157900</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>6.75</v>
+        <v>8.649999618530273</v>
       </c>
       <c r="B107">
-        <v>7.039999961853027</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="C107">
-        <v>6.710000038146973</v>
+        <v>8.029999732971191</v>
       </c>
       <c r="D107">
-        <v>6.920000076293945</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="E107">
-        <v>6.920000076293945</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="F107">
-        <v>18894600</v>
+        <v>133341000</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>7.199999809265137</v>
+        <v>8.449999809265137</v>
       </c>
       <c r="B108">
-        <v>7.309999942779541</v>
+        <v>8.659999847412109</v>
       </c>
       <c r="C108">
-        <v>6.929999828338623</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="D108">
-        <v>7.25</v>
+        <v>8.130000114440918</v>
       </c>
       <c r="E108">
-        <v>7.25</v>
+        <v>8.130000114440918</v>
       </c>
       <c r="F108">
-        <v>29360600</v>
+        <v>53993700</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>7.380000114440918</v>
+        <v>8.170000076293945</v>
       </c>
       <c r="B109">
-        <v>7.440000057220459</v>
+        <v>8.789999961853027</v>
       </c>
       <c r="C109">
-        <v>6.869999885559082</v>
+        <v>8.039999961853027</v>
       </c>
       <c r="D109">
-        <v>7.21999979019165</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="E109">
-        <v>7.21999979019165</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="F109">
-        <v>39061800</v>
+        <v>63505200</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>7.260000228881836</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="B110">
-        <v>7.849999904632568</v>
+        <v>8.189999580383301</v>
       </c>
       <c r="C110">
-        <v>7.130000114440918</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="D110">
-        <v>7.389999866485596</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E110">
-        <v>7.389999866485596</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F110">
-        <v>45530600</v>
+        <v>45161200</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>7.690000057220459</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="B111">
-        <v>8.930000305175781</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C111">
-        <v>7.670000076293945</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="D111">
-        <v>8.739999771118164</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="E111">
-        <v>8.739999771118164</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="F111">
-        <v>158157900</v>
+        <v>32354000</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>8.649999618530273</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="B112">
-        <v>8.899999618530273</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C112">
-        <v>8.029999732971191</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="D112">
-        <v>8.590000152587891</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="E112">
-        <v>8.590000152587891</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="F112">
-        <v>133341000</v>
+        <v>27876700</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>8.449999809265137</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="B113">
-        <v>8.659999847412109</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="C113">
-        <v>8.050000190734863</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="D113">
-        <v>8.130000114440918</v>
+        <v>7</v>
       </c>
       <c r="E113">
-        <v>8.130000114440918</v>
+        <v>7</v>
       </c>
       <c r="F113">
-        <v>53993700</v>
+        <v>24447100</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>8.170000076293945</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B114">
-        <v>8.789999961853027</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="C114">
-        <v>8.039999961853027</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D114">
-        <v>8.109999656677246</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="E114">
-        <v>8.109999656677246</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="F114">
-        <v>63505200</v>
+        <v>52828600</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>8.050000190734863</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="B115">
-        <v>8.189999580383301</v>
+        <v>8.060000419616699</v>
       </c>
       <c r="C115">
-        <v>7.210000038146973</v>
+        <v>7.5</v>
       </c>
       <c r="D115">
-        <v>7.289999961853027</v>
+        <v>7.989999771118164</v>
       </c>
       <c r="E115">
-        <v>7.289999961853027</v>
+        <v>7.989999771118164</v>
       </c>
       <c r="F115">
-        <v>45161200</v>
+        <v>33618200</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>7.420000076293945</v>
+        <v>8.279999732971191</v>
       </c>
       <c r="B116">
-        <v>7.559999942779541</v>
+        <v>9.649999618530273</v>
       </c>
       <c r="C116">
-        <v>7.159999847412109</v>
+        <v>8.25</v>
       </c>
       <c r="D116">
-        <v>7.539999961853027</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="E116">
-        <v>7.539999961853027</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="F116">
-        <v>32354000</v>
+        <v>81021500</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>7.590000152587891</v>
+        <v>9.899999618530273</v>
       </c>
       <c r="B117">
-        <v>7.789999961853027</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="C117">
-        <v>7.110000133514404</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="D117">
-        <v>7.170000076293945</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="E117">
-        <v>7.170000076293945</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="F117">
-        <v>27876700</v>
+        <v>82411400</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>7.239999771118164</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B118">
-        <v>7.539999961853027</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="C118">
-        <v>6.960000038146973</v>
+        <v>8.779999732971191</v>
       </c>
       <c r="D118">
-        <v>7</v>
+        <v>9.479999542236328</v>
       </c>
       <c r="E118">
-        <v>7</v>
+        <v>9.479999542236328</v>
       </c>
       <c r="F118">
-        <v>24447100</v>
+        <v>33335700</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>7.019999980926514</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="B119">
-        <v>7.940000057220459</v>
+        <v>9.630000114440918</v>
       </c>
       <c r="C119">
-        <v>7.010000228881836</v>
+        <v>9.119999885559082</v>
       </c>
       <c r="D119">
-        <v>7.570000171661377</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="E119">
-        <v>7.570000171661377</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="F119">
-        <v>52828600</v>
+        <v>28500800</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>7.559999942779541</v>
+        <v>9.130000114440918</v>
       </c>
       <c r="B120">
-        <v>8.060000419616699</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="C120">
-        <v>7.5</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="D120">
-        <v>7.989999771118164</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="E120">
-        <v>7.989999771118164</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="F120">
-        <v>33618200</v>
+        <v>23868500</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>8.279999732971191</v>
+        <v>9.560000419616699</v>
       </c>
       <c r="B121">
-        <v>9.649999618530273</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="C121">
-        <v>8.25</v>
+        <v>9.449999809265137</v>
       </c>
       <c r="D121">
-        <v>9.529999732971191</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="E121">
-        <v>9.529999732971191</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="F121">
-        <v>81021500</v>
+        <v>88991800</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>9.899999618530273</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="B122">
-        <v>9.989999771118164</v>
+        <v>11</v>
       </c>
       <c r="C122">
-        <v>8.970000267028809</v>
+        <v>9.850000381469727</v>
       </c>
       <c r="D122">
-        <v>9.430000305175781</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="E122">
-        <v>9.430000305175781</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="F122">
-        <v>82411400</v>
+        <v>46187600</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>8.989999771118164</v>
+        <v>10.25</v>
       </c>
       <c r="B123">
-        <v>9.550000190734863</v>
+        <v>10.96000003814697</v>
       </c>
       <c r="C123">
-        <v>8.779999732971191</v>
+        <v>9.960000038146973</v>
       </c>
       <c r="D123">
-        <v>9.479999542236328</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="E123">
-        <v>9.479999542236328</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F123">
-        <v>33335700</v>
+        <v>35711100</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>9.609999656677246</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="B124">
-        <v>9.630000114440918</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="C124">
-        <v>9.119999885559082</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="D124">
-        <v>9.279999732971191</v>
+        <v>11.11999988555908</v>
       </c>
       <c r="E124">
-        <v>9.279999732971191</v>
+        <v>11.11999988555908</v>
       </c>
       <c r="F124">
-        <v>28500800</v>
+        <v>45159100</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>9.130000114440918</v>
+        <v>11.25</v>
       </c>
       <c r="B125">
-        <v>9.279999732971191</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="C125">
-        <v>8.680000305175781</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="D125">
-        <v>8.949999809265137</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="E125">
-        <v>8.949999809265137</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="F125">
-        <v>23868500</v>
+        <v>34855600</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>9.560000419616699</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="B126">
-        <v>11.22000026702881</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="C126">
-        <v>9.449999809265137</v>
+        <v>10.51000022888184</v>
       </c>
       <c r="D126">
-        <v>10.8100004196167</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="E126">
-        <v>10.8100004196167</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="F126">
-        <v>88991800</v>
+        <v>31722900</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>10.93000030517578</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="B127">
-        <v>11</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="C127">
-        <v>9.850000381469727</v>
+        <v>9.909999847412109</v>
       </c>
       <c r="D127">
-        <v>10.82999992370605</v>
+        <v>10.59000015258789</v>
       </c>
       <c r="E127">
-        <v>10.82999992370605</v>
+        <v>10.59000015258789</v>
       </c>
       <c r="F127">
-        <v>46187600</v>
+        <v>29685800</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>10.25</v>
+        <v>10.32999992370605</v>
       </c>
       <c r="B128">
-        <v>10.96000003814697</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="C128">
-        <v>9.960000038146973</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="D128">
         <v>10.23999977111816</v>
@@ -2952,47 +2952,47 @@
         <v>10.23999977111816</v>
       </c>
       <c r="F128">
-        <v>35711100</v>
+        <v>23815200</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>10.42000007629395</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="B129">
-        <v>11.46000003814697</v>
+        <v>10.26000022888184</v>
       </c>
       <c r="C129">
-        <v>10.10000038146973</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="D129">
-        <v>11.11999988555908</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="E129">
-        <v>11.11999988555908</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="F129">
-        <v>45159100</v>
+        <v>33549300</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>11.25</v>
+        <v>9.470000267028809</v>
       </c>
       <c r="B130">
-        <v>11.63000011444092</v>
+        <v>10.21000003814697</v>
       </c>
       <c r="C130">
-        <v>10.80000019073486</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="D130">
-        <v>11.22999954223633</v>
+        <v>9.810000419616699</v>
       </c>
       <c r="E130">
-        <v>11.22999954223633</v>
+        <v>9.810000419616699</v>
       </c>
       <c r="F130">
-        <v>34855600</v>
+        <v>24676300</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/FCEL/HighLow.xlsx
+++ b/Stocks/FCEL/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2582 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>8.710000038146973</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="B2">
-        <v>8.789999961853027</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="C2">
-        <v>8.100000381469727</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="D2">
-        <v>8.479999542236328</v>
+        <v>6.190000057220459</v>
       </c>
       <c r="E2">
-        <v>8.479999542236328</v>
+        <v>6.190000057220459</v>
       </c>
       <c r="F2">
-        <v>17078200</v>
+        <v>13217700</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>8.510000228881836</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="B3">
-        <v>9.029999732971191</v>
+        <v>6.579999923706055</v>
       </c>
       <c r="C3">
-        <v>8.380000114440918</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="D3">
-        <v>8.909999847412109</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="E3">
-        <v>8.909999847412109</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="F3">
-        <v>23093900</v>
+        <v>14300500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>9.039999961853027</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="B4">
-        <v>9.039999961853027</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="C4">
-        <v>8.229999542236328</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="D4">
-        <v>8.5</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="E4">
-        <v>8.5</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="F4">
-        <v>21615800</v>
+        <v>39677800</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>8.380000114440918</v>
+        <v>7.829999923706055</v>
       </c>
       <c r="B5">
-        <v>8.680000305175781</v>
+        <v>8.310000419616699</v>
       </c>
       <c r="C5">
-        <v>8.319999694824219</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="D5">
-        <v>8.420000076293945</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="E5">
-        <v>8.420000076293945</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="F5">
-        <v>13782500</v>
+        <v>63891500</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>8.449999809265137</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="B6">
-        <v>9.600000381469727</v>
+        <v>7.639999866485596</v>
       </c>
       <c r="C6">
-        <v>8.380000114440918</v>
+        <v>6.75</v>
       </c>
       <c r="D6">
-        <v>9.409999847412109</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="E6">
-        <v>9.409999847412109</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="F6">
-        <v>25853500</v>
+        <v>34846900</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>9.659999847412109</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="B7">
-        <v>9.869999885559082</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="C7">
-        <v>9.289999961853027</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="D7">
-        <v>9.840000152587891</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="E7">
-        <v>9.840000152587891</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="F7">
-        <v>20734800</v>
+        <v>15876600</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>10.22000026702881</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="B8">
-        <v>10.57999992370605</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="C8">
-        <v>9.75</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="D8">
-        <v>9.819999694824219</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E8">
-        <v>9.819999694824219</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F8">
-        <v>24919000</v>
+        <v>20928500</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>9.960000038146973</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="B9">
-        <v>10.19999980926514</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="C9">
-        <v>9.600000381469727</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D9">
-        <v>10.09000015258789</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="E9">
-        <v>10.09000015258789</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="F9">
-        <v>15402900</v>
+        <v>22713400</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>10.07999992370605</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>10.4399995803833</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="C10">
-        <v>9.779999732971191</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="D10">
-        <v>10.43000030517578</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="E10">
-        <v>10.43000030517578</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="F10">
-        <v>17329100</v>
+        <v>17495200</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>10.19999980926514</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="B11">
-        <v>10.63000011444092</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="C11">
-        <v>9.949999809265137</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="D11">
-        <v>10.03999996185303</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="E11">
-        <v>10.03999996185303</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="F11">
-        <v>17839600</v>
+        <v>16864100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>10.10999965667725</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>10.51000022888184</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C12">
-        <v>9.970000267028809</v>
+        <v>5.679999828338623</v>
       </c>
       <c r="D12">
-        <v>9.989999771118164</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E12">
-        <v>9.989999771118164</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F12">
-        <v>13719600</v>
+        <v>13918700</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>10.03999996185303</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="B13">
-        <v>11.77000045776367</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="C13">
-        <v>9.939999580383301</v>
+        <v>5.690000057220459</v>
       </c>
       <c r="D13">
-        <v>11.52000045776367</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="E13">
-        <v>11.52000045776367</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="F13">
-        <v>38076000</v>
+        <v>11070600</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>12.14999961853027</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="B14">
-        <v>12.61999988555908</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="C14">
-        <v>11.53999996185303</v>
+        <v>5.809999942779541</v>
       </c>
       <c r="D14">
-        <v>12.14000034332275</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E14">
-        <v>12.14000034332275</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F14">
-        <v>45860600</v>
+        <v>13515900</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>12.42000007629395</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B15">
-        <v>12.44999980926514</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="C15">
-        <v>11.22999954223633</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="D15">
-        <v>11.27000045776367</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="E15">
-        <v>11.27000045776367</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="F15">
-        <v>23345100</v>
+        <v>15727100</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>9.979999542236328</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="B16">
-        <v>10.42000007629395</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="C16">
-        <v>9.659999847412109</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="D16">
-        <v>10.0600004196167</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="E16">
-        <v>10.0600004196167</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="F16">
-        <v>43544200</v>
+        <v>11296100</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>10.17000007629395</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B17">
-        <v>10.68000030517578</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="C17">
-        <v>10.10000038146973</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="D17">
-        <v>10.57999992370605</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E17">
-        <v>10.57999992370605</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F17">
-        <v>18880700</v>
+        <v>13388500</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>10.10000038146973</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B18">
-        <v>10.27000045776367</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="C18">
-        <v>9.579999923706055</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="D18">
-        <v>9.680000305175781</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="E18">
-        <v>9.680000305175781</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="F18">
-        <v>28768900</v>
+        <v>9814900</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>9.630000114440918</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="B19">
-        <v>9.859999656677246</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="C19">
-        <v>9.020000457763672</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D19">
-        <v>9.210000038146973</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="E19">
-        <v>9.210000038146973</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="F19">
-        <v>23062800</v>
+        <v>14003400</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>9.010000228881836</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B20">
-        <v>9.310000419616699</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="C20">
-        <v>8.930000305175781</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="D20">
-        <v>9.170000076293945</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="E20">
-        <v>9.170000076293945</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="F20">
-        <v>20935900</v>
+        <v>10318100</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>9</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="B21">
-        <v>9.329999923706055</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="C21">
-        <v>8.880000114440918</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="D21">
-        <v>9.029999732971191</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="E21">
-        <v>9.029999732971191</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="F21">
-        <v>20047700</v>
+        <v>12659900</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>9.020000457763672</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="B22">
-        <v>9.220000267028809</v>
+        <v>6.590000152587891</v>
       </c>
       <c r="C22">
-        <v>8.680000305175781</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="D22">
-        <v>8.800000190734863</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="E22">
-        <v>8.800000190734863</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="F22">
-        <v>17843300</v>
+        <v>12398000</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>8.840000152587891</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="B23">
-        <v>8.859999656677246</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="C23">
-        <v>8.489999771118164</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="D23">
-        <v>8.829999923706055</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E23">
-        <v>8.829999923706055</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F23">
-        <v>16355800</v>
+        <v>13980600</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>8.880000114440918</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B24">
-        <v>9.520000457763672</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="C24">
-        <v>8.770000457763672</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="D24">
-        <v>9.350000381469727</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>9.350000381469727</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>28968100</v>
+        <v>15292000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>9.319999694824219</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="B25">
-        <v>9.510000228881836</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="C25">
-        <v>9.119999885559082</v>
+        <v>5.690000057220459</v>
       </c>
       <c r="D25">
-        <v>9.460000038146973</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E25">
-        <v>9.460000038146973</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F25">
-        <v>19480900</v>
+        <v>17939600</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>9.5</v>
+        <v>5.739999771118164</v>
       </c>
       <c r="B26">
-        <v>9.619999885559082</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="C26">
-        <v>9.199999809265137</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="D26">
-        <v>9.229999542236328</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="E26">
-        <v>9.229999542236328</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="F26">
-        <v>14835100</v>
+        <v>14641800</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>9.289999961853027</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="B27">
-        <v>9.430000305175781</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="C27">
-        <v>8.829999923706055</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="D27">
-        <v>8.859999656677246</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="E27">
-        <v>8.859999656677246</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="F27">
-        <v>21702000</v>
+        <v>19485900</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>8.939999580383301</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="B28">
-        <v>9.369999885559082</v>
+        <v>5.75</v>
       </c>
       <c r="C28">
-        <v>8.880000114440918</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="D28">
-        <v>9.289999961853027</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="E28">
-        <v>9.289999961853027</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="F28">
-        <v>18982200</v>
+        <v>22075100</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>9.399999618530273</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="B29">
-        <v>9.800000190734863</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="C29">
-        <v>8.960000038146973</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="D29">
-        <v>9.100000381469727</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E29">
-        <v>9.100000381469727</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F29">
-        <v>27469600</v>
+        <v>214559900</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>9.100000381469727</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="B30">
-        <v>9.119999885559082</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="C30">
-        <v>8.760000228881836</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D30">
-        <v>8.899999618530273</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E30">
-        <v>8.899999618530273</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F30">
-        <v>16138200</v>
+        <v>59485900</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>8.979999542236328</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B31">
-        <v>8.989999771118164</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="C31">
-        <v>8.430000305175781</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>8.600000381469727</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="E31">
-        <v>8.600000381469727</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="F31">
-        <v>19084200</v>
+        <v>20369000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>8.569999694824219</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="B32">
-        <v>8.699999809265137</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="C32">
-        <v>8.220000267028809</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="D32">
-        <v>8.380000114440918</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="E32">
-        <v>8.380000114440918</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="F32">
-        <v>14747500</v>
+        <v>31480400</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>8.439999580383301</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="B33">
-        <v>8.75</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="C33">
-        <v>8.260000228881836</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="D33">
-        <v>8.390000343322754</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E33">
-        <v>8.390000343322754</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F33">
-        <v>15376600</v>
+        <v>23518100</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>8.399999618530273</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="B34">
-        <v>8.409999847412109</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="C34">
-        <v>7.840000152587891</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="D34">
-        <v>8.069999694824219</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>8.069999694824219</v>
+        <v>6</v>
       </c>
       <c r="F34">
-        <v>16892400</v>
+        <v>18779700</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>7.630000114440918</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="B35">
-        <v>8.170000076293945</v>
+        <v>6.75</v>
       </c>
       <c r="C35">
-        <v>7.579999923706055</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="D35">
-        <v>8.039999961853027</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="E35">
-        <v>8.039999961853027</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="F35">
-        <v>15245000</v>
+        <v>34335200</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>8.090000152587891</v>
+        <v>6.760000228881836</v>
       </c>
       <c r="B36">
-        <v>8.149999618530273</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C36">
-        <v>7.849999904632568</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D36">
-        <v>8.050000190734863</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="E36">
-        <v>8.050000190734863</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="F36">
-        <v>8752400</v>
+        <v>39926500</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>8.119999885559082</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B37">
-        <v>8.199999809265137</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="C37">
-        <v>7.730000019073486</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="D37">
-        <v>8.020000457763672</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="E37">
-        <v>8.020000457763672</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="F37">
-        <v>11095600</v>
+        <v>20537600</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>7.940000057220459</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B38">
-        <v>7.960000038146973</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C38">
-        <v>7.559999942779541</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="D38">
-        <v>7.570000171661377</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="E38">
-        <v>7.570000171661377</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="F38">
-        <v>12783200</v>
+        <v>32138700</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>7.579999923706055</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="B39">
-        <v>7.599999904632568</v>
+        <v>7.860000133514404</v>
       </c>
       <c r="C39">
-        <v>7.010000228881836</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="D39">
-        <v>7.070000171661377</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="E39">
-        <v>7.070000171661377</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="F39">
-        <v>22182900</v>
+        <v>27209500</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>7.019999980926514</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="B40">
-        <v>7.340000152587891</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="C40">
-        <v>6.670000076293945</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D40">
-        <v>6.940000057220459</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="E40">
-        <v>6.940000057220459</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="F40">
-        <v>20820800</v>
+        <v>25907200</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>7.019999980926514</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B41">
-        <v>7.03000020980835</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C41">
-        <v>6.53000020980835</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D41">
-        <v>6.550000190734863</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="E41">
-        <v>6.550000190734863</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="F41">
-        <v>16472600</v>
+        <v>15831500</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>6.309999942779541</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="B42">
-        <v>6.760000228881836</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="C42">
-        <v>6.25</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="D42">
-        <v>6.619999885559082</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="E42">
-        <v>6.619999885559082</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="F42">
-        <v>22172200</v>
+        <v>16087800</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>6.71999979019165</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="B43">
-        <v>6.849999904632568</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="C43">
-        <v>6.400000095367432</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D43">
-        <v>6.75</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>6.75</v>
+        <v>6</v>
       </c>
       <c r="F43">
-        <v>15526900</v>
+        <v>19212300</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>6.789999961853027</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="B44">
-        <v>7.170000076293945</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="C44">
-        <v>6.75</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="E44">
-        <v>7</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="F44">
-        <v>15734700</v>
+        <v>16756400</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>7.059999942779541</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="B45">
-        <v>7.079999923706055</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="C45">
-        <v>6.599999904632568</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="D45">
-        <v>6.690000057220459</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="E45">
-        <v>6.690000057220459</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="F45">
-        <v>11808000</v>
+        <v>14496300</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>6.699999809265137</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="B46">
-        <v>6.710000038146973</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="C46">
-        <v>6.289999961853027</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="D46">
-        <v>6.400000095367432</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="E46">
-        <v>6.400000095367432</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="F46">
-        <v>12550400</v>
+        <v>17549900</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="B47">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="C47">
         <v>6.340000152587891</v>
       </c>
-      <c r="B47">
-        <v>6.690000057220459</v>
-      </c>
-      <c r="C47">
-        <v>6.320000171661377</v>
-      </c>
       <c r="D47">
-        <v>6.460000038146973</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="E47">
-        <v>6.460000038146973</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="F47">
-        <v>11039600</v>
+        <v>13090500</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>6.420000076293945</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="B48">
-        <v>6.460000038146973</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="C48">
-        <v>6.050000190734863</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="D48">
-        <v>6.340000152587891</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="E48">
-        <v>6.340000152587891</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="F48">
-        <v>13635400</v>
+        <v>19742200</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>6.409999847412109</v>
+        <v>6.75</v>
       </c>
       <c r="B49">
-        <v>6.690000057220459</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="C49">
-        <v>6.28000020980835</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="D49">
-        <v>6.550000190734863</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E49">
-        <v>6.550000190734863</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F49">
-        <v>12700800</v>
+        <v>18894600</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>6.619999885559082</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="B50">
-        <v>6.639999866485596</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C50">
-        <v>6.369999885559082</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="D50">
-        <v>6.429999828338623</v>
+        <v>7.25</v>
       </c>
       <c r="E50">
-        <v>6.429999828338623</v>
+        <v>7.25</v>
       </c>
       <c r="F50">
-        <v>9464800</v>
+        <v>29360600</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>6.380000114440918</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="B51">
-        <v>6.559999942779541</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="C51">
-        <v>6.28000020980835</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="D51">
-        <v>6.329999923706055</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="E51">
-        <v>6.329999923706055</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="F51">
-        <v>9270300</v>
+        <v>39061800</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>6.46999979019165</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="B52">
-        <v>6.550000190734863</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="C52">
-        <v>6.309999942779541</v>
+        <v>7.130000114440918</v>
       </c>
       <c r="D52">
-        <v>6.329999923706055</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E52">
-        <v>6.329999923706055</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F52">
-        <v>8350000</v>
+        <v>45530600</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>6.340000152587891</v>
+        <v>7.690000057220459</v>
       </c>
       <c r="B53">
-        <v>6.349999904632568</v>
+        <v>8.930000305175781</v>
       </c>
       <c r="C53">
-        <v>6.119999885559082</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="D53">
-        <v>6.199999809265137</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="E53">
-        <v>6.199999809265137</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="F53">
-        <v>10066100</v>
+        <v>158157900</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>6.150000095367432</v>
+        <v>8.649999618530273</v>
       </c>
       <c r="B54">
-        <v>6.320000171661377</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="C54">
-        <v>5.929999828338623</v>
+        <v>8.029999732971191</v>
       </c>
       <c r="D54">
-        <v>5.980000019073486</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="E54">
-        <v>5.980000019073486</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="F54">
-        <v>13209800</v>
+        <v>133341000</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>5.96999979019165</v>
+        <v>8.449999809265137</v>
       </c>
       <c r="B55">
-        <v>6.349999904632568</v>
+        <v>8.659999847412109</v>
       </c>
       <c r="C55">
-        <v>5.880000114440918</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="D55">
-        <v>6.190000057220459</v>
+        <v>8.130000114440918</v>
       </c>
       <c r="E55">
-        <v>6.190000057220459</v>
+        <v>8.130000114440918</v>
       </c>
       <c r="F55">
-        <v>13217700</v>
+        <v>53993700</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>6.429999828338623</v>
+        <v>8.170000076293945</v>
       </c>
       <c r="B56">
-        <v>6.579999923706055</v>
+        <v>8.789999961853027</v>
       </c>
       <c r="C56">
-        <v>6.21999979019165</v>
+        <v>8.039999961853027</v>
       </c>
       <c r="D56">
-        <v>6.329999923706055</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="E56">
-        <v>6.329999923706055</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="F56">
-        <v>14300500</v>
+        <v>63505200</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>6.389999866485596</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="B57">
-        <v>7.53000020980835</v>
+        <v>8.189999580383301</v>
       </c>
       <c r="C57">
-        <v>6.289999961853027</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="D57">
-        <v>7.21999979019165</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E57">
-        <v>7.21999979019165</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F57">
-        <v>39677800</v>
+        <v>45161200</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>7.829999923706055</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="B58">
-        <v>8.310000419616699</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C58">
-        <v>7.300000190734863</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="D58">
-        <v>7.519999980926514</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="E58">
-        <v>7.519999980926514</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="F58">
-        <v>63891500</v>
+        <v>32354000</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>7.550000190734863</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="B59">
-        <v>7.639999866485596</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C59">
-        <v>6.75</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="D59">
-        <v>6.840000152587891</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="E59">
-        <v>6.840000152587891</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="F59">
-        <v>34846900</v>
+        <v>27876700</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>6.800000190734863</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="B60">
-        <v>6.96999979019165</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="C60">
-        <v>6.46999979019165</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="D60">
-        <v>6.690000057220459</v>
+        <v>7</v>
       </c>
       <c r="E60">
-        <v>6.690000057220459</v>
+        <v>7</v>
       </c>
       <c r="F60">
-        <v>15876600</v>
+        <v>24447100</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>6.570000171661377</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B61">
-        <v>6.610000133514404</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="C61">
-        <v>6.070000171661377</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D61">
-        <v>6.139999866485596</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="E61">
-        <v>6.139999866485596</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="F61">
-        <v>20928500</v>
+        <v>52828600</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>6.210000038146973</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="B62">
-        <v>6.360000133514404</v>
+        <v>8.060000419616699</v>
       </c>
       <c r="C62">
-        <v>5.940000057220459</v>
+        <v>7.5</v>
       </c>
       <c r="D62">
-        <v>6.070000171661377</v>
+        <v>7.989999771118164</v>
       </c>
       <c r="E62">
-        <v>6.070000171661377</v>
+        <v>7.989999771118164</v>
       </c>
       <c r="F62">
-        <v>22713400</v>
+        <v>33618200</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>6</v>
+        <v>8.279999732971191</v>
       </c>
       <c r="B63">
-        <v>6.139999866485596</v>
+        <v>9.649999618530273</v>
       </c>
       <c r="C63">
-        <v>5.769999980926514</v>
+        <v>8.25</v>
       </c>
       <c r="D63">
-        <v>5.920000076293945</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="E63">
-        <v>5.920000076293945</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="F63">
-        <v>17495200</v>
+        <v>81021500</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>5.96999979019165</v>
+        <v>9.899999618530273</v>
       </c>
       <c r="B64">
-        <v>6.320000171661377</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="C64">
-        <v>5.78000020980835</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="D64">
-        <v>6.070000171661377</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="E64">
-        <v>6.070000171661377</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="F64">
-        <v>16864100</v>
+        <v>82411400</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>6</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B65">
-        <v>6.099999904632568</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="C65">
-        <v>5.679999828338623</v>
+        <v>8.779999732971191</v>
       </c>
       <c r="D65">
-        <v>5.71999979019165</v>
+        <v>9.479999542236328</v>
       </c>
       <c r="E65">
-        <v>5.71999979019165</v>
+        <v>9.479999542236328</v>
       </c>
       <c r="F65">
-        <v>13918700</v>
+        <v>33335700</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>5.71999979019165</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="B66">
-        <v>5.920000076293945</v>
+        <v>9.630000114440918</v>
       </c>
       <c r="C66">
-        <v>5.690000057220459</v>
+        <v>9.119999885559082</v>
       </c>
       <c r="D66">
-        <v>5.78000020980835</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="E66">
-        <v>5.78000020980835</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="F66">
-        <v>11070600</v>
+        <v>28500800</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>5.900000095367432</v>
+        <v>9.130000114440918</v>
       </c>
       <c r="B67">
-        <v>6.199999809265137</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="C67">
-        <v>5.809999942779541</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="D67">
-        <v>6.139999866485596</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="E67">
-        <v>6.139999866485596</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="F67">
-        <v>13515900</v>
+        <v>23868500</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>6.159999847412109</v>
+        <v>9.560000419616699</v>
       </c>
       <c r="B68">
-        <v>6.389999866485596</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="C68">
-        <v>6.019999980926514</v>
+        <v>9.449999809265137</v>
       </c>
       <c r="D68">
-        <v>6.269999980926514</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="E68">
-        <v>6.269999980926514</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="F68">
-        <v>15727100</v>
+        <v>88991800</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>6.269999980926514</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="B69">
-        <v>6.46999979019165</v>
+        <v>11</v>
       </c>
       <c r="C69">
-        <v>6.119999885559082</v>
+        <v>9.850000381469727</v>
       </c>
       <c r="D69">
-        <v>6.230000019073486</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="E69">
-        <v>6.230000019073486</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="F69">
-        <v>11296100</v>
+        <v>46187600</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>6.159999847412109</v>
+        <v>10.25</v>
       </c>
       <c r="B70">
-        <v>6.53000020980835</v>
+        <v>10.96000003814697</v>
       </c>
       <c r="C70">
-        <v>6.03000020980835</v>
+        <v>9.960000038146973</v>
       </c>
       <c r="D70">
-        <v>6.119999885559082</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="E70">
-        <v>6.119999885559082</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F70">
-        <v>13388500</v>
+        <v>35711100</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>6.159999847412109</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="B71">
-        <v>6.369999885559082</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="C71">
-        <v>6.090000152587891</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="D71">
-        <v>6.28000020980835</v>
+        <v>11.11999988555908</v>
       </c>
       <c r="E71">
-        <v>6.28000020980835</v>
+        <v>11.11999988555908</v>
       </c>
       <c r="F71">
-        <v>9814900</v>
+        <v>45159100</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>6.300000190734863</v>
+        <v>11.25</v>
       </c>
       <c r="B72">
-        <v>6.329999923706055</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="C72">
-        <v>5.940000057220459</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="D72">
-        <v>6.210000038146973</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="E72">
-        <v>6.210000038146973</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="F72">
-        <v>14003400</v>
+        <v>34855600</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>6.150000095367432</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="B73">
-        <v>6.380000114440918</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="C73">
-        <v>6.130000114440918</v>
+        <v>10.51000022888184</v>
       </c>
       <c r="D73">
-        <v>6.239999771118164</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="E73">
-        <v>6.239999771118164</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="F73">
-        <v>10318100</v>
+        <v>31722900</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>6.210000038146973</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="B74">
-        <v>6.53000020980835</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="C74">
-        <v>6.199999809265137</v>
+        <v>9.909999847412109</v>
       </c>
       <c r="D74">
-        <v>6.369999885559082</v>
+        <v>10.59000015258789</v>
       </c>
       <c r="E74">
-        <v>6.369999885559082</v>
+        <v>10.59000015258789</v>
       </c>
       <c r="F74">
-        <v>12659900</v>
+        <v>29685800</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>6.440000057220459</v>
+        <v>10.32999992370605</v>
       </c>
       <c r="B75">
-        <v>6.590000152587891</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="C75">
-        <v>6.320000171661377</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="D75">
-        <v>6.420000076293945</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="E75">
-        <v>6.420000076293945</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F75">
-        <v>12398000</v>
+        <v>23815200</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>6.420000076293945</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="B76">
-        <v>6.440000057220459</v>
+        <v>10.26000022888184</v>
       </c>
       <c r="C76">
-        <v>6.059999942779541</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="D76">
-        <v>6.119999885559082</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="E76">
-        <v>6.119999885559082</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="F76">
-        <v>13980600</v>
+        <v>33549300</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>6.150000095367432</v>
+        <v>9.470000267028809</v>
       </c>
       <c r="B77">
-        <v>6.329999923706055</v>
+        <v>10.21000003814697</v>
       </c>
       <c r="C77">
-        <v>5.989999771118164</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="D77">
-        <v>6</v>
+        <v>9.810000419616699</v>
       </c>
       <c r="E77">
-        <v>6</v>
+        <v>9.810000419616699</v>
       </c>
       <c r="F77">
-        <v>15292000</v>
+        <v>24708500</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>6.019999980926514</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="B78">
-        <v>6.059999942779541</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="C78">
-        <v>5.690000057220459</v>
+        <v>9.189999580383301</v>
       </c>
       <c r="D78">
-        <v>5.71999979019165</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="E78">
-        <v>5.71999979019165</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="F78">
-        <v>17939600</v>
+        <v>27188200</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>5.739999771118164</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="B79">
-        <v>6.039999961853027</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="C79">
-        <v>5.699999809265137</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="D79">
-        <v>5.820000171661377</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="E79">
-        <v>5.820000171661377</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="F79">
-        <v>14641800</v>
+        <v>20635300</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>5.96999979019165</v>
+        <v>9.239999771118164</v>
       </c>
       <c r="B80">
-        <v>5.96999979019165</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="C80">
-        <v>5.550000190734863</v>
+        <v>8.869999885559082</v>
       </c>
       <c r="D80">
-        <v>5.579999923706055</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="E80">
-        <v>5.579999923706055</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="F80">
-        <v>19485900</v>
+        <v>16153500</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>5.619999885559082</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B81">
-        <v>5.75</v>
+        <v>9.310000419616699</v>
       </c>
       <c r="C81">
-        <v>5.340000152587891</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="D81">
-        <v>5.619999885559082</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="E81">
-        <v>5.619999885559082</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="F81">
-        <v>22075100</v>
+        <v>20332600</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>6.199999809265137</v>
+        <v>9.020000457763672</v>
       </c>
       <c r="B82">
-        <v>7.539999961853027</v>
+        <v>9.180000305175781</v>
       </c>
       <c r="C82">
-        <v>6.119999885559082</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="D82">
-        <v>6.440000057220459</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="E82">
-        <v>6.440000057220459</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="F82">
-        <v>214559900</v>
+        <v>18152700</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>6.480000019073486</v>
+        <v>8.779999732971191</v>
       </c>
       <c r="B83">
-        <v>6.610000133514404</v>
+        <v>9.069999694824219</v>
       </c>
       <c r="C83">
-        <v>5.889999866485596</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="D83">
-        <v>6.139999866485596</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="E83">
-        <v>6.139999866485596</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="F83">
-        <v>59485900</v>
+        <v>21312200</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>6.070000171661377</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="B84">
-        <v>6.289999961853027</v>
+        <v>9</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="D84">
-        <v>6.150000095367432</v>
+        <v>7.96999979019165</v>
       </c>
       <c r="E84">
-        <v>6.150000095367432</v>
+        <v>7.96999979019165</v>
       </c>
       <c r="F84">
-        <v>20369000</v>
+        <v>23581900</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>6.170000076293945</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="B85">
-        <v>6.550000190734863</v>
+        <v>8.340000152587891</v>
       </c>
       <c r="C85">
-        <v>6.130000114440918</v>
+        <v>7.769999980926514</v>
       </c>
       <c r="D85">
-        <v>6.550000190734863</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="E85">
-        <v>6.550000190734863</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="F85">
-        <v>31480400</v>
+        <v>21694500</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>6.239999771118164</v>
+        <v>8.159999847412109</v>
       </c>
       <c r="B86">
-        <v>6.380000114440918</v>
+        <v>8.159999847412109</v>
       </c>
       <c r="C86">
-        <v>5.96999979019165</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="D86">
-        <v>6.119999885559082</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E86">
-        <v>6.119999885559082</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F86">
-        <v>23518100</v>
+        <v>32650900</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>6.269999980926514</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="B87">
-        <v>6.300000190734863</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C87">
-        <v>5.949999809265137</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="D87">
-        <v>6</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="E87">
-        <v>6</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="F87">
-        <v>18779700</v>
+        <v>24345400</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>6.039999961853027</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="B88">
-        <v>6.75</v>
+        <v>7.829999923706055</v>
       </c>
       <c r="C88">
-        <v>6.010000228881836</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="D88">
-        <v>6.659999847412109</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="E88">
-        <v>6.659999847412109</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="F88">
-        <v>34335200</v>
+        <v>20545500</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>6.760000228881836</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="B89">
-        <v>7.309999942779541</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C89">
-        <v>6.610000133514404</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="D89">
-        <v>7.239999771118164</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="E89">
-        <v>7.239999771118164</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="F89">
-        <v>39926500</v>
+        <v>14039600</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>7.050000190734863</v>
+        <v>7.5</v>
       </c>
       <c r="B90">
-        <v>7.239999771118164</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="C90">
-        <v>6.949999809265137</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D90">
-        <v>6.96999979019165</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E90">
-        <v>6.96999979019165</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F90">
-        <v>20537600</v>
+        <v>19226400</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>7.059999942779541</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="B91">
-        <v>7.789999961853027</v>
+        <v>7.25</v>
       </c>
       <c r="C91">
-        <v>7.03000020980835</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="D91">
-        <v>7.650000095367432</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="E91">
-        <v>7.650000095367432</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="F91">
-        <v>32138700</v>
+        <v>17697500</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>7.480000019073486</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="B92">
-        <v>7.860000133514404</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="C92">
-        <v>7.170000076293945</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="D92">
-        <v>7.190000057220459</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="E92">
-        <v>7.190000057220459</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="F92">
-        <v>27209500</v>
+        <v>18939100</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>7.320000171661377</v>
+        <v>6.650000095367432</v>
       </c>
       <c r="B93">
-        <v>7.349999904632568</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="C93">
-        <v>6.559999942779541</v>
+        <v>6.25</v>
       </c>
       <c r="D93">
-        <v>6.570000171661377</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="E93">
-        <v>6.570000171661377</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="F93">
-        <v>25907200</v>
+        <v>28814000</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>6.619999885559082</v>
+        <v>6.260000228881836</v>
       </c>
       <c r="B94">
-        <v>6.840000152587891</v>
+        <v>6.650000095367432</v>
       </c>
       <c r="C94">
-        <v>6.559999942779541</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="D94">
-        <v>6.690000057220459</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="E94">
-        <v>6.690000057220459</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="F94">
-        <v>15831500</v>
+        <v>23657400</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>6.739999771118164</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="B95">
-        <v>6.809999942779541</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="C95">
-        <v>6.369999885559082</v>
+        <v>6.190000057220459</v>
       </c>
       <c r="D95">
-        <v>6.429999828338623</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="E95">
-        <v>6.429999828338623</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="F95">
-        <v>16087800</v>
+        <v>24586500</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>6.349999904632568</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B96">
-        <v>6.369999885559082</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="C96">
-        <v>5.940000057220459</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="D96">
-        <v>6</v>
+        <v>6.309999942779541</v>
       </c>
       <c r="E96">
-        <v>6</v>
+        <v>6.309999942779541</v>
       </c>
       <c r="F96">
-        <v>19212300</v>
+        <v>27393100</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>6.099999904632568</v>
+        <v>6</v>
       </c>
       <c r="B97">
-        <v>6.28000020980835</v>
+        <v>6.179999828338623</v>
       </c>
       <c r="C97">
-        <v>5.980000019073486</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="D97">
-        <v>6.039999961853027</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="E97">
-        <v>6.039999961853027</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="F97">
-        <v>16756400</v>
+        <v>16874500</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>5.900000095367432</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="B98">
-        <v>6.199999809265137</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="C98">
-        <v>5.860000133514404</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="D98">
-        <v>6.070000171661377</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="E98">
-        <v>6.070000171661377</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="F98">
-        <v>14496300</v>
+        <v>16683300</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>6.119999885559082</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="B99">
-        <v>6.460000038146973</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="C99">
-        <v>6.03000020980835</v>
+        <v>6.25</v>
       </c>
       <c r="D99">
-        <v>6.360000133514404</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="E99">
-        <v>6.360000133514404</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="F99">
-        <v>17549900</v>
+        <v>13093000</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>6.400000095367432</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="B100">
-        <v>6.599999904632568</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="C100">
-        <v>6.340000152587891</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="D100">
-        <v>6.389999866485596</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="E100">
-        <v>6.389999866485596</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="F100">
-        <v>13090500</v>
+        <v>14842900</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>6.369999885559082</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="B101">
-        <v>6.96999979019165</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="C101">
-        <v>6.349999904632568</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="D101">
-        <v>6.710000038146973</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="E101">
-        <v>6.710000038146973</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="F101">
-        <v>19742200</v>
+        <v>34336500</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>6.75</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="B102">
-        <v>7.039999961853027</v>
+        <v>6.25</v>
       </c>
       <c r="C102">
-        <v>6.710000038146973</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="D102">
-        <v>6.920000076293945</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="E102">
-        <v>6.920000076293945</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="F102">
-        <v>18894600</v>
+        <v>28962000</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>7.199999809265137</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="B103">
-        <v>7.309999942779541</v>
+        <v>5.300000190734863</v>
       </c>
       <c r="C103">
-        <v>6.929999828338623</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="D103">
-        <v>7.25</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="E103">
-        <v>7.25</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="F103">
-        <v>29360600</v>
+        <v>67673000</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>7.380000114440918</v>
+        <v>5.059999942779541</v>
       </c>
       <c r="B104">
-        <v>7.440000057220459</v>
+        <v>5.5</v>
       </c>
       <c r="C104">
-        <v>6.869999885559082</v>
+        <v>5.050000190734863</v>
       </c>
       <c r="D104">
-        <v>7.21999979019165</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="E104">
-        <v>7.21999979019165</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="F104">
-        <v>39061800</v>
+        <v>30972900</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>7.260000228881836</v>
+        <v>5.289999961853027</v>
       </c>
       <c r="B105">
-        <v>7.849999904632568</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="C105">
-        <v>7.130000114440918</v>
+        <v>5.190000057220459</v>
       </c>
       <c r="D105">
-        <v>7.389999866485596</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="E105">
-        <v>7.389999866485596</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="F105">
-        <v>45530600</v>
+        <v>21596300</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>7.690000057220459</v>
+        <v>5.349999904632568</v>
       </c>
       <c r="B106">
-        <v>8.930000305175781</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="C106">
-        <v>7.670000076293945</v>
+        <v>5.25</v>
       </c>
       <c r="D106">
-        <v>8.739999771118164</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="E106">
-        <v>8.739999771118164</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="F106">
-        <v>158157900</v>
+        <v>31252400</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>8.649999618530273</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="B107">
-        <v>8.899999618530273</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="C107">
-        <v>8.029999732971191</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="D107">
-        <v>8.590000152587891</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="E107">
-        <v>8.590000152587891</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="F107">
-        <v>133341000</v>
+        <v>27299300</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>8.449999809265137</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="B108">
-        <v>8.659999847412109</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="C108">
-        <v>8.050000190734863</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="D108">
-        <v>8.130000114440918</v>
+        <v>5.320000171661377</v>
       </c>
       <c r="E108">
-        <v>8.130000114440918</v>
+        <v>5.320000171661377</v>
       </c>
       <c r="F108">
-        <v>53993700</v>
+        <v>22666300</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>8.170000076293945</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="B109">
-        <v>8.789999961853027</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="C109">
-        <v>8.039999961853027</v>
+        <v>4.989999771118164</v>
       </c>
       <c r="D109">
-        <v>8.109999656677246</v>
+        <v>5.139999866485596</v>
       </c>
       <c r="E109">
-        <v>8.109999656677246</v>
+        <v>5.139999866485596</v>
       </c>
       <c r="F109">
-        <v>63505200</v>
+        <v>21000100</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>8.050000190734863</v>
+        <v>5.190000057220459</v>
       </c>
       <c r="B110">
-        <v>8.189999580383301</v>
+        <v>5.360000133514404</v>
       </c>
       <c r="C110">
-        <v>7.210000038146973</v>
+        <v>5.059999942779541</v>
       </c>
       <c r="D110">
-        <v>7.289999961853027</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="E110">
-        <v>7.289999961853027</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="F110">
-        <v>45161200</v>
+        <v>18317500</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>7.420000076293945</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="B111">
-        <v>7.559999942779541</v>
+        <v>5.050000190734863</v>
       </c>
       <c r="C111">
-        <v>7.159999847412109</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="D111">
-        <v>7.539999961853027</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="E111">
-        <v>7.539999961853027</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="F111">
-        <v>32354000</v>
+        <v>22386900</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>7.590000152587891</v>
+        <v>5</v>
       </c>
       <c r="B112">
-        <v>7.789999961853027</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="C112">
-        <v>7.110000133514404</v>
+        <v>4.920000076293945</v>
       </c>
       <c r="D112">
-        <v>7.170000076293945</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="E112">
-        <v>7.170000076293945</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="F112">
-        <v>27876700</v>
+        <v>21182500</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>7.239999771118164</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="B113">
-        <v>7.539999961853027</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="C113">
-        <v>6.960000038146973</v>
+        <v>5.010000228881836</v>
       </c>
       <c r="D113">
-        <v>7</v>
+        <v>5.070000171661377</v>
       </c>
       <c r="E113">
-        <v>7</v>
+        <v>5.070000171661377</v>
       </c>
       <c r="F113">
-        <v>24447100</v>
+        <v>17923500</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>7.019999980926514</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="B114">
-        <v>7.940000057220459</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="C114">
-        <v>7.010000228881836</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="D114">
-        <v>7.570000171661377</v>
+        <v>4.869999885559082</v>
       </c>
       <c r="E114">
-        <v>7.570000171661377</v>
+        <v>4.869999885559082</v>
       </c>
       <c r="F114">
-        <v>52828600</v>
+        <v>20043500</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>7.559999942779541</v>
+        <v>4.789999961853027</v>
       </c>
       <c r="B115">
-        <v>8.060000419616699</v>
+        <v>4.960000038146973</v>
       </c>
       <c r="C115">
-        <v>7.5</v>
+        <v>4.679999828338623</v>
       </c>
       <c r="D115">
-        <v>7.989999771118164</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="E115">
-        <v>7.989999771118164</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="F115">
-        <v>33618200</v>
+        <v>20219000</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>8.279999732971191</v>
+        <v>4.760000228881836</v>
       </c>
       <c r="B116">
-        <v>9.649999618530273</v>
+        <v>4.820000171661377</v>
       </c>
       <c r="C116">
-        <v>8.25</v>
+        <v>4.559999942779541</v>
       </c>
       <c r="D116">
-        <v>9.529999732971191</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="E116">
-        <v>9.529999732971191</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="F116">
-        <v>81021500</v>
+        <v>20967500</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>9.899999618530273</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="B117">
-        <v>9.989999771118164</v>
+        <v>4.650000095367432</v>
       </c>
       <c r="C117">
-        <v>8.970000267028809</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="D117">
-        <v>9.430000305175781</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="E117">
-        <v>9.430000305175781</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="F117">
-        <v>82411400</v>
+        <v>29011200</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>8.989999771118164</v>
+        <v>4.389999866485596</v>
       </c>
       <c r="B118">
-        <v>9.550000190734863</v>
+        <v>4.510000228881836</v>
       </c>
       <c r="C118">
-        <v>8.779999732971191</v>
+        <v>4.110000133514404</v>
       </c>
       <c r="D118">
-        <v>9.479999542236328</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="E118">
-        <v>9.479999542236328</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="F118">
-        <v>33335700</v>
+        <v>30977700</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>9.609999656677246</v>
+        <v>3.990000009536743</v>
       </c>
       <c r="B119">
-        <v>9.630000114440918</v>
+        <v>4.170000076293945</v>
       </c>
       <c r="C119">
-        <v>9.119999885559082</v>
+        <v>3.849999904632568</v>
       </c>
       <c r="D119">
-        <v>9.279999732971191</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="E119">
-        <v>9.279999732971191</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="F119">
-        <v>28500800</v>
+        <v>44178500</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>9.130000114440918</v>
+        <v>3.730000019073486</v>
       </c>
       <c r="B120">
-        <v>9.279999732971191</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="C120">
-        <v>8.680000305175781</v>
+        <v>3.440000057220459</v>
       </c>
       <c r="D120">
-        <v>8.949999809265137</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="E120">
-        <v>8.949999809265137</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="F120">
-        <v>23868500</v>
+        <v>37138500</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>9.560000419616699</v>
+        <v>3.75</v>
       </c>
       <c r="B121">
-        <v>11.22000026702881</v>
+        <v>3.970000028610229</v>
       </c>
       <c r="C121">
-        <v>9.449999809265137</v>
+        <v>3.720000028610229</v>
       </c>
       <c r="D121">
-        <v>10.8100004196167</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="E121">
-        <v>10.8100004196167</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="F121">
-        <v>88991800</v>
+        <v>17475500</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>10.93000030517578</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="B122">
-        <v>11</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="C122">
-        <v>9.850000381469727</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="D122">
-        <v>10.82999992370605</v>
+        <v>3.859999895095825</v>
       </c>
       <c r="E122">
-        <v>10.82999992370605</v>
+        <v>3.859999895095825</v>
       </c>
       <c r="F122">
-        <v>46187600</v>
+        <v>28075400</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>10.25</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="B123">
-        <v>10.96000003814697</v>
+        <v>3.980000019073486</v>
       </c>
       <c r="C123">
-        <v>9.960000038146973</v>
+        <v>3.5</v>
       </c>
       <c r="D123">
-        <v>10.23999977111816</v>
+        <v>3.559999942779541</v>
       </c>
       <c r="E123">
-        <v>10.23999977111816</v>
+        <v>3.559999942779541</v>
       </c>
       <c r="F123">
-        <v>35711100</v>
+        <v>28877100</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>10.42000007629395</v>
+        <v>3.579999923706055</v>
       </c>
       <c r="B124">
-        <v>11.46000003814697</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="C124">
-        <v>10.10000038146973</v>
+        <v>3.400000095367432</v>
       </c>
       <c r="D124">
-        <v>11.11999988555908</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="E124">
-        <v>11.11999988555908</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="F124">
-        <v>45159100</v>
+        <v>21240900</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>11.25</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="B125">
-        <v>11.63000011444092</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="C125">
-        <v>10.80000019073486</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="D125">
-        <v>11.22999954223633</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="E125">
-        <v>11.22999954223633</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="F125">
-        <v>34855600</v>
+        <v>27876100</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>11.39999961853027</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="B126">
-        <v>11.53999996185303</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="C126">
-        <v>10.51000022888184</v>
+        <v>4.199999809265137</v>
       </c>
       <c r="D126">
-        <v>10.77000045776367</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="E126">
-        <v>10.77000045776367</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="F126">
-        <v>31722900</v>
+        <v>27648700</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>10.52999973297119</v>
+        <v>4.510000228881836</v>
       </c>
       <c r="B127">
-        <v>10.69999980926514</v>
+        <v>4.519999980926514</v>
       </c>
       <c r="C127">
-        <v>9.909999847412109</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="D127">
-        <v>10.59000015258789</v>
+        <v>4.190000057220459</v>
       </c>
       <c r="E127">
-        <v>10.59000015258789</v>
+        <v>4.190000057220459</v>
       </c>
       <c r="F127">
-        <v>29685800</v>
+        <v>22492300</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>10.32999992370605</v>
+        <v>4.010000228881836</v>
       </c>
       <c r="B128">
-        <v>11.07999992370605</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="C128">
-        <v>10.19999980926514</v>
+        <v>3.990000009536743</v>
       </c>
       <c r="D128">
-        <v>10.23999977111816</v>
+        <v>4.070000171661377</v>
       </c>
       <c r="E128">
-        <v>10.23999977111816</v>
+        <v>4.070000171661377</v>
       </c>
       <c r="F128">
-        <v>23815200</v>
+        <v>21628800</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>10.22000026702881</v>
+        <v>4.110000133514404</v>
       </c>
       <c r="B129">
-        <v>10.26000022888184</v>
+        <v>4.380000114440918</v>
       </c>
       <c r="C129">
-        <v>9.149999618530273</v>
+        <v>4.050000190734863</v>
       </c>
       <c r="D129">
-        <v>9.460000038146973</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="E129">
-        <v>9.460000038146973</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="F129">
-        <v>33549300</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>9.470000267028809</v>
-      </c>
-      <c r="B130">
-        <v>10.21000003814697</v>
-      </c>
-      <c r="C130">
-        <v>9.460000038146973</v>
-      </c>
-      <c r="D130">
-        <v>9.810000419616699</v>
-      </c>
-      <c r="E130">
-        <v>9.810000419616699</v>
-      </c>
-      <c r="F130">
-        <v>24676300</v>
+        <v>15747843</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/FCEL/HighLow.xlsx
+++ b/Stocks/FCEL/HighLow.xlsx
@@ -2812,7 +2812,7 @@
         <v>3.869999885559082</v>
       </c>
       <c r="F121">
-        <v>17475500</v>
+        <v>17530900</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2912,7 +2912,7 @@
         <v>4.460000038146973</v>
       </c>
       <c r="F126">
-        <v>27648700</v>
+        <v>27707300</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2972,7 +2972,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="F129">
-        <v>15747843</v>
+        <v>15721500</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/FCEL/HighLow.xlsx
+++ b/Stocks/FCEL/HighLow.xlsx
@@ -417,1373 +417,1373 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>5.96999979019165</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="B2">
-        <v>6.349999904632568</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="C2">
-        <v>5.880000114440918</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="D2">
-        <v>6.190000057220459</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="E2">
-        <v>6.190000057220459</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="F2">
-        <v>13217700</v>
+        <v>15876600</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>6.429999828338623</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="B3">
-        <v>6.579999923706055</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="C3">
-        <v>6.21999979019165</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="D3">
-        <v>6.329999923706055</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E3">
-        <v>6.329999923706055</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F3">
-        <v>14300500</v>
+        <v>20928500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>6.389999866485596</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="B4">
-        <v>7.53000020980835</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="C4">
-        <v>6.289999961853027</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D4">
-        <v>7.21999979019165</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="E4">
-        <v>7.21999979019165</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="F4">
-        <v>39677800</v>
+        <v>22713400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>7.829999923706055</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>8.310000419616699</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="C5">
-        <v>7.300000190734863</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="D5">
-        <v>7.519999980926514</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="E5">
-        <v>7.519999980926514</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="F5">
-        <v>63891500</v>
+        <v>17495200</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>7.550000190734863</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="B6">
-        <v>7.639999866485596</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="C6">
-        <v>6.75</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="D6">
-        <v>6.840000152587891</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="E6">
-        <v>6.840000152587891</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="F6">
-        <v>34846900</v>
+        <v>16864100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>6.800000190734863</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>6.96999979019165</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C7">
-        <v>6.46999979019165</v>
+        <v>5.679999828338623</v>
       </c>
       <c r="D7">
-        <v>6.690000057220459</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E7">
-        <v>6.690000057220459</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F7">
-        <v>15876600</v>
+        <v>13918700</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>6.570000171661377</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="B8">
-        <v>6.610000133514404</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="C8">
-        <v>6.070000171661377</v>
+        <v>5.690000057220459</v>
       </c>
       <c r="D8">
-        <v>6.139999866485596</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="E8">
-        <v>6.139999866485596</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="F8">
-        <v>20928500</v>
+        <v>11070600</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>6.210000038146973</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="B9">
-        <v>6.360000133514404</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="C9">
-        <v>5.940000057220459</v>
+        <v>5.809999942779541</v>
       </c>
       <c r="D9">
-        <v>6.070000171661377</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E9">
-        <v>6.070000171661377</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F9">
-        <v>22713400</v>
+        <v>13515900</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>6</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B10">
-        <v>6.139999866485596</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="C10">
-        <v>5.769999980926514</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="D10">
-        <v>5.920000076293945</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="E10">
-        <v>5.920000076293945</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="F10">
-        <v>17495200</v>
+        <v>15727100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>5.96999979019165</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="B11">
-        <v>6.320000171661377</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="C11">
-        <v>5.78000020980835</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="D11">
-        <v>6.070000171661377</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="E11">
-        <v>6.070000171661377</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="F11">
-        <v>16864100</v>
+        <v>11296100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>6</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B12">
-        <v>6.099999904632568</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="C12">
-        <v>5.679999828338623</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="D12">
-        <v>5.71999979019165</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E12">
-        <v>5.71999979019165</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F12">
-        <v>13918700</v>
+        <v>13388500</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>5.71999979019165</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B13">
-        <v>5.920000076293945</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="C13">
-        <v>5.690000057220459</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="D13">
-        <v>5.78000020980835</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="E13">
-        <v>5.78000020980835</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="F13">
-        <v>11070600</v>
+        <v>9814900</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>5.900000095367432</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="B14">
-        <v>6.199999809265137</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="C14">
-        <v>5.809999942779541</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D14">
-        <v>6.139999866485596</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="E14">
-        <v>6.139999866485596</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="F14">
-        <v>13515900</v>
+        <v>14003400</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>6.159999847412109</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B15">
-        <v>6.389999866485596</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="C15">
-        <v>6.019999980926514</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="D15">
-        <v>6.269999980926514</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="E15">
-        <v>6.269999980926514</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="F15">
-        <v>15727100</v>
+        <v>10318100</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>6.269999980926514</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="B16">
-        <v>6.46999979019165</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="C16">
-        <v>6.119999885559082</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="D16">
-        <v>6.230000019073486</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="E16">
-        <v>6.230000019073486</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="F16">
-        <v>11296100</v>
+        <v>12659900</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>6.159999847412109</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="B17">
-        <v>6.53000020980835</v>
+        <v>6.590000152587891</v>
       </c>
       <c r="C17">
-        <v>6.03000020980835</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="D17">
-        <v>6.119999885559082</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="E17">
-        <v>6.119999885559082</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="F17">
-        <v>13388500</v>
+        <v>12398000</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>6.159999847412109</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="B18">
-        <v>6.369999885559082</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="C18">
-        <v>6.090000152587891</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="D18">
-        <v>6.28000020980835</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E18">
-        <v>6.28000020980835</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F18">
-        <v>9814900</v>
+        <v>13980600</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>6.300000190734863</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B19">
         <v>6.329999923706055</v>
       </c>
       <c r="C19">
-        <v>5.940000057220459</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="D19">
-        <v>6.210000038146973</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>6.210000038146973</v>
+        <v>6</v>
       </c>
       <c r="F19">
-        <v>14003400</v>
+        <v>15292000</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>6.150000095367432</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="B20">
-        <v>6.380000114440918</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="C20">
-        <v>6.130000114440918</v>
+        <v>5.690000057220459</v>
       </c>
       <c r="D20">
-        <v>6.239999771118164</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E20">
-        <v>6.239999771118164</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F20">
-        <v>10318100</v>
+        <v>17939600</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>6.210000038146973</v>
+        <v>5.739999771118164</v>
       </c>
       <c r="B21">
-        <v>6.53000020980835</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="C21">
-        <v>6.199999809265137</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="D21">
-        <v>6.369999885559082</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="E21">
-        <v>6.369999885559082</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="F21">
-        <v>12659900</v>
+        <v>14641800</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>6.440000057220459</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="B22">
-        <v>6.590000152587891</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="C22">
-        <v>6.320000171661377</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="D22">
-        <v>6.420000076293945</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="E22">
-        <v>6.420000076293945</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="F22">
-        <v>12398000</v>
+        <v>19485900</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>6.420000076293945</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="B23">
-        <v>6.440000057220459</v>
+        <v>5.75</v>
       </c>
       <c r="C23">
-        <v>6.059999942779541</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="D23">
-        <v>6.119999885559082</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="E23">
-        <v>6.119999885559082</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="F23">
-        <v>13980600</v>
+        <v>22075100</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>6.150000095367432</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="B24">
-        <v>6.329999923706055</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="C24">
-        <v>5.989999771118164</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F24">
-        <v>15292000</v>
+        <v>214559900</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>6.019999980926514</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="B25">
-        <v>6.059999942779541</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="C25">
-        <v>5.690000057220459</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D25">
-        <v>5.71999979019165</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E25">
-        <v>5.71999979019165</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F25">
-        <v>17939600</v>
+        <v>59485900</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>5.739999771118164</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B26">
-        <v>6.039999961853027</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="C26">
-        <v>5.699999809265137</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>5.820000171661377</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="E26">
-        <v>5.820000171661377</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="F26">
-        <v>14641800</v>
+        <v>20369000</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>5.96999979019165</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="B27">
-        <v>5.96999979019165</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="C27">
-        <v>5.550000190734863</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="D27">
-        <v>5.579999923706055</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="E27">
-        <v>5.579999923706055</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="F27">
-        <v>19485900</v>
+        <v>31480400</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>5.619999885559082</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="B28">
-        <v>5.75</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="C28">
-        <v>5.340000152587891</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="D28">
-        <v>5.619999885559082</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E28">
-        <v>5.619999885559082</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F28">
-        <v>22075100</v>
+        <v>23518100</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>6.199999809265137</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="B29">
-        <v>7.539999961853027</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="C29">
-        <v>6.119999885559082</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="D29">
-        <v>6.440000057220459</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>6.440000057220459</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>214559900</v>
+        <v>18779700</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>6.480000019073486</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="B30">
-        <v>6.610000133514404</v>
+        <v>6.75</v>
       </c>
       <c r="C30">
-        <v>5.889999866485596</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="D30">
-        <v>6.139999866485596</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="E30">
-        <v>6.139999866485596</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="F30">
-        <v>59485900</v>
+        <v>34335200</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>6.070000171661377</v>
+        <v>6.760000228881836</v>
       </c>
       <c r="B31">
-        <v>6.289999961853027</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D31">
-        <v>6.150000095367432</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="E31">
-        <v>6.150000095367432</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="F31">
-        <v>20369000</v>
+        <v>39926500</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>6.170000076293945</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B32">
-        <v>6.550000190734863</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="C32">
-        <v>6.130000114440918</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="D32">
-        <v>6.550000190734863</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="E32">
-        <v>6.550000190734863</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="F32">
-        <v>31480400</v>
+        <v>20537600</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>6.239999771118164</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B33">
-        <v>6.380000114440918</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C33">
-        <v>5.96999979019165</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="D33">
-        <v>6.119999885559082</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="E33">
-        <v>6.119999885559082</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="F33">
-        <v>23518100</v>
+        <v>32138700</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>6.269999980926514</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="B34">
-        <v>6.300000190734863</v>
+        <v>7.860000133514404</v>
       </c>
       <c r="C34">
-        <v>5.949999809265137</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="F34">
-        <v>18779700</v>
+        <v>27209500</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>6.039999961853027</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="B35">
-        <v>6.75</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="C35">
-        <v>6.010000228881836</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D35">
-        <v>6.659999847412109</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="E35">
-        <v>6.659999847412109</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="F35">
-        <v>34335200</v>
+        <v>25907200</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>6.760000228881836</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B36">
-        <v>7.309999942779541</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C36">
-        <v>6.610000133514404</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D36">
-        <v>7.239999771118164</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="E36">
-        <v>7.239999771118164</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="F36">
-        <v>39926500</v>
+        <v>15831500</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>7.050000190734863</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="B37">
-        <v>7.239999771118164</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="C37">
-        <v>6.949999809265137</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="D37">
-        <v>6.96999979019165</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="E37">
-        <v>6.96999979019165</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="F37">
-        <v>20537600</v>
+        <v>16087800</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>7.059999942779541</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="B38">
-        <v>7.789999961853027</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="C38">
-        <v>7.03000020980835</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D38">
-        <v>7.650000095367432</v>
+        <v>6</v>
       </c>
       <c r="E38">
-        <v>7.650000095367432</v>
+        <v>6</v>
       </c>
       <c r="F38">
-        <v>32138700</v>
+        <v>19212300</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>7.480000019073486</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="B39">
-        <v>7.860000133514404</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="C39">
-        <v>7.170000076293945</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="D39">
-        <v>7.190000057220459</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="E39">
-        <v>7.190000057220459</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="F39">
-        <v>27209500</v>
+        <v>16756400</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>7.320000171661377</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="B40">
-        <v>7.349999904632568</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="C40">
-        <v>6.559999942779541</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="D40">
-        <v>6.570000171661377</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="E40">
-        <v>6.570000171661377</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="F40">
-        <v>25907200</v>
+        <v>14496300</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>6.619999885559082</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="B41">
-        <v>6.840000152587891</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="C41">
-        <v>6.559999942779541</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="D41">
-        <v>6.690000057220459</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="E41">
-        <v>6.690000057220459</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="F41">
-        <v>15831500</v>
+        <v>17549900</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>6.739999771118164</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="B42">
-        <v>6.809999942779541</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="C42">
-        <v>6.369999885559082</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="D42">
-        <v>6.429999828338623</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="E42">
-        <v>6.429999828338623</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="F42">
-        <v>16087800</v>
+        <v>13090500</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
+        <v>6.369999885559082</v>
+      </c>
+      <c r="B43">
+        <v>6.96999979019165</v>
+      </c>
+      <c r="C43">
         <v>6.349999904632568</v>
       </c>
-      <c r="B43">
-        <v>6.369999885559082</v>
-      </c>
-      <c r="C43">
-        <v>5.940000057220459</v>
-      </c>
       <c r="D43">
-        <v>6</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="F43">
-        <v>19212300</v>
+        <v>19742200</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>6.099999904632568</v>
+        <v>6.75</v>
       </c>
       <c r="B44">
-        <v>6.28000020980835</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="C44">
-        <v>5.980000019073486</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="D44">
-        <v>6.039999961853027</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E44">
-        <v>6.039999961853027</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F44">
-        <v>16756400</v>
+        <v>18894600</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>5.900000095367432</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="B45">
-        <v>6.199999809265137</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C45">
-        <v>5.860000133514404</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="D45">
-        <v>6.070000171661377</v>
+        <v>7.25</v>
       </c>
       <c r="E45">
-        <v>6.070000171661377</v>
+        <v>7.25</v>
       </c>
       <c r="F45">
-        <v>14496300</v>
+        <v>29360600</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>6.119999885559082</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="B46">
-        <v>6.460000038146973</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="C46">
-        <v>6.03000020980835</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="D46">
-        <v>6.360000133514404</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="E46">
-        <v>6.360000133514404</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="F46">
-        <v>17549900</v>
+        <v>39061800</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>6.400000095367432</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="B47">
-        <v>6.599999904632568</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="C47">
-        <v>6.340000152587891</v>
+        <v>7.130000114440918</v>
       </c>
       <c r="D47">
-        <v>6.389999866485596</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E47">
-        <v>6.389999866485596</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F47">
-        <v>13090500</v>
+        <v>45530600</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>6.369999885559082</v>
+        <v>7.690000057220459</v>
       </c>
       <c r="B48">
-        <v>6.96999979019165</v>
+        <v>8.930000305175781</v>
       </c>
       <c r="C48">
-        <v>6.349999904632568</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="D48">
-        <v>6.710000038146973</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="E48">
-        <v>6.710000038146973</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="F48">
-        <v>19742200</v>
+        <v>158157900</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>6.75</v>
+        <v>8.649999618530273</v>
       </c>
       <c r="B49">
-        <v>7.039999961853027</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="C49">
-        <v>6.710000038146973</v>
+        <v>8.029999732971191</v>
       </c>
       <c r="D49">
-        <v>6.920000076293945</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="E49">
-        <v>6.920000076293945</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="F49">
-        <v>18894600</v>
+        <v>133341000</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>7.199999809265137</v>
+        <v>8.449999809265137</v>
       </c>
       <c r="B50">
-        <v>7.309999942779541</v>
+        <v>8.659999847412109</v>
       </c>
       <c r="C50">
-        <v>6.929999828338623</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="D50">
-        <v>7.25</v>
+        <v>8.130000114440918</v>
       </c>
       <c r="E50">
-        <v>7.25</v>
+        <v>8.130000114440918</v>
       </c>
       <c r="F50">
-        <v>29360600</v>
+        <v>53993700</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>7.380000114440918</v>
+        <v>8.170000076293945</v>
       </c>
       <c r="B51">
-        <v>7.440000057220459</v>
+        <v>8.789999961853027</v>
       </c>
       <c r="C51">
-        <v>6.869999885559082</v>
+        <v>8.039999961853027</v>
       </c>
       <c r="D51">
-        <v>7.21999979019165</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="E51">
-        <v>7.21999979019165</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="F51">
-        <v>39061800</v>
+        <v>63505200</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>7.260000228881836</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="B52">
-        <v>7.849999904632568</v>
+        <v>8.189999580383301</v>
       </c>
       <c r="C52">
-        <v>7.130000114440918</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="D52">
-        <v>7.389999866485596</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E52">
-        <v>7.389999866485596</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F52">
-        <v>45530600</v>
+        <v>45161200</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>7.690000057220459</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="B53">
-        <v>8.930000305175781</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C53">
-        <v>7.670000076293945</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="D53">
-        <v>8.739999771118164</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="E53">
-        <v>8.739999771118164</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="F53">
-        <v>158157900</v>
+        <v>32354000</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>8.649999618530273</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="B54">
-        <v>8.899999618530273</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C54">
-        <v>8.029999732971191</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="D54">
-        <v>8.590000152587891</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="E54">
-        <v>8.590000152587891</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="F54">
-        <v>133341000</v>
+        <v>27876700</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>8.449999809265137</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="B55">
-        <v>8.659999847412109</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="C55">
-        <v>8.050000190734863</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="D55">
-        <v>8.130000114440918</v>
+        <v>7</v>
       </c>
       <c r="E55">
-        <v>8.130000114440918</v>
+        <v>7</v>
       </c>
       <c r="F55">
-        <v>53993700</v>
+        <v>24447100</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>8.170000076293945</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B56">
-        <v>8.789999961853027</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="C56">
-        <v>8.039999961853027</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D56">
-        <v>8.109999656677246</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="E56">
-        <v>8.109999656677246</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="F56">
-        <v>63505200</v>
+        <v>52828600</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>8.050000190734863</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="B57">
-        <v>8.189999580383301</v>
+        <v>8.060000419616699</v>
       </c>
       <c r="C57">
-        <v>7.210000038146973</v>
+        <v>7.5</v>
       </c>
       <c r="D57">
-        <v>7.289999961853027</v>
+        <v>7.989999771118164</v>
       </c>
       <c r="E57">
-        <v>7.289999961853027</v>
+        <v>7.989999771118164</v>
       </c>
       <c r="F57">
-        <v>45161200</v>
+        <v>33618200</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>7.420000076293945</v>
+        <v>8.279999732971191</v>
       </c>
       <c r="B58">
-        <v>7.559999942779541</v>
+        <v>9.649999618530273</v>
       </c>
       <c r="C58">
-        <v>7.159999847412109</v>
+        <v>8.25</v>
       </c>
       <c r="D58">
-        <v>7.539999961853027</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="E58">
-        <v>7.539999961853027</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="F58">
-        <v>32354000</v>
+        <v>81021500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>7.590000152587891</v>
+        <v>9.899999618530273</v>
       </c>
       <c r="B59">
-        <v>7.789999961853027</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="C59">
-        <v>7.110000133514404</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="D59">
-        <v>7.170000076293945</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="E59">
-        <v>7.170000076293945</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="F59">
-        <v>27876700</v>
+        <v>82411400</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>7.239999771118164</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B60">
-        <v>7.539999961853027</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="C60">
-        <v>6.960000038146973</v>
+        <v>8.779999732971191</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>9.479999542236328</v>
       </c>
       <c r="E60">
-        <v>7</v>
+        <v>9.479999542236328</v>
       </c>
       <c r="F60">
-        <v>24447100</v>
+        <v>33335700</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>7.019999980926514</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="B61">
-        <v>7.940000057220459</v>
+        <v>9.630000114440918</v>
       </c>
       <c r="C61">
-        <v>7.010000228881836</v>
+        <v>9.119999885559082</v>
       </c>
       <c r="D61">
-        <v>7.570000171661377</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="E61">
-        <v>7.570000171661377</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="F61">
-        <v>52828600</v>
+        <v>28500800</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>7.559999942779541</v>
+        <v>9.130000114440918</v>
       </c>
       <c r="B62">
-        <v>8.060000419616699</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="C62">
-        <v>7.5</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="D62">
-        <v>7.989999771118164</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="E62">
-        <v>7.989999771118164</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="F62">
-        <v>33618200</v>
+        <v>23868500</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>8.279999732971191</v>
+        <v>9.560000419616699</v>
       </c>
       <c r="B63">
-        <v>9.649999618530273</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="C63">
-        <v>8.25</v>
+        <v>9.449999809265137</v>
       </c>
       <c r="D63">
-        <v>9.529999732971191</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="E63">
-        <v>9.529999732971191</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="F63">
-        <v>81021500</v>
+        <v>88991800</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>9.899999618530273</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="B64">
-        <v>9.989999771118164</v>
+        <v>11</v>
       </c>
       <c r="C64">
-        <v>8.970000267028809</v>
+        <v>9.850000381469727</v>
       </c>
       <c r="D64">
-        <v>9.430000305175781</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="E64">
-        <v>9.430000305175781</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="F64">
-        <v>82411400</v>
+        <v>46187600</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>8.989999771118164</v>
+        <v>10.25</v>
       </c>
       <c r="B65">
-        <v>9.550000190734863</v>
+        <v>10.96000003814697</v>
       </c>
       <c r="C65">
-        <v>8.779999732971191</v>
+        <v>9.960000038146973</v>
       </c>
       <c r="D65">
-        <v>9.479999542236328</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="E65">
-        <v>9.479999542236328</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F65">
-        <v>33335700</v>
+        <v>35711100</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>9.609999656677246</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="B66">
-        <v>9.630000114440918</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="C66">
-        <v>9.119999885559082</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="D66">
-        <v>9.279999732971191</v>
+        <v>11.11999988555908</v>
       </c>
       <c r="E66">
-        <v>9.279999732971191</v>
+        <v>11.11999988555908</v>
       </c>
       <c r="F66">
-        <v>28500800</v>
+        <v>45159100</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>9.130000114440918</v>
+        <v>11.25</v>
       </c>
       <c r="B67">
-        <v>9.279999732971191</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="C67">
-        <v>8.680000305175781</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="D67">
-        <v>8.949999809265137</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="E67">
-        <v>8.949999809265137</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="F67">
-        <v>23868500</v>
+        <v>34855600</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>9.560000419616699</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="B68">
-        <v>11.22000026702881</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="C68">
-        <v>9.449999809265137</v>
+        <v>10.51000022888184</v>
       </c>
       <c r="D68">
-        <v>10.8100004196167</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="E68">
-        <v>10.8100004196167</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="F68">
-        <v>88991800</v>
+        <v>31722900</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>10.93000030517578</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="C69">
-        <v>9.850000381469727</v>
+        <v>9.909999847412109</v>
       </c>
       <c r="D69">
-        <v>10.82999992370605</v>
+        <v>10.59000015258789</v>
       </c>
       <c r="E69">
-        <v>10.82999992370605</v>
+        <v>10.59000015258789</v>
       </c>
       <c r="F69">
-        <v>46187600</v>
+        <v>29685800</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>10.25</v>
+        <v>10.32999992370605</v>
       </c>
       <c r="B70">
-        <v>10.96000003814697</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="C70">
-        <v>9.960000038146973</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="D70">
         <v>10.23999977111816</v>
@@ -1792,1107 +1792,1107 @@
         <v>10.23999977111816</v>
       </c>
       <c r="F70">
-        <v>35711100</v>
+        <v>23815200</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>10.42000007629395</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="B71">
-        <v>11.46000003814697</v>
+        <v>10.26000022888184</v>
       </c>
       <c r="C71">
-        <v>10.10000038146973</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="D71">
-        <v>11.11999988555908</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="E71">
-        <v>11.11999988555908</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="F71">
-        <v>45159100</v>
+        <v>33549300</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>11.25</v>
+        <v>9.470000267028809</v>
       </c>
       <c r="B72">
-        <v>11.63000011444092</v>
+        <v>10.21000003814697</v>
       </c>
       <c r="C72">
-        <v>10.80000019073486</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="D72">
-        <v>11.22999954223633</v>
+        <v>9.810000419616699</v>
       </c>
       <c r="E72">
-        <v>11.22999954223633</v>
+        <v>9.810000419616699</v>
       </c>
       <c r="F72">
-        <v>34855600</v>
+        <v>24708500</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>11.39999961853027</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="B73">
-        <v>11.53999996185303</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="C73">
-        <v>10.51000022888184</v>
+        <v>9.189999580383301</v>
       </c>
       <c r="D73">
-        <v>10.77000045776367</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="E73">
-        <v>10.77000045776367</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="F73">
-        <v>31722900</v>
+        <v>27188200</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>10.52999973297119</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="B74">
-        <v>10.69999980926514</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="C74">
-        <v>9.909999847412109</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="D74">
-        <v>10.59000015258789</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="E74">
-        <v>10.59000015258789</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="F74">
-        <v>29685800</v>
+        <v>20635300</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>10.32999992370605</v>
+        <v>9.239999771118164</v>
       </c>
       <c r="B75">
-        <v>11.07999992370605</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="C75">
-        <v>10.19999980926514</v>
+        <v>8.869999885559082</v>
       </c>
       <c r="D75">
-        <v>10.23999977111816</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="E75">
-        <v>10.23999977111816</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="F75">
-        <v>23815200</v>
+        <v>16153500</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>10.22000026702881</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B76">
-        <v>10.26000022888184</v>
+        <v>9.310000419616699</v>
       </c>
       <c r="C76">
-        <v>9.149999618530273</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="D76">
-        <v>9.460000038146973</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="E76">
-        <v>9.460000038146973</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="F76">
-        <v>33549300</v>
+        <v>20332600</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>9.470000267028809</v>
+        <v>9.020000457763672</v>
       </c>
       <c r="B77">
-        <v>10.21000003814697</v>
+        <v>9.180000305175781</v>
       </c>
       <c r="C77">
-        <v>9.460000038146973</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="D77">
-        <v>9.810000419616699</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="E77">
-        <v>9.810000419616699</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="F77">
-        <v>24708500</v>
+        <v>18152700</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>10.02999973297119</v>
+        <v>8.779999732971191</v>
       </c>
       <c r="B78">
-        <v>10.1899995803833</v>
+        <v>9.069999694824219</v>
       </c>
       <c r="C78">
-        <v>9.189999580383301</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="D78">
-        <v>9.409999847412109</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="E78">
-        <v>9.409999847412109</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="F78">
-        <v>27188200</v>
+        <v>21312200</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>9.270000457763672</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="B79">
-        <v>9.600000381469727</v>
+        <v>9</v>
       </c>
       <c r="C79">
-        <v>8.949999809265137</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="D79">
-        <v>9.369999885559082</v>
+        <v>7.96999979019165</v>
       </c>
       <c r="E79">
-        <v>9.369999885559082</v>
+        <v>7.96999979019165</v>
       </c>
       <c r="F79">
-        <v>20635300</v>
+        <v>23581900</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>9.239999771118164</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="B80">
-        <v>9.609999656677246</v>
+        <v>8.340000152587891</v>
       </c>
       <c r="C80">
-        <v>8.869999885559082</v>
+        <v>7.769999980926514</v>
       </c>
       <c r="D80">
-        <v>9.529999732971191</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="E80">
-        <v>9.529999732971191</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="F80">
-        <v>16153500</v>
+        <v>21694500</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>8.989999771118164</v>
+        <v>8.159999847412109</v>
       </c>
       <c r="B81">
-        <v>9.310000419616699</v>
+        <v>8.159999847412109</v>
       </c>
       <c r="C81">
-        <v>8.590000152587891</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="D81">
-        <v>8.939999580383301</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E81">
-        <v>8.939999580383301</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F81">
-        <v>20332600</v>
+        <v>32650900</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>9.020000457763672</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="B82">
-        <v>9.180000305175781</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C82">
-        <v>8.600000381469727</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="D82">
-        <v>8.920000076293945</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="E82">
-        <v>8.920000076293945</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="F82">
-        <v>18152700</v>
+        <v>24345400</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>8.779999732971191</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="B83">
-        <v>9.069999694824219</v>
+        <v>7.829999923706055</v>
       </c>
       <c r="C83">
-        <v>8.149999618530273</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="D83">
-        <v>8.680000305175781</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="E83">
-        <v>8.680000305175781</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="F83">
-        <v>21312200</v>
+        <v>20545500</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>8.859999656677246</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="B84">
-        <v>9</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C84">
-        <v>7.940000057220459</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="D84">
-        <v>7.96999979019165</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="E84">
-        <v>7.96999979019165</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="F84">
-        <v>23581900</v>
+        <v>14039600</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>7.840000152587891</v>
+        <v>7.5</v>
       </c>
       <c r="B85">
-        <v>8.340000152587891</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="C85">
-        <v>7.769999980926514</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D85">
-        <v>8.149999618530273</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E85">
-        <v>8.149999618530273</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F85">
-        <v>21694500</v>
+        <v>19226400</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>8.159999847412109</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="B86">
-        <v>8.159999847412109</v>
+        <v>7.25</v>
       </c>
       <c r="C86">
-        <v>7.090000152587891</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="D86">
-        <v>7.289999961853027</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="E86">
-        <v>7.289999961853027</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="F86">
-        <v>32650900</v>
+        <v>17697500</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>7.150000095367432</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="B87">
-        <v>7.389999866485596</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="C87">
-        <v>6.739999771118164</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="D87">
-        <v>7.199999809265137</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="E87">
-        <v>7.199999809265137</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="F87">
-        <v>24345400</v>
+        <v>18939100</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>7.519999980926514</v>
+        <v>6.650000095367432</v>
       </c>
       <c r="B88">
-        <v>7.829999923706055</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="C88">
-        <v>7.420000076293945</v>
+        <v>6.25</v>
       </c>
       <c r="D88">
-        <v>7.550000190734863</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="E88">
-        <v>7.550000190734863</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="F88">
-        <v>20545500</v>
+        <v>28814000</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>7.519999980926514</v>
+        <v>6.260000228881836</v>
       </c>
       <c r="B89">
-        <v>7.789999961853027</v>
+        <v>6.650000095367432</v>
       </c>
       <c r="C89">
-        <v>7.300000190734863</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="D89">
-        <v>7.610000133514404</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="E89">
-        <v>7.610000133514404</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="F89">
-        <v>14039600</v>
+        <v>23657400</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>7.5</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="B90">
-        <v>7.670000076293945</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="C90">
-        <v>6.96999979019165</v>
+        <v>6.190000057220459</v>
       </c>
       <c r="D90">
-        <v>7.010000228881836</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="E90">
-        <v>7.010000228881836</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="F90">
-        <v>19226400</v>
+        <v>24586500</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>7.070000171661377</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B91">
-        <v>7.25</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="C91">
-        <v>6.800000190734863</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="D91">
-        <v>6.929999828338623</v>
+        <v>6.309999942779541</v>
       </c>
       <c r="E91">
-        <v>6.929999828338623</v>
+        <v>6.309999942779541</v>
       </c>
       <c r="F91">
-        <v>17697500</v>
+        <v>27393100</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>6.900000095367432</v>
+        <v>6</v>
       </c>
       <c r="B92">
-        <v>7.110000133514404</v>
+        <v>6.179999828338623</v>
       </c>
       <c r="C92">
-        <v>6.670000076293945</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="D92">
-        <v>6.889999866485596</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="E92">
-        <v>6.889999866485596</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="F92">
-        <v>18939100</v>
+        <v>16874500</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>6.650000095367432</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="B93">
-        <v>6.699999809265137</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="C93">
-        <v>6.25</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="D93">
-        <v>6.329999923706055</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="E93">
-        <v>6.329999923706055</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="F93">
-        <v>28814000</v>
+        <v>16683300</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>6.260000228881836</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="B94">
-        <v>6.650000095367432</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="C94">
-        <v>6.079999923706055</v>
+        <v>6.25</v>
       </c>
       <c r="D94">
-        <v>6.53000020980835</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="E94">
-        <v>6.53000020980835</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="F94">
-        <v>23657400</v>
+        <v>13093000</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>6.730000019073486</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="B95">
-        <v>6.800000190734863</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="C95">
-        <v>6.190000057220459</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="D95">
-        <v>6.269999980926514</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="E95">
-        <v>6.269999980926514</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="F95">
-        <v>24586500</v>
+        <v>14842900</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>6.150000095367432</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="B96">
-        <v>6.480000019073486</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="C96">
-        <v>5.920000076293945</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="D96">
-        <v>6.309999942779541</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="E96">
-        <v>6.309999942779541</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="F96">
-        <v>27393100</v>
+        <v>34336500</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>6</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="B97">
-        <v>6.179999828338623</v>
+        <v>6.25</v>
       </c>
       <c r="C97">
-        <v>5.909999847412109</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="D97">
-        <v>6.050000190734863</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="E97">
-        <v>6.050000190734863</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="F97">
-        <v>16874500</v>
+        <v>28962000</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>6.099999904632568</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="B98">
-        <v>6.46999979019165</v>
+        <v>5.300000190734863</v>
       </c>
       <c r="C98">
-        <v>6.090000152587891</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="D98">
-        <v>6.409999847412109</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="E98">
-        <v>6.409999847412109</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="F98">
-        <v>16683300</v>
+        <v>67673000</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>6.320000171661377</v>
+        <v>5.059999942779541</v>
       </c>
       <c r="B99">
-        <v>6.53000020980835</v>
+        <v>5.5</v>
       </c>
       <c r="C99">
-        <v>6.25</v>
+        <v>5.050000190734863</v>
       </c>
       <c r="D99">
-        <v>6.400000095367432</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="E99">
-        <v>6.400000095367432</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="F99">
-        <v>13093000</v>
+        <v>30972900</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>6.440000057220459</v>
+        <v>5.289999961853027</v>
       </c>
       <c r="B100">
-        <v>6.550000190734863</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="C100">
-        <v>6.199999809265137</v>
+        <v>5.190000057220459</v>
       </c>
       <c r="D100">
-        <v>6.460000038146973</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="E100">
-        <v>6.460000038146973</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="F100">
-        <v>14842900</v>
+        <v>21596300</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>6.860000133514404</v>
+        <v>5.349999904632568</v>
       </c>
       <c r="B101">
-        <v>6.949999809265137</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="C101">
-        <v>6.239999771118164</v>
+        <v>5.25</v>
       </c>
       <c r="D101">
-        <v>6.300000190734863</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="E101">
-        <v>6.300000190734863</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="F101">
-        <v>34336500</v>
+        <v>31252400</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>6.139999866485596</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="B102">
-        <v>6.25</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="C102">
-        <v>5.840000152587891</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="D102">
-        <v>5.869999885559082</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="E102">
-        <v>5.869999885559082</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="F102">
-        <v>28962000</v>
+        <v>27299300</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>5.130000114440918</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="B103">
-        <v>5.300000190734863</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="C103">
-        <v>4.829999923706055</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="D103">
-        <v>5.110000133514404</v>
+        <v>5.320000171661377</v>
       </c>
       <c r="E103">
-        <v>5.110000133514404</v>
+        <v>5.320000171661377</v>
       </c>
       <c r="F103">
-        <v>67673000</v>
+        <v>22666300</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>5.059999942779541</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="B104">
-        <v>5.5</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="C104">
-        <v>5.050000190734863</v>
+        <v>4.989999771118164</v>
       </c>
       <c r="D104">
-        <v>5.329999923706055</v>
+        <v>5.139999866485596</v>
       </c>
       <c r="E104">
-        <v>5.329999923706055</v>
+        <v>5.139999866485596</v>
       </c>
       <c r="F104">
-        <v>30972900</v>
+        <v>21000100</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>5.289999961853027</v>
+        <v>5.190000057220459</v>
       </c>
       <c r="B105">
-        <v>5.510000228881836</v>
+        <v>5.360000133514404</v>
       </c>
       <c r="C105">
-        <v>5.190000057220459</v>
+        <v>5.059999942779541</v>
       </c>
       <c r="D105">
-        <v>5.199999809265137</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="E105">
-        <v>5.199999809265137</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="F105">
-        <v>21596300</v>
+        <v>18317500</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>5.349999904632568</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="B106">
-        <v>5.889999866485596</v>
+        <v>5.050000190734863</v>
       </c>
       <c r="C106">
-        <v>5.25</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="D106">
-        <v>5.78000020980835</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="E106">
-        <v>5.78000020980835</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="F106">
-        <v>31252400</v>
+        <v>22386900</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>5.800000190734863</v>
+        <v>5</v>
       </c>
       <c r="B107">
-        <v>5.889999866485596</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="C107">
-        <v>5.46999979019165</v>
+        <v>4.920000076293945</v>
       </c>
       <c r="D107">
-        <v>5.880000114440918</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="E107">
-        <v>5.880000114440918</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="F107">
-        <v>27299300</v>
+        <v>21182500</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>5.760000228881836</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="B108">
-        <v>5.849999904632568</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="C108">
-        <v>5.260000228881836</v>
+        <v>5.010000228881836</v>
       </c>
       <c r="D108">
-        <v>5.320000171661377</v>
+        <v>5.070000171661377</v>
       </c>
       <c r="E108">
-        <v>5.320000171661377</v>
+        <v>5.070000171661377</v>
       </c>
       <c r="F108">
-        <v>22666300</v>
+        <v>17923500</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>5.28000020980835</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="B109">
-        <v>5.409999847412109</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="C109">
-        <v>4.989999771118164</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="D109">
-        <v>5.139999866485596</v>
+        <v>4.869999885559082</v>
       </c>
       <c r="E109">
-        <v>5.139999866485596</v>
+        <v>4.869999885559082</v>
       </c>
       <c r="F109">
-        <v>21000100</v>
+        <v>20043500</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>5.190000057220459</v>
+        <v>4.789999961853027</v>
       </c>
       <c r="B110">
-        <v>5.360000133514404</v>
+        <v>4.960000038146973</v>
       </c>
       <c r="C110">
-        <v>5.059999942779541</v>
+        <v>4.679999828338623</v>
       </c>
       <c r="D110">
-        <v>5.099999904632568</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="E110">
-        <v>5.099999904632568</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="F110">
-        <v>18317500</v>
+        <v>20219000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>4.96999979019165</v>
+        <v>4.760000228881836</v>
       </c>
       <c r="B111">
-        <v>5.050000190734863</v>
+        <v>4.820000171661377</v>
       </c>
       <c r="C111">
-        <v>4.800000190734863</v>
+        <v>4.559999942779541</v>
       </c>
       <c r="D111">
-        <v>4.96999979019165</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="E111">
-        <v>4.96999979019165</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="F111">
-        <v>22386900</v>
+        <v>20967500</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>5</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="B112">
-        <v>5.340000152587891</v>
+        <v>4.650000095367432</v>
       </c>
       <c r="C112">
-        <v>4.920000076293945</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="D112">
-        <v>5.179999828338623</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="E112">
-        <v>5.179999828338623</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="F112">
-        <v>21182500</v>
+        <v>29011200</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>5.28000020980835</v>
+        <v>4.389999866485596</v>
       </c>
       <c r="B113">
-        <v>5.329999923706055</v>
+        <v>4.510000228881836</v>
       </c>
       <c r="C113">
-        <v>5.010000228881836</v>
+        <v>4.110000133514404</v>
       </c>
       <c r="D113">
-        <v>5.070000171661377</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="E113">
-        <v>5.070000171661377</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="F113">
-        <v>17923500</v>
+        <v>30977700</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>5.130000114440918</v>
+        <v>3.990000009536743</v>
       </c>
       <c r="B114">
-        <v>5.199999809265137</v>
+        <v>4.170000076293945</v>
       </c>
       <c r="C114">
-        <v>4.860000133514404</v>
+        <v>3.849999904632568</v>
       </c>
       <c r="D114">
-        <v>4.869999885559082</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="E114">
-        <v>4.869999885559082</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="F114">
-        <v>20043500</v>
+        <v>44178500</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>4.789999961853027</v>
+        <v>3.730000019073486</v>
       </c>
       <c r="B115">
-        <v>4.960000038146973</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="C115">
-        <v>4.679999828338623</v>
+        <v>3.440000057220459</v>
       </c>
       <c r="D115">
-        <v>4.829999923706055</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="E115">
-        <v>4.829999923706055</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="F115">
-        <v>20219000</v>
+        <v>37138500</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>4.760000228881836</v>
+        <v>3.75</v>
       </c>
       <c r="B116">
-        <v>4.820000171661377</v>
+        <v>3.970000028610229</v>
       </c>
       <c r="C116">
-        <v>4.559999942779541</v>
+        <v>3.720000028610229</v>
       </c>
       <c r="D116">
-        <v>4.579999923706055</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="E116">
-        <v>4.579999923706055</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="F116">
-        <v>20967500</v>
+        <v>17530900</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>4.579999923706055</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="B117">
-        <v>4.650000095367432</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="C117">
-        <v>4.28000020980835</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="D117">
-        <v>4.300000190734863</v>
+        <v>3.859999895095825</v>
       </c>
       <c r="E117">
-        <v>4.300000190734863</v>
+        <v>3.859999895095825</v>
       </c>
       <c r="F117">
-        <v>29011200</v>
+        <v>28075400</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>4.389999866485596</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="B118">
-        <v>4.510000228881836</v>
+        <v>3.980000019073486</v>
       </c>
       <c r="C118">
-        <v>4.110000133514404</v>
+        <v>3.5</v>
       </c>
       <c r="D118">
-        <v>4.130000114440918</v>
+        <v>3.559999942779541</v>
       </c>
       <c r="E118">
-        <v>4.130000114440918</v>
+        <v>3.559999942779541</v>
       </c>
       <c r="F118">
-        <v>30977700</v>
+        <v>28877100</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>3.990000009536743</v>
+        <v>3.579999923706055</v>
       </c>
       <c r="B119">
-        <v>4.170000076293945</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="C119">
-        <v>3.849999904632568</v>
+        <v>3.400000095367432</v>
       </c>
       <c r="D119">
-        <v>3.900000095367432</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="E119">
-        <v>3.900000095367432</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="F119">
-        <v>44178500</v>
+        <v>21240900</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>3.730000019073486</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="B120">
-        <v>3.920000076293945</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="C120">
-        <v>3.440000057220459</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="D120">
-        <v>3.920000076293945</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="E120">
-        <v>3.920000076293945</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="F120">
-        <v>37138500</v>
+        <v>27876100</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>3.75</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="B121">
-        <v>3.970000028610229</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="C121">
-        <v>3.720000028610229</v>
+        <v>4.199999809265137</v>
       </c>
       <c r="D121">
-        <v>3.869999885559082</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="E121">
-        <v>3.869999885559082</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="F121">
-        <v>17530900</v>
+        <v>27707300</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
+        <v>4.510000228881836</v>
+      </c>
+      <c r="B122">
+        <v>4.519999980926514</v>
+      </c>
+      <c r="C122">
         <v>4.139999866485596</v>
       </c>
-      <c r="B122">
-        <v>4.210000038146973</v>
-      </c>
-      <c r="C122">
-        <v>3.799999952316284</v>
-      </c>
       <c r="D122">
-        <v>3.859999895095825</v>
+        <v>4.190000057220459</v>
       </c>
       <c r="E122">
-        <v>3.859999895095825</v>
+        <v>4.190000057220459</v>
       </c>
       <c r="F122">
-        <v>28075400</v>
+        <v>22492300</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>3.910000085830688</v>
+        <v>4.010000228881836</v>
       </c>
       <c r="B123">
-        <v>3.980000019073486</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="C123">
-        <v>3.5</v>
+        <v>3.990000009536743</v>
       </c>
       <c r="D123">
-        <v>3.559999942779541</v>
+        <v>4.070000171661377</v>
       </c>
       <c r="E123">
-        <v>3.559999942779541</v>
+        <v>4.070000171661377</v>
       </c>
       <c r="F123">
-        <v>28877100</v>
+        <v>21628800</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>3.579999923706055</v>
+        <v>4.110000133514404</v>
       </c>
       <c r="B124">
-        <v>3.700000047683716</v>
+        <v>4.380000114440918</v>
       </c>
       <c r="C124">
-        <v>3.400000095367432</v>
+        <v>4.050000190734863</v>
       </c>
       <c r="D124">
-        <v>3.680000066757202</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="E124">
-        <v>3.680000066757202</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="F124">
-        <v>21240900</v>
+        <v>15721500</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>3.680000066757202</v>
+        <v>4.21999979019165</v>
       </c>
       <c r="B125">
-        <v>4.260000228881836</v>
+        <v>4.550000190734863</v>
       </c>
       <c r="C125">
-        <v>3.680000066757202</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="D125">
-        <v>4.239999771118164</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="E125">
-        <v>4.239999771118164</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="F125">
-        <v>27876100</v>
+        <v>22408900</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2900,79 +2900,79 @@
         <v>4.329999923706055</v>
       </c>
       <c r="B126">
-        <v>4.599999904632568</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="C126">
-        <v>4.199999809265137</v>
+        <v>4.289999961853027</v>
       </c>
       <c r="D126">
-        <v>4.460000038146973</v>
+        <v>4.519999980926514</v>
       </c>
       <c r="E126">
-        <v>4.460000038146973</v>
+        <v>4.519999980926514</v>
       </c>
       <c r="F126">
-        <v>27707300</v>
+        <v>15042900</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>4.510000228881836</v>
+        <v>4.630000114440918</v>
       </c>
       <c r="B127">
-        <v>4.519999980926514</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="C127">
-        <v>4.139999866485596</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="D127">
-        <v>4.190000057220459</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="E127">
-        <v>4.190000057220459</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="F127">
-        <v>22492300</v>
+        <v>18484200</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>4.010000228881836</v>
+        <v>4.690000057220459</v>
       </c>
       <c r="B128">
-        <v>4.28000020980835</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="C128">
-        <v>3.990000009536743</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="D128">
-        <v>4.070000171661377</v>
+        <v>4.820000171661377</v>
       </c>
       <c r="E128">
-        <v>4.070000171661377</v>
+        <v>4.820000171661377</v>
       </c>
       <c r="F128">
-        <v>21628800</v>
+        <v>23555600</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>4.110000133514404</v>
+        <v>4.840000152587891</v>
       </c>
       <c r="B129">
-        <v>4.380000114440918</v>
+        <v>5.039999961853027</v>
       </c>
       <c r="C129">
-        <v>4.050000190734863</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="D129">
-        <v>4.28000020980835</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="E129">
-        <v>4.28000020980835</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="F129">
-        <v>15721500</v>
+        <v>20516500</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/FCEL/HighLow.xlsx
+++ b/Stocks/FCEL/HighLow.xlsx
@@ -417,1273 +417,1273 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>6.800000190734863</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>6.96999979019165</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C2">
-        <v>6.46999979019165</v>
+        <v>5.679999828338623</v>
       </c>
       <c r="D2">
-        <v>6.690000057220459</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E2">
-        <v>6.690000057220459</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F2">
-        <v>15876600</v>
+        <v>13918700</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>6.570000171661377</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="B3">
-        <v>6.610000133514404</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="C3">
-        <v>6.070000171661377</v>
+        <v>5.690000057220459</v>
       </c>
       <c r="D3">
-        <v>6.139999866485596</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="E3">
-        <v>6.139999866485596</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="F3">
-        <v>20928500</v>
+        <v>11070600</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>6.210000038146973</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="B4">
-        <v>6.360000133514404</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="C4">
-        <v>5.940000057220459</v>
+        <v>5.809999942779541</v>
       </c>
       <c r="D4">
-        <v>6.070000171661377</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E4">
-        <v>6.070000171661377</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F4">
-        <v>22713400</v>
+        <v>13515900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>6</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B5">
-        <v>6.139999866485596</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="C5">
-        <v>5.769999980926514</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="D5">
-        <v>5.920000076293945</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="E5">
-        <v>5.920000076293945</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="F5">
-        <v>17495200</v>
+        <v>15727100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>5.96999979019165</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="B6">
-        <v>6.320000171661377</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="C6">
-        <v>5.78000020980835</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="D6">
-        <v>6.070000171661377</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="E6">
-        <v>6.070000171661377</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="F6">
-        <v>16864100</v>
+        <v>11296100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>6</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B7">
-        <v>6.099999904632568</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="C7">
-        <v>5.679999828338623</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="D7">
-        <v>5.71999979019165</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E7">
-        <v>5.71999979019165</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F7">
-        <v>13918700</v>
+        <v>13388500</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>5.71999979019165</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B8">
-        <v>5.920000076293945</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="C8">
-        <v>5.690000057220459</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="D8">
-        <v>5.78000020980835</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="E8">
-        <v>5.78000020980835</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="F8">
-        <v>11070600</v>
+        <v>9814900</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>5.900000095367432</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="B9">
-        <v>6.199999809265137</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="C9">
-        <v>5.809999942779541</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D9">
-        <v>6.139999866485596</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="E9">
-        <v>6.139999866485596</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="F9">
-        <v>13515900</v>
+        <v>14003400</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>6.159999847412109</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B10">
-        <v>6.389999866485596</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="C10">
-        <v>6.019999980926514</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="D10">
-        <v>6.269999980926514</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="E10">
-        <v>6.269999980926514</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="F10">
-        <v>15727100</v>
+        <v>10318100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>6.269999980926514</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="B11">
-        <v>6.46999979019165</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="C11">
-        <v>6.119999885559082</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="D11">
-        <v>6.230000019073486</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="E11">
-        <v>6.230000019073486</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="F11">
-        <v>11296100</v>
+        <v>12659900</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>6.159999847412109</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="B12">
-        <v>6.53000020980835</v>
+        <v>6.590000152587891</v>
       </c>
       <c r="C12">
-        <v>6.03000020980835</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="D12">
-        <v>6.119999885559082</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="E12">
-        <v>6.119999885559082</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="F12">
-        <v>13388500</v>
+        <v>12398000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>6.159999847412109</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="B13">
-        <v>6.369999885559082</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="C13">
-        <v>6.090000152587891</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="D13">
-        <v>6.28000020980835</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E13">
-        <v>6.28000020980835</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F13">
-        <v>9814900</v>
+        <v>13980600</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>6.300000190734863</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B14">
         <v>6.329999923706055</v>
       </c>
       <c r="C14">
-        <v>5.940000057220459</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="D14">
-        <v>6.210000038146973</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>6.210000038146973</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>14003400</v>
+        <v>15292000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>6.150000095367432</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="B15">
-        <v>6.380000114440918</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="C15">
-        <v>6.130000114440918</v>
+        <v>5.690000057220459</v>
       </c>
       <c r="D15">
-        <v>6.239999771118164</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E15">
-        <v>6.239999771118164</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F15">
-        <v>10318100</v>
+        <v>17939600</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>6.210000038146973</v>
+        <v>5.739999771118164</v>
       </c>
       <c r="B16">
-        <v>6.53000020980835</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="C16">
-        <v>6.199999809265137</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="D16">
-        <v>6.369999885559082</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="E16">
-        <v>6.369999885559082</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="F16">
-        <v>12659900</v>
+        <v>14641800</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>6.440000057220459</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="B17">
-        <v>6.590000152587891</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="C17">
-        <v>6.320000171661377</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="D17">
-        <v>6.420000076293945</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="E17">
-        <v>6.420000076293945</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="F17">
-        <v>12398000</v>
+        <v>19485900</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>6.420000076293945</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="B18">
-        <v>6.440000057220459</v>
+        <v>5.75</v>
       </c>
       <c r="C18">
-        <v>6.059999942779541</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="D18">
-        <v>6.119999885559082</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="E18">
-        <v>6.119999885559082</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="F18">
-        <v>13980600</v>
+        <v>22075100</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>6.150000095367432</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="B19">
-        <v>6.329999923706055</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="C19">
-        <v>5.989999771118164</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F19">
-        <v>15292000</v>
+        <v>214559900</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>6.019999980926514</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="B20">
-        <v>6.059999942779541</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="C20">
-        <v>5.690000057220459</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D20">
-        <v>5.71999979019165</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E20">
-        <v>5.71999979019165</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F20">
-        <v>17939600</v>
+        <v>59485900</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>5.739999771118164</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B21">
-        <v>6.039999961853027</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="C21">
-        <v>5.699999809265137</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>5.820000171661377</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="E21">
-        <v>5.820000171661377</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="F21">
-        <v>14641800</v>
+        <v>20369000</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>5.96999979019165</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="B22">
-        <v>5.96999979019165</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="C22">
-        <v>5.550000190734863</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="D22">
-        <v>5.579999923706055</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="E22">
-        <v>5.579999923706055</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="F22">
-        <v>19485900</v>
+        <v>31480400</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>5.619999885559082</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="B23">
-        <v>5.75</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="C23">
-        <v>5.340000152587891</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="D23">
-        <v>5.619999885559082</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E23">
-        <v>5.619999885559082</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F23">
-        <v>22075100</v>
+        <v>23518100</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>6.199999809265137</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="B24">
-        <v>7.539999961853027</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="C24">
-        <v>6.119999885559082</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="D24">
-        <v>6.440000057220459</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>6.440000057220459</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>214559900</v>
+        <v>18779700</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>6.480000019073486</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="B25">
-        <v>6.610000133514404</v>
+        <v>6.75</v>
       </c>
       <c r="C25">
-        <v>5.889999866485596</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="D25">
-        <v>6.139999866485596</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="E25">
-        <v>6.139999866485596</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="F25">
-        <v>59485900</v>
+        <v>34335200</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>6.070000171661377</v>
+        <v>6.760000228881836</v>
       </c>
       <c r="B26">
-        <v>6.289999961853027</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D26">
-        <v>6.150000095367432</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="E26">
-        <v>6.150000095367432</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="F26">
-        <v>20369000</v>
+        <v>39926500</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>6.170000076293945</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B27">
-        <v>6.550000190734863</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="C27">
-        <v>6.130000114440918</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="D27">
-        <v>6.550000190734863</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="E27">
-        <v>6.550000190734863</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="F27">
-        <v>31480400</v>
+        <v>20537600</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>6.239999771118164</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B28">
-        <v>6.380000114440918</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C28">
-        <v>5.96999979019165</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="D28">
-        <v>6.119999885559082</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="E28">
-        <v>6.119999885559082</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="F28">
-        <v>23518100</v>
+        <v>32138700</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>6.269999980926514</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="B29">
-        <v>6.300000190734863</v>
+        <v>7.860000133514404</v>
       </c>
       <c r="C29">
-        <v>5.949999809265137</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="F29">
-        <v>18779700</v>
+        <v>27209500</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>6.039999961853027</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="B30">
-        <v>6.75</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="C30">
-        <v>6.010000228881836</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D30">
-        <v>6.659999847412109</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="E30">
-        <v>6.659999847412109</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="F30">
-        <v>34335200</v>
+        <v>25907200</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>6.760000228881836</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B31">
-        <v>7.309999942779541</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C31">
-        <v>6.610000133514404</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D31">
-        <v>7.239999771118164</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="E31">
-        <v>7.239999771118164</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="F31">
-        <v>39926500</v>
+        <v>15831500</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>7.050000190734863</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="B32">
-        <v>7.239999771118164</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="C32">
-        <v>6.949999809265137</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="D32">
-        <v>6.96999979019165</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="E32">
-        <v>6.96999979019165</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="F32">
-        <v>20537600</v>
+        <v>16087800</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>7.059999942779541</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="B33">
-        <v>7.789999961853027</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="C33">
-        <v>7.03000020980835</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D33">
-        <v>7.650000095367432</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>7.650000095367432</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>32138700</v>
+        <v>19212300</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>7.480000019073486</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="B34">
-        <v>7.860000133514404</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="C34">
-        <v>7.170000076293945</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="D34">
-        <v>7.190000057220459</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="E34">
-        <v>7.190000057220459</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="F34">
-        <v>27209500</v>
+        <v>16756400</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>7.320000171661377</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="B35">
-        <v>7.349999904632568</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="C35">
-        <v>6.559999942779541</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="D35">
-        <v>6.570000171661377</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="E35">
-        <v>6.570000171661377</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="F35">
-        <v>25907200</v>
+        <v>14496300</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>6.619999885559082</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="B36">
-        <v>6.840000152587891</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="C36">
-        <v>6.559999942779541</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="D36">
-        <v>6.690000057220459</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="E36">
-        <v>6.690000057220459</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="F36">
-        <v>15831500</v>
+        <v>17549900</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>6.739999771118164</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="B37">
-        <v>6.809999942779541</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="C37">
-        <v>6.369999885559082</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="D37">
-        <v>6.429999828338623</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="E37">
-        <v>6.429999828338623</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="F37">
-        <v>16087800</v>
+        <v>13090500</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
+        <v>6.369999885559082</v>
+      </c>
+      <c r="B38">
+        <v>6.96999979019165</v>
+      </c>
+      <c r="C38">
         <v>6.349999904632568</v>
       </c>
-      <c r="B38">
-        <v>6.369999885559082</v>
-      </c>
-      <c r="C38">
-        <v>5.940000057220459</v>
-      </c>
       <c r="D38">
-        <v>6</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="F38">
-        <v>19212300</v>
+        <v>19742200</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>6.099999904632568</v>
+        <v>6.75</v>
       </c>
       <c r="B39">
-        <v>6.28000020980835</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="C39">
-        <v>5.980000019073486</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="D39">
-        <v>6.039999961853027</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E39">
-        <v>6.039999961853027</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F39">
-        <v>16756400</v>
+        <v>18894600</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>5.900000095367432</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="B40">
-        <v>6.199999809265137</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C40">
-        <v>5.860000133514404</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="D40">
-        <v>6.070000171661377</v>
+        <v>7.25</v>
       </c>
       <c r="E40">
-        <v>6.070000171661377</v>
+        <v>7.25</v>
       </c>
       <c r="F40">
-        <v>14496300</v>
+        <v>29360600</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>6.119999885559082</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="B41">
-        <v>6.460000038146973</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="C41">
-        <v>6.03000020980835</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="D41">
-        <v>6.360000133514404</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="E41">
-        <v>6.360000133514404</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="F41">
-        <v>17549900</v>
+        <v>39061800</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>6.400000095367432</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="B42">
-        <v>6.599999904632568</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="C42">
-        <v>6.340000152587891</v>
+        <v>7.130000114440918</v>
       </c>
       <c r="D42">
-        <v>6.389999866485596</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E42">
-        <v>6.389999866485596</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F42">
-        <v>13090500</v>
+        <v>45530600</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>6.369999885559082</v>
+        <v>7.690000057220459</v>
       </c>
       <c r="B43">
-        <v>6.96999979019165</v>
+        <v>8.930000305175781</v>
       </c>
       <c r="C43">
-        <v>6.349999904632568</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="D43">
-        <v>6.710000038146973</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="E43">
-        <v>6.710000038146973</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="F43">
-        <v>19742200</v>
+        <v>158157900</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>6.75</v>
+        <v>8.649999618530273</v>
       </c>
       <c r="B44">
-        <v>7.039999961853027</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="C44">
-        <v>6.710000038146973</v>
+        <v>8.029999732971191</v>
       </c>
       <c r="D44">
-        <v>6.920000076293945</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="E44">
-        <v>6.920000076293945</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="F44">
-        <v>18894600</v>
+        <v>133341000</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>7.199999809265137</v>
+        <v>8.449999809265137</v>
       </c>
       <c r="B45">
-        <v>7.309999942779541</v>
+        <v>8.659999847412109</v>
       </c>
       <c r="C45">
-        <v>6.929999828338623</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="D45">
-        <v>7.25</v>
+        <v>8.130000114440918</v>
       </c>
       <c r="E45">
-        <v>7.25</v>
+        <v>8.130000114440918</v>
       </c>
       <c r="F45">
-        <v>29360600</v>
+        <v>53993700</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>7.380000114440918</v>
+        <v>8.170000076293945</v>
       </c>
       <c r="B46">
-        <v>7.440000057220459</v>
+        <v>8.789999961853027</v>
       </c>
       <c r="C46">
-        <v>6.869999885559082</v>
+        <v>8.039999961853027</v>
       </c>
       <c r="D46">
-        <v>7.21999979019165</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="E46">
-        <v>7.21999979019165</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="F46">
-        <v>39061800</v>
+        <v>63505200</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>7.260000228881836</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="B47">
-        <v>7.849999904632568</v>
+        <v>8.189999580383301</v>
       </c>
       <c r="C47">
-        <v>7.130000114440918</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="D47">
-        <v>7.389999866485596</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E47">
-        <v>7.389999866485596</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F47">
-        <v>45530600</v>
+        <v>45161200</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>7.690000057220459</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="B48">
-        <v>8.930000305175781</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C48">
-        <v>7.670000076293945</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="D48">
-        <v>8.739999771118164</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="E48">
-        <v>8.739999771118164</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="F48">
-        <v>158157900</v>
+        <v>32354000</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>8.649999618530273</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="B49">
-        <v>8.899999618530273</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C49">
-        <v>8.029999732971191</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="D49">
-        <v>8.590000152587891</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="E49">
-        <v>8.590000152587891</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="F49">
-        <v>133341000</v>
+        <v>27876700</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>8.449999809265137</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="B50">
-        <v>8.659999847412109</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="C50">
-        <v>8.050000190734863</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="D50">
-        <v>8.130000114440918</v>
+        <v>7</v>
       </c>
       <c r="E50">
-        <v>8.130000114440918</v>
+        <v>7</v>
       </c>
       <c r="F50">
-        <v>53993700</v>
+        <v>24447100</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>8.170000076293945</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B51">
-        <v>8.789999961853027</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="C51">
-        <v>8.039999961853027</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D51">
-        <v>8.109999656677246</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="E51">
-        <v>8.109999656677246</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="F51">
-        <v>63505200</v>
+        <v>52828600</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>8.050000190734863</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="B52">
-        <v>8.189999580383301</v>
+        <v>8.060000419616699</v>
       </c>
       <c r="C52">
-        <v>7.210000038146973</v>
+        <v>7.5</v>
       </c>
       <c r="D52">
-        <v>7.289999961853027</v>
+        <v>7.989999771118164</v>
       </c>
       <c r="E52">
-        <v>7.289999961853027</v>
+        <v>7.989999771118164</v>
       </c>
       <c r="F52">
-        <v>45161200</v>
+        <v>33618200</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>7.420000076293945</v>
+        <v>8.279999732971191</v>
       </c>
       <c r="B53">
-        <v>7.559999942779541</v>
+        <v>9.649999618530273</v>
       </c>
       <c r="C53">
-        <v>7.159999847412109</v>
+        <v>8.25</v>
       </c>
       <c r="D53">
-        <v>7.539999961853027</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="E53">
-        <v>7.539999961853027</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="F53">
-        <v>32354000</v>
+        <v>81021500</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>7.590000152587891</v>
+        <v>9.899999618530273</v>
       </c>
       <c r="B54">
-        <v>7.789999961853027</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="C54">
-        <v>7.110000133514404</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="D54">
-        <v>7.170000076293945</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="E54">
-        <v>7.170000076293945</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="F54">
-        <v>27876700</v>
+        <v>82411400</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>7.239999771118164</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B55">
-        <v>7.539999961853027</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="C55">
-        <v>6.960000038146973</v>
+        <v>8.779999732971191</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>9.479999542236328</v>
       </c>
       <c r="E55">
-        <v>7</v>
+        <v>9.479999542236328</v>
       </c>
       <c r="F55">
-        <v>24447100</v>
+        <v>33335700</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>7.019999980926514</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="B56">
-        <v>7.940000057220459</v>
+        <v>9.630000114440918</v>
       </c>
       <c r="C56">
-        <v>7.010000228881836</v>
+        <v>9.119999885559082</v>
       </c>
       <c r="D56">
-        <v>7.570000171661377</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="E56">
-        <v>7.570000171661377</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="F56">
-        <v>52828600</v>
+        <v>28500800</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>7.559999942779541</v>
+        <v>9.130000114440918</v>
       </c>
       <c r="B57">
-        <v>8.060000419616699</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="C57">
-        <v>7.5</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="D57">
-        <v>7.989999771118164</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="E57">
-        <v>7.989999771118164</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="F57">
-        <v>33618200</v>
+        <v>23868500</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>8.279999732971191</v>
+        <v>9.560000419616699</v>
       </c>
       <c r="B58">
-        <v>9.649999618530273</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="C58">
-        <v>8.25</v>
+        <v>9.449999809265137</v>
       </c>
       <c r="D58">
-        <v>9.529999732971191</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="E58">
-        <v>9.529999732971191</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="F58">
-        <v>81021500</v>
+        <v>88991800</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>9.899999618530273</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="B59">
-        <v>9.989999771118164</v>
+        <v>11</v>
       </c>
       <c r="C59">
-        <v>8.970000267028809</v>
+        <v>9.850000381469727</v>
       </c>
       <c r="D59">
-        <v>9.430000305175781</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="E59">
-        <v>9.430000305175781</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="F59">
-        <v>82411400</v>
+        <v>46187600</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>8.989999771118164</v>
+        <v>10.25</v>
       </c>
       <c r="B60">
-        <v>9.550000190734863</v>
+        <v>10.96000003814697</v>
       </c>
       <c r="C60">
-        <v>8.779999732971191</v>
+        <v>9.960000038146973</v>
       </c>
       <c r="D60">
-        <v>9.479999542236328</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="E60">
-        <v>9.479999542236328</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F60">
-        <v>33335700</v>
+        <v>35711100</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>9.609999656677246</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="B61">
-        <v>9.630000114440918</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="C61">
-        <v>9.119999885559082</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="D61">
-        <v>9.279999732971191</v>
+        <v>11.11999988555908</v>
       </c>
       <c r="E61">
-        <v>9.279999732971191</v>
+        <v>11.11999988555908</v>
       </c>
       <c r="F61">
-        <v>28500800</v>
+        <v>45159100</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>9.130000114440918</v>
+        <v>11.25</v>
       </c>
       <c r="B62">
-        <v>9.279999732971191</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="C62">
-        <v>8.680000305175781</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="D62">
-        <v>8.949999809265137</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="E62">
-        <v>8.949999809265137</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="F62">
-        <v>23868500</v>
+        <v>34855600</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>9.560000419616699</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="B63">
-        <v>11.22000026702881</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="C63">
-        <v>9.449999809265137</v>
+        <v>10.51000022888184</v>
       </c>
       <c r="D63">
-        <v>10.8100004196167</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="E63">
-        <v>10.8100004196167</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="F63">
-        <v>88991800</v>
+        <v>31722900</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>10.93000030517578</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="B64">
-        <v>11</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="C64">
-        <v>9.850000381469727</v>
+        <v>9.909999847412109</v>
       </c>
       <c r="D64">
-        <v>10.82999992370605</v>
+        <v>10.59000015258789</v>
       </c>
       <c r="E64">
-        <v>10.82999992370605</v>
+        <v>10.59000015258789</v>
       </c>
       <c r="F64">
-        <v>46187600</v>
+        <v>29685800</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>10.25</v>
+        <v>10.32999992370605</v>
       </c>
       <c r="B65">
-        <v>10.96000003814697</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="C65">
-        <v>9.960000038146973</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="D65">
         <v>10.23999977111816</v>
@@ -1692,1107 +1692,1107 @@
         <v>10.23999977111816</v>
       </c>
       <c r="F65">
-        <v>35711100</v>
+        <v>23815200</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>10.42000007629395</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="B66">
-        <v>11.46000003814697</v>
+        <v>10.26000022888184</v>
       </c>
       <c r="C66">
-        <v>10.10000038146973</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="D66">
-        <v>11.11999988555908</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="E66">
-        <v>11.11999988555908</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="F66">
-        <v>45159100</v>
+        <v>33549300</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>11.25</v>
+        <v>9.470000267028809</v>
       </c>
       <c r="B67">
-        <v>11.63000011444092</v>
+        <v>10.21000003814697</v>
       </c>
       <c r="C67">
-        <v>10.80000019073486</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="D67">
-        <v>11.22999954223633</v>
+        <v>9.810000419616699</v>
       </c>
       <c r="E67">
-        <v>11.22999954223633</v>
+        <v>9.810000419616699</v>
       </c>
       <c r="F67">
-        <v>34855600</v>
+        <v>24708500</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>11.39999961853027</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="B68">
-        <v>11.53999996185303</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="C68">
-        <v>10.51000022888184</v>
+        <v>9.189999580383301</v>
       </c>
       <c r="D68">
-        <v>10.77000045776367</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="E68">
-        <v>10.77000045776367</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="F68">
-        <v>31722900</v>
+        <v>27188200</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>10.52999973297119</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="B69">
-        <v>10.69999980926514</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="C69">
-        <v>9.909999847412109</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="D69">
-        <v>10.59000015258789</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="E69">
-        <v>10.59000015258789</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="F69">
-        <v>29685800</v>
+        <v>20635300</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>10.32999992370605</v>
+        <v>9.239999771118164</v>
       </c>
       <c r="B70">
-        <v>11.07999992370605</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="C70">
-        <v>10.19999980926514</v>
+        <v>8.869999885559082</v>
       </c>
       <c r="D70">
-        <v>10.23999977111816</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="E70">
-        <v>10.23999977111816</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="F70">
-        <v>23815200</v>
+        <v>16153500</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>10.22000026702881</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B71">
-        <v>10.26000022888184</v>
+        <v>9.310000419616699</v>
       </c>
       <c r="C71">
-        <v>9.149999618530273</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="D71">
-        <v>9.460000038146973</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="E71">
-        <v>9.460000038146973</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="F71">
-        <v>33549300</v>
+        <v>20332600</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>9.470000267028809</v>
+        <v>9.020000457763672</v>
       </c>
       <c r="B72">
-        <v>10.21000003814697</v>
+        <v>9.180000305175781</v>
       </c>
       <c r="C72">
-        <v>9.460000038146973</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="D72">
-        <v>9.810000419616699</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="E72">
-        <v>9.810000419616699</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="F72">
-        <v>24708500</v>
+        <v>18152700</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>10.02999973297119</v>
+        <v>8.779999732971191</v>
       </c>
       <c r="B73">
-        <v>10.1899995803833</v>
+        <v>9.069999694824219</v>
       </c>
       <c r="C73">
-        <v>9.189999580383301</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="D73">
-        <v>9.409999847412109</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="E73">
-        <v>9.409999847412109</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="F73">
-        <v>27188200</v>
+        <v>21312200</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>9.270000457763672</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="B74">
-        <v>9.600000381469727</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>8.949999809265137</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="D74">
-        <v>9.369999885559082</v>
+        <v>7.96999979019165</v>
       </c>
       <c r="E74">
-        <v>9.369999885559082</v>
+        <v>7.96999979019165</v>
       </c>
       <c r="F74">
-        <v>20635300</v>
+        <v>23581900</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>9.239999771118164</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="B75">
-        <v>9.609999656677246</v>
+        <v>8.340000152587891</v>
       </c>
       <c r="C75">
-        <v>8.869999885559082</v>
+        <v>7.769999980926514</v>
       </c>
       <c r="D75">
-        <v>9.529999732971191</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="E75">
-        <v>9.529999732971191</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="F75">
-        <v>16153500</v>
+        <v>21694500</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>8.989999771118164</v>
+        <v>8.159999847412109</v>
       </c>
       <c r="B76">
-        <v>9.310000419616699</v>
+        <v>8.159999847412109</v>
       </c>
       <c r="C76">
-        <v>8.590000152587891</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="D76">
-        <v>8.939999580383301</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E76">
-        <v>8.939999580383301</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F76">
-        <v>20332600</v>
+        <v>32650900</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>9.020000457763672</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="B77">
-        <v>9.180000305175781</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C77">
-        <v>8.600000381469727</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="D77">
-        <v>8.920000076293945</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="E77">
-        <v>8.920000076293945</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="F77">
-        <v>18152700</v>
+        <v>24345400</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>8.779999732971191</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="B78">
-        <v>9.069999694824219</v>
+        <v>7.829999923706055</v>
       </c>
       <c r="C78">
-        <v>8.149999618530273</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="D78">
-        <v>8.680000305175781</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="E78">
-        <v>8.680000305175781</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="F78">
-        <v>21312200</v>
+        <v>20545500</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>8.859999656677246</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="B79">
-        <v>9</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C79">
-        <v>7.940000057220459</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="D79">
-        <v>7.96999979019165</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="E79">
-        <v>7.96999979019165</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="F79">
-        <v>23581900</v>
+        <v>14039600</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>7.840000152587891</v>
+        <v>7.5</v>
       </c>
       <c r="B80">
-        <v>8.340000152587891</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="C80">
-        <v>7.769999980926514</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D80">
-        <v>8.149999618530273</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E80">
-        <v>8.149999618530273</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F80">
-        <v>21694500</v>
+        <v>19226400</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>8.159999847412109</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="B81">
-        <v>8.159999847412109</v>
+        <v>7.25</v>
       </c>
       <c r="C81">
-        <v>7.090000152587891</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="D81">
-        <v>7.289999961853027</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="E81">
-        <v>7.289999961853027</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="F81">
-        <v>32650900</v>
+        <v>17697500</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>7.150000095367432</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="B82">
-        <v>7.389999866485596</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="C82">
-        <v>6.739999771118164</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="D82">
-        <v>7.199999809265137</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="E82">
-        <v>7.199999809265137</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="F82">
-        <v>24345400</v>
+        <v>18939100</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>7.519999980926514</v>
+        <v>6.650000095367432</v>
       </c>
       <c r="B83">
-        <v>7.829999923706055</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="C83">
-        <v>7.420000076293945</v>
+        <v>6.25</v>
       </c>
       <c r="D83">
-        <v>7.550000190734863</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="E83">
-        <v>7.550000190734863</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="F83">
-        <v>20545500</v>
+        <v>28814000</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>7.519999980926514</v>
+        <v>6.260000228881836</v>
       </c>
       <c r="B84">
-        <v>7.789999961853027</v>
+        <v>6.650000095367432</v>
       </c>
       <c r="C84">
-        <v>7.300000190734863</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="D84">
-        <v>7.610000133514404</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="E84">
-        <v>7.610000133514404</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="F84">
-        <v>14039600</v>
+        <v>23657400</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>7.5</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="B85">
-        <v>7.670000076293945</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="C85">
-        <v>6.96999979019165</v>
+        <v>6.190000057220459</v>
       </c>
       <c r="D85">
-        <v>7.010000228881836</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="E85">
-        <v>7.010000228881836</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="F85">
-        <v>19226400</v>
+        <v>24586500</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>7.070000171661377</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B86">
-        <v>7.25</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="C86">
-        <v>6.800000190734863</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="D86">
-        <v>6.929999828338623</v>
+        <v>6.309999942779541</v>
       </c>
       <c r="E86">
-        <v>6.929999828338623</v>
+        <v>6.309999942779541</v>
       </c>
       <c r="F86">
-        <v>17697500</v>
+        <v>27393100</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>6.900000095367432</v>
+        <v>6</v>
       </c>
       <c r="B87">
-        <v>7.110000133514404</v>
+        <v>6.179999828338623</v>
       </c>
       <c r="C87">
-        <v>6.670000076293945</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="D87">
-        <v>6.889999866485596</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="E87">
-        <v>6.889999866485596</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="F87">
-        <v>18939100</v>
+        <v>16874500</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>6.650000095367432</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="B88">
-        <v>6.699999809265137</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="C88">
-        <v>6.25</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="D88">
-        <v>6.329999923706055</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="E88">
-        <v>6.329999923706055</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="F88">
-        <v>28814000</v>
+        <v>16683300</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>6.260000228881836</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="B89">
-        <v>6.650000095367432</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="C89">
-        <v>6.079999923706055</v>
+        <v>6.25</v>
       </c>
       <c r="D89">
-        <v>6.53000020980835</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="E89">
-        <v>6.53000020980835</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="F89">
-        <v>23657400</v>
+        <v>13093000</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>6.730000019073486</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="B90">
-        <v>6.800000190734863</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="C90">
-        <v>6.190000057220459</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="D90">
-        <v>6.269999980926514</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="E90">
-        <v>6.269999980926514</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="F90">
-        <v>24586500</v>
+        <v>14842900</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>6.150000095367432</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="B91">
-        <v>6.480000019073486</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="C91">
-        <v>5.920000076293945</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="D91">
-        <v>6.309999942779541</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="E91">
-        <v>6.309999942779541</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="F91">
-        <v>27393100</v>
+        <v>34336500</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>6</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="B92">
-        <v>6.179999828338623</v>
+        <v>6.25</v>
       </c>
       <c r="C92">
-        <v>5.909999847412109</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="D92">
-        <v>6.050000190734863</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="E92">
-        <v>6.050000190734863</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="F92">
-        <v>16874500</v>
+        <v>28962000</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>6.099999904632568</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="B93">
-        <v>6.46999979019165</v>
+        <v>5.300000190734863</v>
       </c>
       <c r="C93">
-        <v>6.090000152587891</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="D93">
-        <v>6.409999847412109</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="E93">
-        <v>6.409999847412109</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="F93">
-        <v>16683300</v>
+        <v>67673000</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>6.320000171661377</v>
+        <v>5.059999942779541</v>
       </c>
       <c r="B94">
-        <v>6.53000020980835</v>
+        <v>5.5</v>
       </c>
       <c r="C94">
-        <v>6.25</v>
+        <v>5.050000190734863</v>
       </c>
       <c r="D94">
-        <v>6.400000095367432</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="E94">
-        <v>6.400000095367432</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="F94">
-        <v>13093000</v>
+        <v>30972900</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>6.440000057220459</v>
+        <v>5.289999961853027</v>
       </c>
       <c r="B95">
-        <v>6.550000190734863</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="C95">
-        <v>6.199999809265137</v>
+        <v>5.190000057220459</v>
       </c>
       <c r="D95">
-        <v>6.460000038146973</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="E95">
-        <v>6.460000038146973</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="F95">
-        <v>14842900</v>
+        <v>21596300</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>6.860000133514404</v>
+        <v>5.349999904632568</v>
       </c>
       <c r="B96">
-        <v>6.949999809265137</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="C96">
-        <v>6.239999771118164</v>
+        <v>5.25</v>
       </c>
       <c r="D96">
-        <v>6.300000190734863</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="E96">
-        <v>6.300000190734863</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="F96">
-        <v>34336500</v>
+        <v>31252400</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>6.139999866485596</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="B97">
-        <v>6.25</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="C97">
-        <v>5.840000152587891</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="D97">
-        <v>5.869999885559082</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="E97">
-        <v>5.869999885559082</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="F97">
-        <v>28962000</v>
+        <v>27299300</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>5.130000114440918</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="B98">
-        <v>5.300000190734863</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="C98">
-        <v>4.829999923706055</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="D98">
-        <v>5.110000133514404</v>
+        <v>5.320000171661377</v>
       </c>
       <c r="E98">
-        <v>5.110000133514404</v>
+        <v>5.320000171661377</v>
       </c>
       <c r="F98">
-        <v>67673000</v>
+        <v>22666300</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>5.059999942779541</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="B99">
-        <v>5.5</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="C99">
-        <v>5.050000190734863</v>
+        <v>4.989999771118164</v>
       </c>
       <c r="D99">
-        <v>5.329999923706055</v>
+        <v>5.139999866485596</v>
       </c>
       <c r="E99">
-        <v>5.329999923706055</v>
+        <v>5.139999866485596</v>
       </c>
       <c r="F99">
-        <v>30972900</v>
+        <v>21000100</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>5.289999961853027</v>
+        <v>5.190000057220459</v>
       </c>
       <c r="B100">
-        <v>5.510000228881836</v>
+        <v>5.360000133514404</v>
       </c>
       <c r="C100">
-        <v>5.190000057220459</v>
+        <v>5.059999942779541</v>
       </c>
       <c r="D100">
-        <v>5.199999809265137</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="E100">
-        <v>5.199999809265137</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="F100">
-        <v>21596300</v>
+        <v>18317500</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>5.349999904632568</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="B101">
-        <v>5.889999866485596</v>
+        <v>5.050000190734863</v>
       </c>
       <c r="C101">
-        <v>5.25</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="D101">
-        <v>5.78000020980835</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="E101">
-        <v>5.78000020980835</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="F101">
-        <v>31252400</v>
+        <v>22386900</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>5.800000190734863</v>
+        <v>5</v>
       </c>
       <c r="B102">
-        <v>5.889999866485596</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="C102">
-        <v>5.46999979019165</v>
+        <v>4.920000076293945</v>
       </c>
       <c r="D102">
-        <v>5.880000114440918</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="E102">
-        <v>5.880000114440918</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="F102">
-        <v>27299300</v>
+        <v>21182500</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>5.760000228881836</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="B103">
-        <v>5.849999904632568</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="C103">
-        <v>5.260000228881836</v>
+        <v>5.010000228881836</v>
       </c>
       <c r="D103">
-        <v>5.320000171661377</v>
+        <v>5.070000171661377</v>
       </c>
       <c r="E103">
-        <v>5.320000171661377</v>
+        <v>5.070000171661377</v>
       </c>
       <c r="F103">
-        <v>22666300</v>
+        <v>17923500</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>5.28000020980835</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="B104">
-        <v>5.409999847412109</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="C104">
-        <v>4.989999771118164</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="D104">
-        <v>5.139999866485596</v>
+        <v>4.869999885559082</v>
       </c>
       <c r="E104">
-        <v>5.139999866485596</v>
+        <v>4.869999885559082</v>
       </c>
       <c r="F104">
-        <v>21000100</v>
+        <v>20043500</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>5.190000057220459</v>
+        <v>4.789999961853027</v>
       </c>
       <c r="B105">
-        <v>5.360000133514404</v>
+        <v>4.960000038146973</v>
       </c>
       <c r="C105">
-        <v>5.059999942779541</v>
+        <v>4.679999828338623</v>
       </c>
       <c r="D105">
-        <v>5.099999904632568</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="E105">
-        <v>5.099999904632568</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="F105">
-        <v>18317500</v>
+        <v>20219000</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>4.96999979019165</v>
+        <v>4.760000228881836</v>
       </c>
       <c r="B106">
-        <v>5.050000190734863</v>
+        <v>4.820000171661377</v>
       </c>
       <c r="C106">
-        <v>4.800000190734863</v>
+        <v>4.559999942779541</v>
       </c>
       <c r="D106">
-        <v>4.96999979019165</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="E106">
-        <v>4.96999979019165</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="F106">
-        <v>22386900</v>
+        <v>20967500</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>5</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="B107">
-        <v>5.340000152587891</v>
+        <v>4.650000095367432</v>
       </c>
       <c r="C107">
-        <v>4.920000076293945</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="D107">
-        <v>5.179999828338623</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="E107">
-        <v>5.179999828338623</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="F107">
-        <v>21182500</v>
+        <v>29011200</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>5.28000020980835</v>
+        <v>4.389999866485596</v>
       </c>
       <c r="B108">
-        <v>5.329999923706055</v>
+        <v>4.510000228881836</v>
       </c>
       <c r="C108">
-        <v>5.010000228881836</v>
+        <v>4.110000133514404</v>
       </c>
       <c r="D108">
-        <v>5.070000171661377</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="E108">
-        <v>5.070000171661377</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="F108">
-        <v>17923500</v>
+        <v>30977700</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>5.130000114440918</v>
+        <v>3.990000009536743</v>
       </c>
       <c r="B109">
-        <v>5.199999809265137</v>
+        <v>4.170000076293945</v>
       </c>
       <c r="C109">
-        <v>4.860000133514404</v>
+        <v>3.849999904632568</v>
       </c>
       <c r="D109">
-        <v>4.869999885559082</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="E109">
-        <v>4.869999885559082</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="F109">
-        <v>20043500</v>
+        <v>44178500</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>4.789999961853027</v>
+        <v>3.730000019073486</v>
       </c>
       <c r="B110">
-        <v>4.960000038146973</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="C110">
-        <v>4.679999828338623</v>
+        <v>3.440000057220459</v>
       </c>
       <c r="D110">
-        <v>4.829999923706055</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="E110">
-        <v>4.829999923706055</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="F110">
-        <v>20219000</v>
+        <v>37138500</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>4.760000228881836</v>
+        <v>3.75</v>
       </c>
       <c r="B111">
-        <v>4.820000171661377</v>
+        <v>3.970000028610229</v>
       </c>
       <c r="C111">
-        <v>4.559999942779541</v>
+        <v>3.720000028610229</v>
       </c>
       <c r="D111">
-        <v>4.579999923706055</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="E111">
-        <v>4.579999923706055</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="F111">
-        <v>20967500</v>
+        <v>17530900</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>4.579999923706055</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="B112">
-        <v>4.650000095367432</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="C112">
-        <v>4.28000020980835</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="D112">
-        <v>4.300000190734863</v>
+        <v>3.859999895095825</v>
       </c>
       <c r="E112">
-        <v>4.300000190734863</v>
+        <v>3.859999895095825</v>
       </c>
       <c r="F112">
-        <v>29011200</v>
+        <v>28075400</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>4.389999866485596</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="B113">
-        <v>4.510000228881836</v>
+        <v>3.980000019073486</v>
       </c>
       <c r="C113">
-        <v>4.110000133514404</v>
+        <v>3.5</v>
       </c>
       <c r="D113">
-        <v>4.130000114440918</v>
+        <v>3.559999942779541</v>
       </c>
       <c r="E113">
-        <v>4.130000114440918</v>
+        <v>3.559999942779541</v>
       </c>
       <c r="F113">
-        <v>30977700</v>
+        <v>28877100</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>3.990000009536743</v>
+        <v>3.579999923706055</v>
       </c>
       <c r="B114">
-        <v>4.170000076293945</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="C114">
-        <v>3.849999904632568</v>
+        <v>3.400000095367432</v>
       </c>
       <c r="D114">
-        <v>3.900000095367432</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="E114">
-        <v>3.900000095367432</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="F114">
-        <v>44178500</v>
+        <v>21240900</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>3.730000019073486</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="B115">
-        <v>3.920000076293945</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="C115">
-        <v>3.440000057220459</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="D115">
-        <v>3.920000076293945</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="E115">
-        <v>3.920000076293945</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="F115">
-        <v>37138500</v>
+        <v>27876100</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>3.75</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="B116">
-        <v>3.970000028610229</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="C116">
-        <v>3.720000028610229</v>
+        <v>4.199999809265137</v>
       </c>
       <c r="D116">
-        <v>3.869999885559082</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="E116">
-        <v>3.869999885559082</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="F116">
-        <v>17530900</v>
+        <v>27707300</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
+        <v>4.510000228881836</v>
+      </c>
+      <c r="B117">
+        <v>4.519999980926514</v>
+      </c>
+      <c r="C117">
         <v>4.139999866485596</v>
       </c>
-      <c r="B117">
-        <v>4.210000038146973</v>
-      </c>
-      <c r="C117">
-        <v>3.799999952316284</v>
-      </c>
       <c r="D117">
-        <v>3.859999895095825</v>
+        <v>4.190000057220459</v>
       </c>
       <c r="E117">
-        <v>3.859999895095825</v>
+        <v>4.190000057220459</v>
       </c>
       <c r="F117">
-        <v>28075400</v>
+        <v>22492300</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>3.910000085830688</v>
+        <v>4.010000228881836</v>
       </c>
       <c r="B118">
-        <v>3.980000019073486</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="C118">
-        <v>3.5</v>
+        <v>3.990000009536743</v>
       </c>
       <c r="D118">
-        <v>3.559999942779541</v>
+        <v>4.070000171661377</v>
       </c>
       <c r="E118">
-        <v>3.559999942779541</v>
+        <v>4.070000171661377</v>
       </c>
       <c r="F118">
-        <v>28877100</v>
+        <v>21628800</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>3.579999923706055</v>
+        <v>4.110000133514404</v>
       </c>
       <c r="B119">
-        <v>3.700000047683716</v>
+        <v>4.380000114440918</v>
       </c>
       <c r="C119">
-        <v>3.400000095367432</v>
+        <v>4.050000190734863</v>
       </c>
       <c r="D119">
-        <v>3.680000066757202</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="E119">
-        <v>3.680000066757202</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="F119">
-        <v>21240900</v>
+        <v>15721500</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>3.680000066757202</v>
+        <v>4.21999979019165</v>
       </c>
       <c r="B120">
-        <v>4.260000228881836</v>
+        <v>4.550000190734863</v>
       </c>
       <c r="C120">
-        <v>3.680000066757202</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="D120">
-        <v>4.239999771118164</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="E120">
-        <v>4.239999771118164</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="F120">
-        <v>27876100</v>
+        <v>22408900</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2800,179 +2800,179 @@
         <v>4.329999923706055</v>
       </c>
       <c r="B121">
-        <v>4.599999904632568</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="C121">
-        <v>4.199999809265137</v>
+        <v>4.289999961853027</v>
       </c>
       <c r="D121">
-        <v>4.460000038146973</v>
+        <v>4.519999980926514</v>
       </c>
       <c r="E121">
-        <v>4.460000038146973</v>
+        <v>4.519999980926514</v>
       </c>
       <c r="F121">
-        <v>27707300</v>
+        <v>15042900</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>4.510000228881836</v>
+        <v>4.630000114440918</v>
       </c>
       <c r="B122">
-        <v>4.519999980926514</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="C122">
-        <v>4.139999866485596</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="D122">
-        <v>4.190000057220459</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="E122">
-        <v>4.190000057220459</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="F122">
-        <v>22492300</v>
+        <v>18484200</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>4.010000228881836</v>
+        <v>4.690000057220459</v>
       </c>
       <c r="B123">
-        <v>4.28000020980835</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="C123">
-        <v>3.990000009536743</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="D123">
-        <v>4.070000171661377</v>
+        <v>4.820000171661377</v>
       </c>
       <c r="E123">
-        <v>4.070000171661377</v>
+        <v>4.820000171661377</v>
       </c>
       <c r="F123">
-        <v>21628800</v>
+        <v>23555600</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>4.110000133514404</v>
+        <v>4.840000152587891</v>
       </c>
       <c r="B124">
-        <v>4.380000114440918</v>
+        <v>5.039999961853027</v>
       </c>
       <c r="C124">
-        <v>4.050000190734863</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="D124">
-        <v>4.28000020980835</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="E124">
-        <v>4.28000020980835</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="F124">
-        <v>15721500</v>
+        <v>20516500</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>4.21999979019165</v>
+        <v>4.53000020980835</v>
       </c>
       <c r="B125">
-        <v>4.550000190734863</v>
+        <v>4.840000152587891</v>
       </c>
       <c r="C125">
-        <v>4.210000038146973</v>
+        <v>4.53000020980835</v>
       </c>
       <c r="D125">
-        <v>4.369999885559082</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="E125">
-        <v>4.369999885559082</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="F125">
-        <v>22408900</v>
+        <v>15466900</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>4.329999923706055</v>
+        <v>4.75</v>
       </c>
       <c r="B126">
-        <v>4.539999961853027</v>
+        <v>5.519999980926514</v>
       </c>
       <c r="C126">
-        <v>4.289999961853027</v>
+        <v>4.71999979019165</v>
       </c>
       <c r="D126">
-        <v>4.519999980926514</v>
+        <v>5.489999771118164</v>
       </c>
       <c r="E126">
-        <v>4.519999980926514</v>
+        <v>5.489999771118164</v>
       </c>
       <c r="F126">
-        <v>15042900</v>
+        <v>34067200</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>4.630000114440918</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="B127">
-        <v>4.829999923706055</v>
+        <v>5.570000171661377</v>
       </c>
       <c r="C127">
-        <v>4.539999961853027</v>
+        <v>5.210000038146973</v>
       </c>
       <c r="D127">
-        <v>4.809999942779541</v>
+        <v>5.5</v>
       </c>
       <c r="E127">
-        <v>4.809999942779541</v>
+        <v>5.5</v>
       </c>
       <c r="F127">
-        <v>18484200</v>
+        <v>24071600</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>4.690000057220459</v>
+        <v>5.360000133514404</v>
       </c>
       <c r="B128">
-        <v>5.099999904632568</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="C128">
-        <v>4.590000152587891</v>
+        <v>5.210000038146973</v>
       </c>
       <c r="D128">
-        <v>4.820000171661377</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="E128">
-        <v>4.820000171661377</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="F128">
-        <v>23555600</v>
+        <v>18684700</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>4.840000152587891</v>
+        <v>5.25</v>
       </c>
       <c r="B129">
-        <v>5.039999961853027</v>
+        <v>5.25</v>
       </c>
       <c r="C129">
-        <v>4.579999923706055</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="D129">
-        <v>4.639999866485596</v>
+        <v>5.010000228881836</v>
       </c>
       <c r="E129">
-        <v>4.639999866485596</v>
+        <v>5.010000228881836</v>
       </c>
       <c r="F129">
-        <v>20516500</v>
+        <v>18186900</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/FCEL/HighLow.xlsx
+++ b/Stocks/FCEL/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,1173 +417,1173 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>6</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B2">
-        <v>6.099999904632568</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="C2">
-        <v>5.679999828338623</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="D2">
-        <v>5.71999979019165</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E2">
-        <v>5.71999979019165</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F2">
-        <v>13918700</v>
+        <v>13388500</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>5.71999979019165</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B3">
-        <v>5.920000076293945</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="C3">
-        <v>5.690000057220459</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="D3">
-        <v>5.78000020980835</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="E3">
-        <v>5.78000020980835</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="F3">
-        <v>11070600</v>
+        <v>9814900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>5.900000095367432</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="B4">
-        <v>6.199999809265137</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="C4">
-        <v>5.809999942779541</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D4">
-        <v>6.139999866485596</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="E4">
-        <v>6.139999866485596</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="F4">
-        <v>13515900</v>
+        <v>14003400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>6.159999847412109</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B5">
-        <v>6.389999866485596</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="C5">
-        <v>6.019999980926514</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="D5">
-        <v>6.269999980926514</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="E5">
-        <v>6.269999980926514</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="F5">
-        <v>15727100</v>
+        <v>10318100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>6.269999980926514</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="B6">
-        <v>6.46999979019165</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="C6">
-        <v>6.119999885559082</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="D6">
-        <v>6.230000019073486</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="E6">
-        <v>6.230000019073486</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="F6">
-        <v>11296100</v>
+        <v>12659900</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>6.159999847412109</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="B7">
-        <v>6.53000020980835</v>
+        <v>6.590000152587891</v>
       </c>
       <c r="C7">
-        <v>6.03000020980835</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="D7">
-        <v>6.119999885559082</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="E7">
-        <v>6.119999885559082</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="F7">
-        <v>13388500</v>
+        <v>12398000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>6.159999847412109</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="B8">
-        <v>6.369999885559082</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="C8">
-        <v>6.090000152587891</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="D8">
-        <v>6.28000020980835</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E8">
-        <v>6.28000020980835</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F8">
-        <v>9814900</v>
+        <v>13980600</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>6.300000190734863</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B9">
         <v>6.329999923706055</v>
       </c>
       <c r="C9">
-        <v>5.940000057220459</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="D9">
-        <v>6.210000038146973</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>6.210000038146973</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>14003400</v>
+        <v>15292000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>6.150000095367432</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="B10">
-        <v>6.380000114440918</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="C10">
-        <v>6.130000114440918</v>
+        <v>5.690000057220459</v>
       </c>
       <c r="D10">
-        <v>6.239999771118164</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E10">
-        <v>6.239999771118164</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F10">
-        <v>10318100</v>
+        <v>17939600</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>6.210000038146973</v>
+        <v>5.739999771118164</v>
       </c>
       <c r="B11">
-        <v>6.53000020980835</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="C11">
-        <v>6.199999809265137</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="D11">
-        <v>6.369999885559082</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="E11">
-        <v>6.369999885559082</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="F11">
-        <v>12659900</v>
+        <v>14641800</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>6.440000057220459</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="B12">
-        <v>6.590000152587891</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="C12">
-        <v>6.320000171661377</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="D12">
-        <v>6.420000076293945</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="E12">
-        <v>6.420000076293945</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="F12">
-        <v>12398000</v>
+        <v>19485900</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>6.420000076293945</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="B13">
-        <v>6.440000057220459</v>
+        <v>5.75</v>
       </c>
       <c r="C13">
-        <v>6.059999942779541</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="D13">
-        <v>6.119999885559082</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="E13">
-        <v>6.119999885559082</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="F13">
-        <v>13980600</v>
+        <v>22075100</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>6.150000095367432</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="B14">
-        <v>6.329999923706055</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="C14">
-        <v>5.989999771118164</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F14">
-        <v>15292000</v>
+        <v>214559900</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>6.019999980926514</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="B15">
-        <v>6.059999942779541</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="C15">
-        <v>5.690000057220459</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D15">
-        <v>5.71999979019165</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E15">
-        <v>5.71999979019165</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F15">
-        <v>17939600</v>
+        <v>59485900</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>5.739999771118164</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B16">
-        <v>6.039999961853027</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="C16">
-        <v>5.699999809265137</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>5.820000171661377</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="E16">
-        <v>5.820000171661377</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="F16">
-        <v>14641800</v>
+        <v>20369000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>5.96999979019165</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="B17">
-        <v>5.96999979019165</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="C17">
-        <v>5.550000190734863</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="D17">
-        <v>5.579999923706055</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="E17">
-        <v>5.579999923706055</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="F17">
-        <v>19485900</v>
+        <v>31480400</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>5.619999885559082</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="B18">
-        <v>5.75</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="C18">
-        <v>5.340000152587891</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="D18">
-        <v>5.619999885559082</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E18">
-        <v>5.619999885559082</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F18">
-        <v>22075100</v>
+        <v>23518100</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>6.199999809265137</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="B19">
-        <v>7.539999961853027</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="C19">
-        <v>6.119999885559082</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="D19">
-        <v>6.440000057220459</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>6.440000057220459</v>
+        <v>6</v>
       </c>
       <c r="F19">
-        <v>214559900</v>
+        <v>18779700</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>6.480000019073486</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="B20">
-        <v>6.610000133514404</v>
+        <v>6.75</v>
       </c>
       <c r="C20">
-        <v>5.889999866485596</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="D20">
-        <v>6.139999866485596</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="E20">
-        <v>6.139999866485596</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="F20">
-        <v>59485900</v>
+        <v>34335200</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>6.070000171661377</v>
+        <v>6.760000228881836</v>
       </c>
       <c r="B21">
-        <v>6.289999961853027</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D21">
-        <v>6.150000095367432</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="E21">
-        <v>6.150000095367432</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="F21">
-        <v>20369000</v>
+        <v>39926500</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>6.170000076293945</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B22">
-        <v>6.550000190734863</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="C22">
-        <v>6.130000114440918</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="D22">
-        <v>6.550000190734863</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="E22">
-        <v>6.550000190734863</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="F22">
-        <v>31480400</v>
+        <v>20537600</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>6.239999771118164</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B23">
-        <v>6.380000114440918</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C23">
-        <v>5.96999979019165</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="D23">
-        <v>6.119999885559082</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="E23">
-        <v>6.119999885559082</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="F23">
-        <v>23518100</v>
+        <v>32138700</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>6.269999980926514</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="B24">
-        <v>6.300000190734863</v>
+        <v>7.860000133514404</v>
       </c>
       <c r="C24">
-        <v>5.949999809265137</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="F24">
-        <v>18779700</v>
+        <v>27209500</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>6.039999961853027</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="B25">
-        <v>6.75</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="C25">
-        <v>6.010000228881836</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D25">
-        <v>6.659999847412109</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="E25">
-        <v>6.659999847412109</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="F25">
-        <v>34335200</v>
+        <v>25907200</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>6.760000228881836</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B26">
-        <v>7.309999942779541</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C26">
-        <v>6.610000133514404</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D26">
-        <v>7.239999771118164</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="E26">
-        <v>7.239999771118164</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="F26">
-        <v>39926500</v>
+        <v>15831500</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>7.050000190734863</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="B27">
-        <v>7.239999771118164</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="C27">
-        <v>6.949999809265137</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="D27">
-        <v>6.96999979019165</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="E27">
-        <v>6.96999979019165</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="F27">
-        <v>20537600</v>
+        <v>16087800</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>7.059999942779541</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="B28">
-        <v>7.789999961853027</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="C28">
-        <v>7.03000020980835</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D28">
-        <v>7.650000095367432</v>
+        <v>6</v>
       </c>
       <c r="E28">
-        <v>7.650000095367432</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>32138700</v>
+        <v>19212300</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>7.480000019073486</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="B29">
-        <v>7.860000133514404</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="C29">
-        <v>7.170000076293945</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="D29">
-        <v>7.190000057220459</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="E29">
-        <v>7.190000057220459</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="F29">
-        <v>27209500</v>
+        <v>16756400</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>7.320000171661377</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="B30">
-        <v>7.349999904632568</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="C30">
-        <v>6.559999942779541</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="D30">
-        <v>6.570000171661377</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="E30">
-        <v>6.570000171661377</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="F30">
-        <v>25907200</v>
+        <v>14496300</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>6.619999885559082</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="B31">
-        <v>6.840000152587891</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="C31">
-        <v>6.559999942779541</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="D31">
-        <v>6.690000057220459</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="E31">
-        <v>6.690000057220459</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="F31">
-        <v>15831500</v>
+        <v>17549900</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>6.739999771118164</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="B32">
-        <v>6.809999942779541</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="C32">
-        <v>6.369999885559082</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="D32">
-        <v>6.429999828338623</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="E32">
-        <v>6.429999828338623</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="F32">
-        <v>16087800</v>
+        <v>13090500</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
+        <v>6.369999885559082</v>
+      </c>
+      <c r="B33">
+        <v>6.96999979019165</v>
+      </c>
+      <c r="C33">
         <v>6.349999904632568</v>
       </c>
-      <c r="B33">
-        <v>6.369999885559082</v>
-      </c>
-      <c r="C33">
-        <v>5.940000057220459</v>
-      </c>
       <c r="D33">
-        <v>6</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="F33">
-        <v>19212300</v>
+        <v>19742200</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>6.099999904632568</v>
+        <v>6.75</v>
       </c>
       <c r="B34">
-        <v>6.28000020980835</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="C34">
-        <v>5.980000019073486</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="D34">
-        <v>6.039999961853027</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E34">
-        <v>6.039999961853027</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F34">
-        <v>16756400</v>
+        <v>18894600</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>5.900000095367432</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="B35">
-        <v>6.199999809265137</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C35">
-        <v>5.860000133514404</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="D35">
-        <v>6.070000171661377</v>
+        <v>7.25</v>
       </c>
       <c r="E35">
-        <v>6.070000171661377</v>
+        <v>7.25</v>
       </c>
       <c r="F35">
-        <v>14496300</v>
+        <v>29360600</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>6.119999885559082</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="B36">
-        <v>6.460000038146973</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="C36">
-        <v>6.03000020980835</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="D36">
-        <v>6.360000133514404</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="E36">
-        <v>6.360000133514404</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="F36">
-        <v>17549900</v>
+        <v>39061800</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>6.400000095367432</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="B37">
-        <v>6.599999904632568</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="C37">
-        <v>6.340000152587891</v>
+        <v>7.130000114440918</v>
       </c>
       <c r="D37">
-        <v>6.389999866485596</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E37">
-        <v>6.389999866485596</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F37">
-        <v>13090500</v>
+        <v>45530600</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>6.369999885559082</v>
+        <v>7.690000057220459</v>
       </c>
       <c r="B38">
-        <v>6.96999979019165</v>
+        <v>8.930000305175781</v>
       </c>
       <c r="C38">
-        <v>6.349999904632568</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="D38">
-        <v>6.710000038146973</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="E38">
-        <v>6.710000038146973</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="F38">
-        <v>19742200</v>
+        <v>158157900</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>6.75</v>
+        <v>8.649999618530273</v>
       </c>
       <c r="B39">
-        <v>7.039999961853027</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="C39">
-        <v>6.710000038146973</v>
+        <v>8.029999732971191</v>
       </c>
       <c r="D39">
-        <v>6.920000076293945</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="E39">
-        <v>6.920000076293945</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="F39">
-        <v>18894600</v>
+        <v>133341000</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>7.199999809265137</v>
+        <v>8.449999809265137</v>
       </c>
       <c r="B40">
-        <v>7.309999942779541</v>
+        <v>8.659999847412109</v>
       </c>
       <c r="C40">
-        <v>6.929999828338623</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="D40">
-        <v>7.25</v>
+        <v>8.130000114440918</v>
       </c>
       <c r="E40">
-        <v>7.25</v>
+        <v>8.130000114440918</v>
       </c>
       <c r="F40">
-        <v>29360600</v>
+        <v>53993700</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>7.380000114440918</v>
+        <v>8.170000076293945</v>
       </c>
       <c r="B41">
-        <v>7.440000057220459</v>
+        <v>8.789999961853027</v>
       </c>
       <c r="C41">
-        <v>6.869999885559082</v>
+        <v>8.039999961853027</v>
       </c>
       <c r="D41">
-        <v>7.21999979019165</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="E41">
-        <v>7.21999979019165</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="F41">
-        <v>39061800</v>
+        <v>63505200</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>7.260000228881836</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="B42">
-        <v>7.849999904632568</v>
+        <v>8.189999580383301</v>
       </c>
       <c r="C42">
-        <v>7.130000114440918</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="D42">
-        <v>7.389999866485596</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E42">
-        <v>7.389999866485596</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F42">
-        <v>45530600</v>
+        <v>45161200</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>7.690000057220459</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="B43">
-        <v>8.930000305175781</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C43">
-        <v>7.670000076293945</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="D43">
-        <v>8.739999771118164</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="E43">
-        <v>8.739999771118164</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="F43">
-        <v>158157900</v>
+        <v>32354000</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>8.649999618530273</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="B44">
-        <v>8.899999618530273</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C44">
-        <v>8.029999732971191</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="D44">
-        <v>8.590000152587891</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="E44">
-        <v>8.590000152587891</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="F44">
-        <v>133341000</v>
+        <v>27876700</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>8.449999809265137</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="B45">
-        <v>8.659999847412109</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="C45">
-        <v>8.050000190734863</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="D45">
-        <v>8.130000114440918</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>8.130000114440918</v>
+        <v>7</v>
       </c>
       <c r="F45">
-        <v>53993700</v>
+        <v>24447100</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>8.170000076293945</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B46">
-        <v>8.789999961853027</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="C46">
-        <v>8.039999961853027</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D46">
-        <v>8.109999656677246</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="E46">
-        <v>8.109999656677246</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="F46">
-        <v>63505200</v>
+        <v>52828600</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>8.050000190734863</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="B47">
-        <v>8.189999580383301</v>
+        <v>8.060000419616699</v>
       </c>
       <c r="C47">
-        <v>7.210000038146973</v>
+        <v>7.5</v>
       </c>
       <c r="D47">
-        <v>7.289999961853027</v>
+        <v>7.989999771118164</v>
       </c>
       <c r="E47">
-        <v>7.289999961853027</v>
+        <v>7.989999771118164</v>
       </c>
       <c r="F47">
-        <v>45161200</v>
+        <v>33618200</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>7.420000076293945</v>
+        <v>8.279999732971191</v>
       </c>
       <c r="B48">
-        <v>7.559999942779541</v>
+        <v>9.649999618530273</v>
       </c>
       <c r="C48">
-        <v>7.159999847412109</v>
+        <v>8.25</v>
       </c>
       <c r="D48">
-        <v>7.539999961853027</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="E48">
-        <v>7.539999961853027</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="F48">
-        <v>32354000</v>
+        <v>81021500</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>7.590000152587891</v>
+        <v>9.899999618530273</v>
       </c>
       <c r="B49">
-        <v>7.789999961853027</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="C49">
-        <v>7.110000133514404</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="D49">
-        <v>7.170000076293945</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="E49">
-        <v>7.170000076293945</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="F49">
-        <v>27876700</v>
+        <v>82411400</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>7.239999771118164</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B50">
-        <v>7.539999961853027</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="C50">
-        <v>6.960000038146973</v>
+        <v>8.779999732971191</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>9.479999542236328</v>
       </c>
       <c r="E50">
-        <v>7</v>
+        <v>9.479999542236328</v>
       </c>
       <c r="F50">
-        <v>24447100</v>
+        <v>33335700</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>7.019999980926514</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="B51">
-        <v>7.940000057220459</v>
+        <v>9.630000114440918</v>
       </c>
       <c r="C51">
-        <v>7.010000228881836</v>
+        <v>9.119999885559082</v>
       </c>
       <c r="D51">
-        <v>7.570000171661377</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="E51">
-        <v>7.570000171661377</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="F51">
-        <v>52828600</v>
+        <v>28500800</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>7.559999942779541</v>
+        <v>9.130000114440918</v>
       </c>
       <c r="B52">
-        <v>8.060000419616699</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="C52">
-        <v>7.5</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="D52">
-        <v>7.989999771118164</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="E52">
-        <v>7.989999771118164</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="F52">
-        <v>33618200</v>
+        <v>23868500</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>8.279999732971191</v>
+        <v>9.560000419616699</v>
       </c>
       <c r="B53">
-        <v>9.649999618530273</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="C53">
-        <v>8.25</v>
+        <v>9.449999809265137</v>
       </c>
       <c r="D53">
-        <v>9.529999732971191</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="E53">
-        <v>9.529999732971191</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="F53">
-        <v>81021500</v>
+        <v>88991800</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>9.899999618530273</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="B54">
-        <v>9.989999771118164</v>
+        <v>11</v>
       </c>
       <c r="C54">
-        <v>8.970000267028809</v>
+        <v>9.850000381469727</v>
       </c>
       <c r="D54">
-        <v>9.430000305175781</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="E54">
-        <v>9.430000305175781</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="F54">
-        <v>82411400</v>
+        <v>46187600</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>8.989999771118164</v>
+        <v>10.25</v>
       </c>
       <c r="B55">
-        <v>9.550000190734863</v>
+        <v>10.96000003814697</v>
       </c>
       <c r="C55">
-        <v>8.779999732971191</v>
+        <v>9.960000038146973</v>
       </c>
       <c r="D55">
-        <v>9.479999542236328</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="E55">
-        <v>9.479999542236328</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F55">
-        <v>33335700</v>
+        <v>35711100</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>9.609999656677246</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="B56">
-        <v>9.630000114440918</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="C56">
-        <v>9.119999885559082</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="D56">
-        <v>9.279999732971191</v>
+        <v>11.11999988555908</v>
       </c>
       <c r="E56">
-        <v>9.279999732971191</v>
+        <v>11.11999988555908</v>
       </c>
       <c r="F56">
-        <v>28500800</v>
+        <v>45159100</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>9.130000114440918</v>
+        <v>11.25</v>
       </c>
       <c r="B57">
-        <v>9.279999732971191</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="C57">
-        <v>8.680000305175781</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="D57">
-        <v>8.949999809265137</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="E57">
-        <v>8.949999809265137</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="F57">
-        <v>23868500</v>
+        <v>34855600</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>9.560000419616699</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="B58">
-        <v>11.22000026702881</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="C58">
-        <v>9.449999809265137</v>
+        <v>10.51000022888184</v>
       </c>
       <c r="D58">
-        <v>10.8100004196167</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="E58">
-        <v>10.8100004196167</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="F58">
-        <v>88991800</v>
+        <v>31722900</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>10.93000030517578</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="C59">
-        <v>9.850000381469727</v>
+        <v>9.909999847412109</v>
       </c>
       <c r="D59">
-        <v>10.82999992370605</v>
+        <v>10.59000015258789</v>
       </c>
       <c r="E59">
-        <v>10.82999992370605</v>
+        <v>10.59000015258789</v>
       </c>
       <c r="F59">
-        <v>46187600</v>
+        <v>29685800</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>10.25</v>
+        <v>10.32999992370605</v>
       </c>
       <c r="B60">
-        <v>10.96000003814697</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="C60">
-        <v>9.960000038146973</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="D60">
         <v>10.23999977111816</v>
@@ -1592,1107 +1592,1107 @@
         <v>10.23999977111816</v>
       </c>
       <c r="F60">
-        <v>35711100</v>
+        <v>23815200</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>10.42000007629395</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="B61">
-        <v>11.46000003814697</v>
+        <v>10.26000022888184</v>
       </c>
       <c r="C61">
-        <v>10.10000038146973</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="D61">
-        <v>11.11999988555908</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="E61">
-        <v>11.11999988555908</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="F61">
-        <v>45159100</v>
+        <v>33549300</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>11.25</v>
+        <v>9.470000267028809</v>
       </c>
       <c r="B62">
-        <v>11.63000011444092</v>
+        <v>10.21000003814697</v>
       </c>
       <c r="C62">
-        <v>10.80000019073486</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="D62">
-        <v>11.22999954223633</v>
+        <v>9.810000419616699</v>
       </c>
       <c r="E62">
-        <v>11.22999954223633</v>
+        <v>9.810000419616699</v>
       </c>
       <c r="F62">
-        <v>34855600</v>
+        <v>24708500</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>11.39999961853027</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="B63">
-        <v>11.53999996185303</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="C63">
-        <v>10.51000022888184</v>
+        <v>9.189999580383301</v>
       </c>
       <c r="D63">
-        <v>10.77000045776367</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="E63">
-        <v>10.77000045776367</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="F63">
-        <v>31722900</v>
+        <v>27188200</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>10.52999973297119</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="B64">
-        <v>10.69999980926514</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="C64">
-        <v>9.909999847412109</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="D64">
-        <v>10.59000015258789</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="E64">
-        <v>10.59000015258789</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="F64">
-        <v>29685800</v>
+        <v>20635300</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>10.32999992370605</v>
+        <v>9.239999771118164</v>
       </c>
       <c r="B65">
-        <v>11.07999992370605</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="C65">
-        <v>10.19999980926514</v>
+        <v>8.869999885559082</v>
       </c>
       <c r="D65">
-        <v>10.23999977111816</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="E65">
-        <v>10.23999977111816</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="F65">
-        <v>23815200</v>
+        <v>16153500</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>10.22000026702881</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B66">
-        <v>10.26000022888184</v>
+        <v>9.310000419616699</v>
       </c>
       <c r="C66">
-        <v>9.149999618530273</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="D66">
-        <v>9.460000038146973</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="E66">
-        <v>9.460000038146973</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="F66">
-        <v>33549300</v>
+        <v>20332600</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>9.470000267028809</v>
+        <v>9.020000457763672</v>
       </c>
       <c r="B67">
-        <v>10.21000003814697</v>
+        <v>9.180000305175781</v>
       </c>
       <c r="C67">
-        <v>9.460000038146973</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="D67">
-        <v>9.810000419616699</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="E67">
-        <v>9.810000419616699</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="F67">
-        <v>24708500</v>
+        <v>18152700</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>10.02999973297119</v>
+        <v>8.779999732971191</v>
       </c>
       <c r="B68">
-        <v>10.1899995803833</v>
+        <v>9.069999694824219</v>
       </c>
       <c r="C68">
-        <v>9.189999580383301</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="D68">
-        <v>9.409999847412109</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="E68">
-        <v>9.409999847412109</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="F68">
-        <v>27188200</v>
+        <v>21312200</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>9.270000457763672</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="B69">
-        <v>9.600000381469727</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>8.949999809265137</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="D69">
-        <v>9.369999885559082</v>
+        <v>7.96999979019165</v>
       </c>
       <c r="E69">
-        <v>9.369999885559082</v>
+        <v>7.96999979019165</v>
       </c>
       <c r="F69">
-        <v>20635300</v>
+        <v>23581900</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>9.239999771118164</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="B70">
-        <v>9.609999656677246</v>
+        <v>8.340000152587891</v>
       </c>
       <c r="C70">
-        <v>8.869999885559082</v>
+        <v>7.769999980926514</v>
       </c>
       <c r="D70">
-        <v>9.529999732971191</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="E70">
-        <v>9.529999732971191</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="F70">
-        <v>16153500</v>
+        <v>21694500</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>8.989999771118164</v>
+        <v>8.159999847412109</v>
       </c>
       <c r="B71">
-        <v>9.310000419616699</v>
+        <v>8.159999847412109</v>
       </c>
       <c r="C71">
-        <v>8.590000152587891</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="D71">
-        <v>8.939999580383301</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E71">
-        <v>8.939999580383301</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F71">
-        <v>20332600</v>
+        <v>32650900</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>9.020000457763672</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="B72">
-        <v>9.180000305175781</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C72">
-        <v>8.600000381469727</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="D72">
-        <v>8.920000076293945</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="E72">
-        <v>8.920000076293945</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="F72">
-        <v>18152700</v>
+        <v>24345400</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>8.779999732971191</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="B73">
-        <v>9.069999694824219</v>
+        <v>7.829999923706055</v>
       </c>
       <c r="C73">
-        <v>8.149999618530273</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="D73">
-        <v>8.680000305175781</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="E73">
-        <v>8.680000305175781</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="F73">
-        <v>21312200</v>
+        <v>20545500</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>8.859999656677246</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C74">
-        <v>7.940000057220459</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="D74">
-        <v>7.96999979019165</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="E74">
-        <v>7.96999979019165</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="F74">
-        <v>23581900</v>
+        <v>14039600</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>7.840000152587891</v>
+        <v>7.5</v>
       </c>
       <c r="B75">
-        <v>8.340000152587891</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="C75">
-        <v>7.769999980926514</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D75">
-        <v>8.149999618530273</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E75">
-        <v>8.149999618530273</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F75">
-        <v>21694500</v>
+        <v>19226400</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>8.159999847412109</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="B76">
-        <v>8.159999847412109</v>
+        <v>7.25</v>
       </c>
       <c r="C76">
-        <v>7.090000152587891</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="D76">
-        <v>7.289999961853027</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="E76">
-        <v>7.289999961853027</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="F76">
-        <v>32650900</v>
+        <v>17697500</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>7.150000095367432</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="B77">
-        <v>7.389999866485596</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="C77">
-        <v>6.739999771118164</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="D77">
-        <v>7.199999809265137</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="E77">
-        <v>7.199999809265137</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="F77">
-        <v>24345400</v>
+        <v>18939100</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>7.519999980926514</v>
+        <v>6.650000095367432</v>
       </c>
       <c r="B78">
-        <v>7.829999923706055</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="C78">
-        <v>7.420000076293945</v>
+        <v>6.25</v>
       </c>
       <c r="D78">
-        <v>7.550000190734863</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="E78">
-        <v>7.550000190734863</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="F78">
-        <v>20545500</v>
+        <v>28814000</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>7.519999980926514</v>
+        <v>6.260000228881836</v>
       </c>
       <c r="B79">
-        <v>7.789999961853027</v>
+        <v>6.650000095367432</v>
       </c>
       <c r="C79">
-        <v>7.300000190734863</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="D79">
-        <v>7.610000133514404</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="E79">
-        <v>7.610000133514404</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="F79">
-        <v>14039600</v>
+        <v>23657400</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>7.5</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="B80">
-        <v>7.670000076293945</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="C80">
-        <v>6.96999979019165</v>
+        <v>6.190000057220459</v>
       </c>
       <c r="D80">
-        <v>7.010000228881836</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="E80">
-        <v>7.010000228881836</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="F80">
-        <v>19226400</v>
+        <v>24586500</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>7.070000171661377</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B81">
-        <v>7.25</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="C81">
-        <v>6.800000190734863</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="D81">
-        <v>6.929999828338623</v>
+        <v>6.309999942779541</v>
       </c>
       <c r="E81">
-        <v>6.929999828338623</v>
+        <v>6.309999942779541</v>
       </c>
       <c r="F81">
-        <v>17697500</v>
+        <v>27393100</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>6.900000095367432</v>
+        <v>6</v>
       </c>
       <c r="B82">
-        <v>7.110000133514404</v>
+        <v>6.179999828338623</v>
       </c>
       <c r="C82">
-        <v>6.670000076293945</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="D82">
-        <v>6.889999866485596</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="E82">
-        <v>6.889999866485596</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="F82">
-        <v>18939100</v>
+        <v>16874500</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>6.650000095367432</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="B83">
-        <v>6.699999809265137</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="C83">
-        <v>6.25</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="D83">
-        <v>6.329999923706055</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="E83">
-        <v>6.329999923706055</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="F83">
-        <v>28814000</v>
+        <v>16683300</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>6.260000228881836</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="B84">
-        <v>6.650000095367432</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="C84">
-        <v>6.079999923706055</v>
+        <v>6.25</v>
       </c>
       <c r="D84">
-        <v>6.53000020980835</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="E84">
-        <v>6.53000020980835</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="F84">
-        <v>23657400</v>
+        <v>13093000</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>6.730000019073486</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="B85">
-        <v>6.800000190734863</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="C85">
-        <v>6.190000057220459</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="D85">
-        <v>6.269999980926514</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="E85">
-        <v>6.269999980926514</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="F85">
-        <v>24586500</v>
+        <v>14842900</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>6.150000095367432</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="B86">
-        <v>6.480000019073486</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="C86">
-        <v>5.920000076293945</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="D86">
-        <v>6.309999942779541</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="E86">
-        <v>6.309999942779541</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="F86">
-        <v>27393100</v>
+        <v>34336500</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>6</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="B87">
-        <v>6.179999828338623</v>
+        <v>6.25</v>
       </c>
       <c r="C87">
-        <v>5.909999847412109</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="D87">
-        <v>6.050000190734863</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="E87">
-        <v>6.050000190734863</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="F87">
-        <v>16874500</v>
+        <v>28962000</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>6.099999904632568</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="B88">
-        <v>6.46999979019165</v>
+        <v>5.300000190734863</v>
       </c>
       <c r="C88">
-        <v>6.090000152587891</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="D88">
-        <v>6.409999847412109</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="E88">
-        <v>6.409999847412109</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="F88">
-        <v>16683300</v>
+        <v>67673000</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>6.320000171661377</v>
+        <v>5.059999942779541</v>
       </c>
       <c r="B89">
-        <v>6.53000020980835</v>
+        <v>5.5</v>
       </c>
       <c r="C89">
-        <v>6.25</v>
+        <v>5.050000190734863</v>
       </c>
       <c r="D89">
-        <v>6.400000095367432</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="E89">
-        <v>6.400000095367432</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="F89">
-        <v>13093000</v>
+        <v>30972900</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>6.440000057220459</v>
+        <v>5.289999961853027</v>
       </c>
       <c r="B90">
-        <v>6.550000190734863</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="C90">
-        <v>6.199999809265137</v>
+        <v>5.190000057220459</v>
       </c>
       <c r="D90">
-        <v>6.460000038146973</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="E90">
-        <v>6.460000038146973</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="F90">
-        <v>14842900</v>
+        <v>21596300</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>6.860000133514404</v>
+        <v>5.349999904632568</v>
       </c>
       <c r="B91">
-        <v>6.949999809265137</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="C91">
-        <v>6.239999771118164</v>
+        <v>5.25</v>
       </c>
       <c r="D91">
-        <v>6.300000190734863</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="E91">
-        <v>6.300000190734863</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="F91">
-        <v>34336500</v>
+        <v>31252400</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>6.139999866485596</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="B92">
-        <v>6.25</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="C92">
-        <v>5.840000152587891</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="D92">
-        <v>5.869999885559082</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="E92">
-        <v>5.869999885559082</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="F92">
-        <v>28962000</v>
+        <v>27299300</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>5.130000114440918</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="B93">
-        <v>5.300000190734863</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="C93">
-        <v>4.829999923706055</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="D93">
-        <v>5.110000133514404</v>
+        <v>5.320000171661377</v>
       </c>
       <c r="E93">
-        <v>5.110000133514404</v>
+        <v>5.320000171661377</v>
       </c>
       <c r="F93">
-        <v>67673000</v>
+        <v>22666300</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>5.059999942779541</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="B94">
-        <v>5.5</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="C94">
-        <v>5.050000190734863</v>
+        <v>4.989999771118164</v>
       </c>
       <c r="D94">
-        <v>5.329999923706055</v>
+        <v>5.139999866485596</v>
       </c>
       <c r="E94">
-        <v>5.329999923706055</v>
+        <v>5.139999866485596</v>
       </c>
       <c r="F94">
-        <v>30972900</v>
+        <v>21000100</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>5.289999961853027</v>
+        <v>5.190000057220459</v>
       </c>
       <c r="B95">
-        <v>5.510000228881836</v>
+        <v>5.360000133514404</v>
       </c>
       <c r="C95">
-        <v>5.190000057220459</v>
+        <v>5.059999942779541</v>
       </c>
       <c r="D95">
-        <v>5.199999809265137</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="E95">
-        <v>5.199999809265137</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="F95">
-        <v>21596300</v>
+        <v>18317500</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>5.349999904632568</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="B96">
-        <v>5.889999866485596</v>
+        <v>5.050000190734863</v>
       </c>
       <c r="C96">
-        <v>5.25</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="D96">
-        <v>5.78000020980835</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="E96">
-        <v>5.78000020980835</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="F96">
-        <v>31252400</v>
+        <v>22386900</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>5.800000190734863</v>
+        <v>5</v>
       </c>
       <c r="B97">
-        <v>5.889999866485596</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="C97">
-        <v>5.46999979019165</v>
+        <v>4.920000076293945</v>
       </c>
       <c r="D97">
-        <v>5.880000114440918</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="E97">
-        <v>5.880000114440918</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="F97">
-        <v>27299300</v>
+        <v>21182500</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>5.760000228881836</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="B98">
-        <v>5.849999904632568</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="C98">
-        <v>5.260000228881836</v>
+        <v>5.010000228881836</v>
       </c>
       <c r="D98">
-        <v>5.320000171661377</v>
+        <v>5.070000171661377</v>
       </c>
       <c r="E98">
-        <v>5.320000171661377</v>
+        <v>5.070000171661377</v>
       </c>
       <c r="F98">
-        <v>22666300</v>
+        <v>17923500</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>5.28000020980835</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="B99">
-        <v>5.409999847412109</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="C99">
-        <v>4.989999771118164</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="D99">
-        <v>5.139999866485596</v>
+        <v>4.869999885559082</v>
       </c>
       <c r="E99">
-        <v>5.139999866485596</v>
+        <v>4.869999885559082</v>
       </c>
       <c r="F99">
-        <v>21000100</v>
+        <v>20043500</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>5.190000057220459</v>
+        <v>4.789999961853027</v>
       </c>
       <c r="B100">
-        <v>5.360000133514404</v>
+        <v>4.960000038146973</v>
       </c>
       <c r="C100">
-        <v>5.059999942779541</v>
+        <v>4.679999828338623</v>
       </c>
       <c r="D100">
-        <v>5.099999904632568</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="E100">
-        <v>5.099999904632568</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="F100">
-        <v>18317500</v>
+        <v>20219000</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>4.96999979019165</v>
+        <v>4.760000228881836</v>
       </c>
       <c r="B101">
-        <v>5.050000190734863</v>
+        <v>4.820000171661377</v>
       </c>
       <c r="C101">
-        <v>4.800000190734863</v>
+        <v>4.559999942779541</v>
       </c>
       <c r="D101">
-        <v>4.96999979019165</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="E101">
-        <v>4.96999979019165</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="F101">
-        <v>22386900</v>
+        <v>20967500</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>5</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="B102">
-        <v>5.340000152587891</v>
+        <v>4.650000095367432</v>
       </c>
       <c r="C102">
-        <v>4.920000076293945</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="D102">
-        <v>5.179999828338623</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="E102">
-        <v>5.179999828338623</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="F102">
-        <v>21182500</v>
+        <v>29011200</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>5.28000020980835</v>
+        <v>4.389999866485596</v>
       </c>
       <c r="B103">
-        <v>5.329999923706055</v>
+        <v>4.510000228881836</v>
       </c>
       <c r="C103">
-        <v>5.010000228881836</v>
+        <v>4.110000133514404</v>
       </c>
       <c r="D103">
-        <v>5.070000171661377</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="E103">
-        <v>5.070000171661377</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="F103">
-        <v>17923500</v>
+        <v>30977700</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>5.130000114440918</v>
+        <v>3.990000009536743</v>
       </c>
       <c r="B104">
-        <v>5.199999809265137</v>
+        <v>4.170000076293945</v>
       </c>
       <c r="C104">
-        <v>4.860000133514404</v>
+        <v>3.849999904632568</v>
       </c>
       <c r="D104">
-        <v>4.869999885559082</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="E104">
-        <v>4.869999885559082</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="F104">
-        <v>20043500</v>
+        <v>44178500</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>4.789999961853027</v>
+        <v>3.730000019073486</v>
       </c>
       <c r="B105">
-        <v>4.960000038146973</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="C105">
-        <v>4.679999828338623</v>
+        <v>3.440000057220459</v>
       </c>
       <c r="D105">
-        <v>4.829999923706055</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="E105">
-        <v>4.829999923706055</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="F105">
-        <v>20219000</v>
+        <v>37138500</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>4.760000228881836</v>
+        <v>3.75</v>
       </c>
       <c r="B106">
-        <v>4.820000171661377</v>
+        <v>3.970000028610229</v>
       </c>
       <c r="C106">
-        <v>4.559999942779541</v>
+        <v>3.720000028610229</v>
       </c>
       <c r="D106">
-        <v>4.579999923706055</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="E106">
-        <v>4.579999923706055</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="F106">
-        <v>20967500</v>
+        <v>17530900</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>4.579999923706055</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="B107">
-        <v>4.650000095367432</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="C107">
-        <v>4.28000020980835</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="D107">
-        <v>4.300000190734863</v>
+        <v>3.859999895095825</v>
       </c>
       <c r="E107">
-        <v>4.300000190734863</v>
+        <v>3.859999895095825</v>
       </c>
       <c r="F107">
-        <v>29011200</v>
+        <v>28075400</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>4.389999866485596</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="B108">
-        <v>4.510000228881836</v>
+        <v>3.980000019073486</v>
       </c>
       <c r="C108">
-        <v>4.110000133514404</v>
+        <v>3.5</v>
       </c>
       <c r="D108">
-        <v>4.130000114440918</v>
+        <v>3.559999942779541</v>
       </c>
       <c r="E108">
-        <v>4.130000114440918</v>
+        <v>3.559999942779541</v>
       </c>
       <c r="F108">
-        <v>30977700</v>
+        <v>28877100</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>3.990000009536743</v>
+        <v>3.579999923706055</v>
       </c>
       <c r="B109">
-        <v>4.170000076293945</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="C109">
-        <v>3.849999904632568</v>
+        <v>3.400000095367432</v>
       </c>
       <c r="D109">
-        <v>3.900000095367432</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="E109">
-        <v>3.900000095367432</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="F109">
-        <v>44178500</v>
+        <v>21240900</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>3.730000019073486</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="B110">
-        <v>3.920000076293945</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="C110">
-        <v>3.440000057220459</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="D110">
-        <v>3.920000076293945</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="E110">
-        <v>3.920000076293945</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="F110">
-        <v>37138500</v>
+        <v>27876100</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>3.75</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="B111">
-        <v>3.970000028610229</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="C111">
-        <v>3.720000028610229</v>
+        <v>4.199999809265137</v>
       </c>
       <c r="D111">
-        <v>3.869999885559082</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="E111">
-        <v>3.869999885559082</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="F111">
-        <v>17530900</v>
+        <v>27707300</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
+        <v>4.510000228881836</v>
+      </c>
+      <c r="B112">
+        <v>4.519999980926514</v>
+      </c>
+      <c r="C112">
         <v>4.139999866485596</v>
       </c>
-      <c r="B112">
-        <v>4.210000038146973</v>
-      </c>
-      <c r="C112">
-        <v>3.799999952316284</v>
-      </c>
       <c r="D112">
-        <v>3.859999895095825</v>
+        <v>4.190000057220459</v>
       </c>
       <c r="E112">
-        <v>3.859999895095825</v>
+        <v>4.190000057220459</v>
       </c>
       <c r="F112">
-        <v>28075400</v>
+        <v>22492300</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>3.910000085830688</v>
+        <v>4.010000228881836</v>
       </c>
       <c r="B113">
-        <v>3.980000019073486</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="C113">
-        <v>3.5</v>
+        <v>3.990000009536743</v>
       </c>
       <c r="D113">
-        <v>3.559999942779541</v>
+        <v>4.070000171661377</v>
       </c>
       <c r="E113">
-        <v>3.559999942779541</v>
+        <v>4.070000171661377</v>
       </c>
       <c r="F113">
-        <v>28877100</v>
+        <v>21628800</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>3.579999923706055</v>
+        <v>4.110000133514404</v>
       </c>
       <c r="B114">
-        <v>3.700000047683716</v>
+        <v>4.380000114440918</v>
       </c>
       <c r="C114">
-        <v>3.400000095367432</v>
+        <v>4.050000190734863</v>
       </c>
       <c r="D114">
-        <v>3.680000066757202</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="E114">
-        <v>3.680000066757202</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="F114">
-        <v>21240900</v>
+        <v>15721500</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>3.680000066757202</v>
+        <v>4.21999979019165</v>
       </c>
       <c r="B115">
-        <v>4.260000228881836</v>
+        <v>4.550000190734863</v>
       </c>
       <c r="C115">
-        <v>3.680000066757202</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="D115">
-        <v>4.239999771118164</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="E115">
-        <v>4.239999771118164</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="F115">
-        <v>27876100</v>
+        <v>22408900</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2700,279 +2700,259 @@
         <v>4.329999923706055</v>
       </c>
       <c r="B116">
-        <v>4.599999904632568</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="C116">
-        <v>4.199999809265137</v>
+        <v>4.289999961853027</v>
       </c>
       <c r="D116">
-        <v>4.460000038146973</v>
+        <v>4.519999980926514</v>
       </c>
       <c r="E116">
-        <v>4.460000038146973</v>
+        <v>4.519999980926514</v>
       </c>
       <c r="F116">
-        <v>27707300</v>
+        <v>15042900</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>4.510000228881836</v>
+        <v>4.630000114440918</v>
       </c>
       <c r="B117">
-        <v>4.519999980926514</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="C117">
-        <v>4.139999866485596</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="D117">
-        <v>4.190000057220459</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="E117">
-        <v>4.190000057220459</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="F117">
-        <v>22492300</v>
+        <v>18484200</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>4.010000228881836</v>
+        <v>4.690000057220459</v>
       </c>
       <c r="B118">
-        <v>4.28000020980835</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="C118">
-        <v>3.990000009536743</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="D118">
-        <v>4.070000171661377</v>
+        <v>4.820000171661377</v>
       </c>
       <c r="E118">
-        <v>4.070000171661377</v>
+        <v>4.820000171661377</v>
       </c>
       <c r="F118">
-        <v>21628800</v>
+        <v>23555600</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>4.110000133514404</v>
+        <v>4.840000152587891</v>
       </c>
       <c r="B119">
-        <v>4.380000114440918</v>
+        <v>5.039999961853027</v>
       </c>
       <c r="C119">
-        <v>4.050000190734863</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="D119">
-        <v>4.28000020980835</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="E119">
-        <v>4.28000020980835</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="F119">
-        <v>15721500</v>
+        <v>20516500</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>4.21999979019165</v>
+        <v>4.53000020980835</v>
       </c>
       <c r="B120">
-        <v>4.550000190734863</v>
+        <v>4.840000152587891</v>
       </c>
       <c r="C120">
-        <v>4.210000038146973</v>
+        <v>4.53000020980835</v>
       </c>
       <c r="D120">
-        <v>4.369999885559082</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="E120">
-        <v>4.369999885559082</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="F120">
-        <v>22408900</v>
+        <v>15466900</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>4.329999923706055</v>
+        <v>4.75</v>
       </c>
       <c r="B121">
-        <v>4.539999961853027</v>
+        <v>5.519999980926514</v>
       </c>
       <c r="C121">
-        <v>4.289999961853027</v>
+        <v>4.71999979019165</v>
       </c>
       <c r="D121">
-        <v>4.519999980926514</v>
+        <v>5.489999771118164</v>
       </c>
       <c r="E121">
-        <v>4.519999980926514</v>
+        <v>5.489999771118164</v>
       </c>
       <c r="F121">
-        <v>15042900</v>
+        <v>34067200</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>4.630000114440918</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="B122">
-        <v>4.829999923706055</v>
+        <v>5.570000171661377</v>
       </c>
       <c r="C122">
-        <v>4.539999961853027</v>
+        <v>5.210000038146973</v>
       </c>
       <c r="D122">
-        <v>4.809999942779541</v>
+        <v>5.5</v>
       </c>
       <c r="E122">
-        <v>4.809999942779541</v>
+        <v>5.5</v>
       </c>
       <c r="F122">
-        <v>18484200</v>
+        <v>24071600</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>4.690000057220459</v>
+        <v>5.360000133514404</v>
       </c>
       <c r="B123">
-        <v>5.099999904632568</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="C123">
-        <v>4.590000152587891</v>
+        <v>5.210000038146973</v>
       </c>
       <c r="D123">
-        <v>4.820000171661377</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="E123">
-        <v>4.820000171661377</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="F123">
-        <v>23555600</v>
+        <v>18684700</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>4.840000152587891</v>
+        <v>5.25</v>
       </c>
       <c r="B124">
-        <v>5.039999961853027</v>
+        <v>5.25</v>
       </c>
       <c r="C124">
-        <v>4.579999923706055</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="D124">
-        <v>4.639999866485596</v>
+        <v>5.010000228881836</v>
       </c>
       <c r="E124">
-        <v>4.639999866485596</v>
+        <v>5.010000228881836</v>
       </c>
       <c r="F124">
-        <v>20516500</v>
+        <v>18186900</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>4.53000020980835</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="B125">
-        <v>4.840000152587891</v>
+        <v>5.059999942779541</v>
       </c>
       <c r="C125">
-        <v>4.53000020980835</v>
+        <v>4.690000057220459</v>
       </c>
       <c r="D125">
-        <v>4.619999885559082</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="E125">
-        <v>4.619999885559082</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="F125">
-        <v>15466900</v>
+        <v>16994900</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>4.75</v>
+        <v>4.889999866485596</v>
       </c>
       <c r="B126">
-        <v>5.519999980926514</v>
+        <v>4.949999809265137</v>
       </c>
       <c r="C126">
-        <v>4.71999979019165</v>
+        <v>4.659999847412109</v>
       </c>
       <c r="D126">
-        <v>5.489999771118164</v>
+        <v>4.679999828338623</v>
       </c>
       <c r="E126">
-        <v>5.489999771118164</v>
+        <v>4.679999828338623</v>
       </c>
       <c r="F126">
-        <v>34067200</v>
+        <v>14574800</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>5.329999923706055</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="B127">
-        <v>5.570000171661377</v>
+        <v>5.300000190734863</v>
       </c>
       <c r="C127">
-        <v>5.210000038146973</v>
+        <v>4.25</v>
       </c>
       <c r="D127">
-        <v>5.5</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="E127">
-        <v>5.5</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="F127">
-        <v>24071600</v>
+        <v>27836400</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>5.360000133514404</v>
+        <v>5.25</v>
       </c>
       <c r="B128">
-        <v>5.630000114440918</v>
+        <v>5.380000114440918</v>
       </c>
       <c r="C128">
-        <v>5.210000038146973</v>
+        <v>5.010000228881836</v>
       </c>
       <c r="D128">
-        <v>5.260000228881836</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="E128">
-        <v>5.260000228881836</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="F128">
-        <v>18684700</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>5.25</v>
-      </c>
-      <c r="B129">
-        <v>5.25</v>
-      </c>
-      <c r="C129">
-        <v>4.900000095367432</v>
-      </c>
-      <c r="D129">
-        <v>5.010000228881836</v>
-      </c>
-      <c r="E129">
-        <v>5.010000228881836</v>
-      </c>
-      <c r="F129">
-        <v>18186900</v>
+        <v>21004200</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/FCEL/HighLow.xlsx
+++ b/Stocks/FCEL/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2542 +417,2502 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>6.159999847412109</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B2">
-        <v>6.53000020980835</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="C2">
-        <v>6.03000020980835</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="D2">
-        <v>6.119999885559082</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>6.119999885559082</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>13388500</v>
+        <v>15292000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>6.159999847412109</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="B3">
-        <v>6.369999885559082</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="C3">
-        <v>6.090000152587891</v>
+        <v>5.690000057220459</v>
       </c>
       <c r="D3">
-        <v>6.28000020980835</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E3">
-        <v>6.28000020980835</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F3">
-        <v>9814900</v>
+        <v>17939600</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>6.300000190734863</v>
+        <v>5.739999771118164</v>
       </c>
       <c r="B4">
-        <v>6.329999923706055</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="C4">
-        <v>5.940000057220459</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="D4">
-        <v>6.210000038146973</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="E4">
-        <v>6.210000038146973</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="F4">
-        <v>14003400</v>
+        <v>14641800</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>6.150000095367432</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="B5">
-        <v>6.380000114440918</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="C5">
-        <v>6.130000114440918</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="D5">
-        <v>6.239999771118164</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="E5">
-        <v>6.239999771118164</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="F5">
-        <v>10318100</v>
+        <v>19485900</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>6.210000038146973</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="B6">
-        <v>6.53000020980835</v>
+        <v>5.75</v>
       </c>
       <c r="C6">
-        <v>6.199999809265137</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="D6">
-        <v>6.369999885559082</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="E6">
-        <v>6.369999885559082</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="F6">
-        <v>12659900</v>
+        <v>22075100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
+        <v>6.199999809265137</v>
+      </c>
+      <c r="B7">
+        <v>7.539999961853027</v>
+      </c>
+      <c r="C7">
+        <v>6.119999885559082</v>
+      </c>
+      <c r="D7">
         <v>6.440000057220459</v>
       </c>
-      <c r="B7">
-        <v>6.590000152587891</v>
-      </c>
-      <c r="C7">
-        <v>6.320000171661377</v>
-      </c>
-      <c r="D7">
-        <v>6.420000076293945</v>
-      </c>
       <c r="E7">
-        <v>6.420000076293945</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F7">
-        <v>12398000</v>
+        <v>214559900</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>6.420000076293945</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="B8">
-        <v>6.440000057220459</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="C8">
-        <v>6.059999942779541</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D8">
-        <v>6.119999885559082</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E8">
-        <v>6.119999885559082</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F8">
-        <v>13980600</v>
+        <v>59485900</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
+        <v>6.070000171661377</v>
+      </c>
+      <c r="B9">
+        <v>6.289999961853027</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
         <v>6.150000095367432</v>
       </c>
-      <c r="B9">
-        <v>6.329999923706055</v>
-      </c>
-      <c r="C9">
-        <v>5.989999771118164</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
       <c r="E9">
-        <v>6</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="F9">
-        <v>15292000</v>
+        <v>20369000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>6.019999980926514</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="B10">
-        <v>6.059999942779541</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="C10">
-        <v>5.690000057220459</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="D10">
-        <v>5.71999979019165</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="E10">
-        <v>5.71999979019165</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="F10">
-        <v>17939600</v>
+        <v>31480400</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>5.739999771118164</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="B11">
-        <v>6.039999961853027</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="C11">
-        <v>5.699999809265137</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="D11">
-        <v>5.820000171661377</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E11">
-        <v>5.820000171661377</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F11">
-        <v>14641800</v>
+        <v>23518100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>5.96999979019165</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="B12">
-        <v>5.96999979019165</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="C12">
-        <v>5.550000190734863</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="D12">
-        <v>5.579999923706055</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>5.579999923706055</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>19485900</v>
+        <v>18779700</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>5.619999885559082</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="B13">
-        <v>5.75</v>
+        <v>6.75</v>
       </c>
       <c r="C13">
-        <v>5.340000152587891</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="D13">
-        <v>5.619999885559082</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="E13">
-        <v>5.619999885559082</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="F13">
-        <v>22075100</v>
+        <v>34335200</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>6.199999809265137</v>
+        <v>6.760000228881836</v>
       </c>
       <c r="B14">
-        <v>7.539999961853027</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C14">
-        <v>6.119999885559082</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D14">
-        <v>6.440000057220459</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="E14">
-        <v>6.440000057220459</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="F14">
-        <v>214559900</v>
+        <v>39926500</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>6.480000019073486</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B15">
-        <v>6.610000133514404</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="C15">
-        <v>5.889999866485596</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="D15">
-        <v>6.139999866485596</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="E15">
-        <v>6.139999866485596</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="F15">
-        <v>59485900</v>
+        <v>20537600</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>6.070000171661377</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B16">
-        <v>6.289999961853027</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="D16">
-        <v>6.150000095367432</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="E16">
-        <v>6.150000095367432</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="F16">
-        <v>20369000</v>
+        <v>32138700</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>6.170000076293945</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="B17">
-        <v>6.550000190734863</v>
+        <v>7.860000133514404</v>
       </c>
       <c r="C17">
-        <v>6.130000114440918</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="D17">
-        <v>6.550000190734863</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="E17">
-        <v>6.550000190734863</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="F17">
-        <v>31480400</v>
+        <v>27209500</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>6.239999771118164</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="B18">
-        <v>6.380000114440918</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="C18">
-        <v>5.96999979019165</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D18">
-        <v>6.119999885559082</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="E18">
-        <v>6.119999885559082</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="F18">
-        <v>23518100</v>
+        <v>25907200</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>6.269999980926514</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B19">
-        <v>6.300000190734863</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C19">
-        <v>5.949999809265137</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="F19">
-        <v>18779700</v>
+        <v>15831500</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>6.039999961853027</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="B20">
-        <v>6.75</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="C20">
-        <v>6.010000228881836</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="D20">
-        <v>6.659999847412109</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="E20">
-        <v>6.659999847412109</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="F20">
-        <v>34335200</v>
+        <v>16087800</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>6.760000228881836</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="B21">
-        <v>7.309999942779541</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="C21">
-        <v>6.610000133514404</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D21">
-        <v>7.239999771118164</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>7.239999771118164</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>39926500</v>
+        <v>19212300</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>7.050000190734863</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="B22">
-        <v>7.239999771118164</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="C22">
-        <v>6.949999809265137</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="D22">
-        <v>6.96999979019165</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="E22">
-        <v>6.96999979019165</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="F22">
-        <v>20537600</v>
+        <v>16756400</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>7.059999942779541</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="B23">
-        <v>7.789999961853027</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="C23">
-        <v>7.03000020980835</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="D23">
-        <v>7.650000095367432</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="E23">
-        <v>7.650000095367432</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="F23">
-        <v>32138700</v>
+        <v>14496300</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>7.480000019073486</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="B24">
-        <v>7.860000133514404</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="C24">
-        <v>7.170000076293945</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="D24">
-        <v>7.190000057220459</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="E24">
-        <v>7.190000057220459</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="F24">
-        <v>27209500</v>
+        <v>17549900</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>7.320000171661377</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="B25">
-        <v>7.349999904632568</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="C25">
-        <v>6.559999942779541</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="D25">
-        <v>6.570000171661377</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="E25">
-        <v>6.570000171661377</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="F25">
-        <v>25907200</v>
+        <v>13090500</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>6.619999885559082</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="B26">
-        <v>6.840000152587891</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="C26">
-        <v>6.559999942779541</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="D26">
-        <v>6.690000057220459</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="E26">
-        <v>6.690000057220459</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="F26">
-        <v>15831500</v>
+        <v>19742200</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>6.739999771118164</v>
+        <v>6.75</v>
       </c>
       <c r="B27">
-        <v>6.809999942779541</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="C27">
-        <v>6.369999885559082</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="D27">
-        <v>6.429999828338623</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E27">
-        <v>6.429999828338623</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F27">
-        <v>16087800</v>
+        <v>18894600</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>6.349999904632568</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="B28">
-        <v>6.369999885559082</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C28">
-        <v>5.940000057220459</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>7.25</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>7.25</v>
       </c>
       <c r="F28">
-        <v>19212300</v>
+        <v>29360600</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>6.099999904632568</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="B29">
-        <v>6.28000020980835</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="C29">
-        <v>5.980000019073486</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="D29">
-        <v>6.039999961853027</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="E29">
-        <v>6.039999961853027</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="F29">
-        <v>16756400</v>
+        <v>39061800</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>5.900000095367432</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="B30">
-        <v>6.199999809265137</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="C30">
-        <v>5.860000133514404</v>
+        <v>7.130000114440918</v>
       </c>
       <c r="D30">
-        <v>6.070000171661377</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E30">
-        <v>6.070000171661377</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F30">
-        <v>14496300</v>
+        <v>45530600</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>6.119999885559082</v>
+        <v>7.690000057220459</v>
       </c>
       <c r="B31">
-        <v>6.460000038146973</v>
+        <v>8.930000305175781</v>
       </c>
       <c r="C31">
-        <v>6.03000020980835</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="D31">
-        <v>6.360000133514404</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="E31">
-        <v>6.360000133514404</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="F31">
-        <v>17549900</v>
+        <v>158157900</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>6.400000095367432</v>
+        <v>8.649999618530273</v>
       </c>
       <c r="B32">
-        <v>6.599999904632568</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="C32">
-        <v>6.340000152587891</v>
+        <v>8.029999732971191</v>
       </c>
       <c r="D32">
-        <v>6.389999866485596</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="E32">
-        <v>6.389999866485596</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="F32">
-        <v>13090500</v>
+        <v>133341000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>6.369999885559082</v>
+        <v>8.449999809265137</v>
       </c>
       <c r="B33">
-        <v>6.96999979019165</v>
+        <v>8.659999847412109</v>
       </c>
       <c r="C33">
-        <v>6.349999904632568</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="D33">
-        <v>6.710000038146973</v>
+        <v>8.130000114440918</v>
       </c>
       <c r="E33">
-        <v>6.710000038146973</v>
+        <v>8.130000114440918</v>
       </c>
       <c r="F33">
-        <v>19742200</v>
+        <v>53993700</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>6.75</v>
+        <v>8.170000076293945</v>
       </c>
       <c r="B34">
-        <v>7.039999961853027</v>
+        <v>8.789999961853027</v>
       </c>
       <c r="C34">
-        <v>6.710000038146973</v>
+        <v>8.039999961853027</v>
       </c>
       <c r="D34">
-        <v>6.920000076293945</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="E34">
-        <v>6.920000076293945</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="F34">
-        <v>18894600</v>
+        <v>63505200</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>7.199999809265137</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="B35">
-        <v>7.309999942779541</v>
+        <v>8.189999580383301</v>
       </c>
       <c r="C35">
-        <v>6.929999828338623</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="D35">
-        <v>7.25</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E35">
-        <v>7.25</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F35">
-        <v>29360600</v>
+        <v>45161200</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>7.380000114440918</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="B36">
-        <v>7.440000057220459</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C36">
-        <v>6.869999885559082</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="D36">
-        <v>7.21999979019165</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="E36">
-        <v>7.21999979019165</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="F36">
-        <v>39061800</v>
+        <v>32354000</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>7.260000228881836</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="B37">
-        <v>7.849999904632568</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C37">
-        <v>7.130000114440918</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="D37">
-        <v>7.389999866485596</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="E37">
-        <v>7.389999866485596</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="F37">
-        <v>45530600</v>
+        <v>27876700</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>7.690000057220459</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="B38">
-        <v>8.930000305175781</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="C38">
-        <v>7.670000076293945</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="D38">
-        <v>8.739999771118164</v>
+        <v>7</v>
       </c>
       <c r="E38">
-        <v>8.739999771118164</v>
+        <v>7</v>
       </c>
       <c r="F38">
-        <v>158157900</v>
+        <v>24447100</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>8.649999618530273</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B39">
-        <v>8.899999618530273</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="C39">
-        <v>8.029999732971191</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D39">
-        <v>8.590000152587891</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="E39">
-        <v>8.590000152587891</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="F39">
-        <v>133341000</v>
+        <v>52828600</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>8.449999809265137</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="B40">
-        <v>8.659999847412109</v>
+        <v>8.060000419616699</v>
       </c>
       <c r="C40">
-        <v>8.050000190734863</v>
+        <v>7.5</v>
       </c>
       <c r="D40">
-        <v>8.130000114440918</v>
+        <v>7.989999771118164</v>
       </c>
       <c r="E40">
-        <v>8.130000114440918</v>
+        <v>7.989999771118164</v>
       </c>
       <c r="F40">
-        <v>53993700</v>
+        <v>33618200</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>8.170000076293945</v>
+        <v>8.279999732971191</v>
       </c>
       <c r="B41">
-        <v>8.789999961853027</v>
+        <v>9.649999618530273</v>
       </c>
       <c r="C41">
-        <v>8.039999961853027</v>
+        <v>8.25</v>
       </c>
       <c r="D41">
-        <v>8.109999656677246</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="E41">
-        <v>8.109999656677246</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="F41">
-        <v>63505200</v>
+        <v>81021500</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>8.050000190734863</v>
+        <v>9.899999618530273</v>
       </c>
       <c r="B42">
-        <v>8.189999580383301</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="C42">
-        <v>7.210000038146973</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="D42">
-        <v>7.289999961853027</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="E42">
-        <v>7.289999961853027</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="F42">
-        <v>45161200</v>
+        <v>82411400</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>7.420000076293945</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B43">
-        <v>7.559999942779541</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="C43">
-        <v>7.159999847412109</v>
+        <v>8.779999732971191</v>
       </c>
       <c r="D43">
-        <v>7.539999961853027</v>
+        <v>9.479999542236328</v>
       </c>
       <c r="E43">
-        <v>7.539999961853027</v>
+        <v>9.479999542236328</v>
       </c>
       <c r="F43">
-        <v>32354000</v>
+        <v>33335700</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>7.590000152587891</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="B44">
-        <v>7.789999961853027</v>
+        <v>9.630000114440918</v>
       </c>
       <c r="C44">
-        <v>7.110000133514404</v>
+        <v>9.119999885559082</v>
       </c>
       <c r="D44">
-        <v>7.170000076293945</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="E44">
-        <v>7.170000076293945</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="F44">
-        <v>27876700</v>
+        <v>28500800</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>7.239999771118164</v>
+        <v>9.130000114440918</v>
       </c>
       <c r="B45">
-        <v>7.539999961853027</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="C45">
-        <v>6.960000038146973</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="F45">
-        <v>24447100</v>
+        <v>23868500</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>7.019999980926514</v>
+        <v>9.560000419616699</v>
       </c>
       <c r="B46">
-        <v>7.940000057220459</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="C46">
-        <v>7.010000228881836</v>
+        <v>9.449999809265137</v>
       </c>
       <c r="D46">
-        <v>7.570000171661377</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="E46">
-        <v>7.570000171661377</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="F46">
-        <v>52828600</v>
+        <v>88991800</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>7.559999942779541</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="B47">
-        <v>8.060000419616699</v>
+        <v>11</v>
       </c>
       <c r="C47">
-        <v>7.5</v>
+        <v>9.850000381469727</v>
       </c>
       <c r="D47">
-        <v>7.989999771118164</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="E47">
-        <v>7.989999771118164</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="F47">
-        <v>33618200</v>
+        <v>46187600</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>8.279999732971191</v>
+        <v>10.25</v>
       </c>
       <c r="B48">
-        <v>9.649999618530273</v>
+        <v>10.96000003814697</v>
       </c>
       <c r="C48">
-        <v>8.25</v>
+        <v>9.960000038146973</v>
       </c>
       <c r="D48">
-        <v>9.529999732971191</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="E48">
-        <v>9.529999732971191</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F48">
-        <v>81021500</v>
+        <v>35711100</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>9.899999618530273</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="B49">
-        <v>9.989999771118164</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="C49">
-        <v>8.970000267028809</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="D49">
-        <v>9.430000305175781</v>
+        <v>11.11999988555908</v>
       </c>
       <c r="E49">
-        <v>9.430000305175781</v>
+        <v>11.11999988555908</v>
       </c>
       <c r="F49">
-        <v>82411400</v>
+        <v>45159100</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>8.989999771118164</v>
+        <v>11.25</v>
       </c>
       <c r="B50">
-        <v>9.550000190734863</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="C50">
-        <v>8.779999732971191</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="D50">
-        <v>9.479999542236328</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="E50">
-        <v>9.479999542236328</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="F50">
-        <v>33335700</v>
+        <v>34855600</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>9.609999656677246</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="B51">
-        <v>9.630000114440918</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="C51">
-        <v>9.119999885559082</v>
+        <v>10.51000022888184</v>
       </c>
       <c r="D51">
-        <v>9.279999732971191</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="E51">
-        <v>9.279999732971191</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="F51">
-        <v>28500800</v>
+        <v>31722900</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>9.130000114440918</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="B52">
-        <v>9.279999732971191</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="C52">
-        <v>8.680000305175781</v>
+        <v>9.909999847412109</v>
       </c>
       <c r="D52">
-        <v>8.949999809265137</v>
+        <v>10.59000015258789</v>
       </c>
       <c r="E52">
-        <v>8.949999809265137</v>
+        <v>10.59000015258789</v>
       </c>
       <c r="F52">
-        <v>23868500</v>
+        <v>29685800</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>9.560000419616699</v>
+        <v>10.32999992370605</v>
       </c>
       <c r="B53">
-        <v>11.22000026702881</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="C53">
-        <v>9.449999809265137</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="D53">
-        <v>10.8100004196167</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="E53">
-        <v>10.8100004196167</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F53">
-        <v>88991800</v>
+        <v>23815200</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>10.93000030517578</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>10.26000022888184</v>
       </c>
       <c r="C54">
-        <v>9.850000381469727</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="D54">
-        <v>10.82999992370605</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="E54">
-        <v>10.82999992370605</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="F54">
-        <v>46187600</v>
+        <v>33549300</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>10.25</v>
+        <v>9.470000267028809</v>
       </c>
       <c r="B55">
-        <v>10.96000003814697</v>
+        <v>10.21000003814697</v>
       </c>
       <c r="C55">
-        <v>9.960000038146973</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="D55">
-        <v>10.23999977111816</v>
+        <v>9.810000419616699</v>
       </c>
       <c r="E55">
-        <v>10.23999977111816</v>
+        <v>9.810000419616699</v>
       </c>
       <c r="F55">
-        <v>35711100</v>
+        <v>24708500</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>10.42000007629395</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="B56">
-        <v>11.46000003814697</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="C56">
-        <v>10.10000038146973</v>
+        <v>9.189999580383301</v>
       </c>
       <c r="D56">
-        <v>11.11999988555908</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="E56">
-        <v>11.11999988555908</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="F56">
-        <v>45159100</v>
+        <v>27188200</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>11.25</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="B57">
-        <v>11.63000011444092</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="C57">
-        <v>10.80000019073486</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="D57">
-        <v>11.22999954223633</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="E57">
-        <v>11.22999954223633</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="F57">
-        <v>34855600</v>
+        <v>20635300</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>11.39999961853027</v>
+        <v>9.239999771118164</v>
       </c>
       <c r="B58">
-        <v>11.53999996185303</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="C58">
-        <v>10.51000022888184</v>
+        <v>8.869999885559082</v>
       </c>
       <c r="D58">
-        <v>10.77000045776367</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="E58">
-        <v>10.77000045776367</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="F58">
-        <v>31722900</v>
+        <v>16153500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>10.52999973297119</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B59">
-        <v>10.69999980926514</v>
+        <v>9.310000419616699</v>
       </c>
       <c r="C59">
-        <v>9.909999847412109</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="D59">
-        <v>10.59000015258789</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="E59">
-        <v>10.59000015258789</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="F59">
-        <v>29685800</v>
+        <v>20332600</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>10.32999992370605</v>
+        <v>9.020000457763672</v>
       </c>
       <c r="B60">
-        <v>11.07999992370605</v>
+        <v>9.180000305175781</v>
       </c>
       <c r="C60">
-        <v>10.19999980926514</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="D60">
-        <v>10.23999977111816</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="E60">
-        <v>10.23999977111816</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="F60">
-        <v>23815200</v>
+        <v>18152700</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>10.22000026702881</v>
+        <v>8.779999732971191</v>
       </c>
       <c r="B61">
-        <v>10.26000022888184</v>
+        <v>9.069999694824219</v>
       </c>
       <c r="C61">
-        <v>9.149999618530273</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="D61">
-        <v>9.460000038146973</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="E61">
-        <v>9.460000038146973</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="F61">
-        <v>33549300</v>
+        <v>21312200</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>9.470000267028809</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="B62">
-        <v>10.21000003814697</v>
+        <v>9</v>
       </c>
       <c r="C62">
-        <v>9.460000038146973</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="D62">
-        <v>9.810000419616699</v>
+        <v>7.96999979019165</v>
       </c>
       <c r="E62">
-        <v>9.810000419616699</v>
+        <v>7.96999979019165</v>
       </c>
       <c r="F62">
-        <v>24708500</v>
+        <v>23581900</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>10.02999973297119</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="B63">
-        <v>10.1899995803833</v>
+        <v>8.340000152587891</v>
       </c>
       <c r="C63">
-        <v>9.189999580383301</v>
+        <v>7.769999980926514</v>
       </c>
       <c r="D63">
-        <v>9.409999847412109</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="E63">
-        <v>9.409999847412109</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="F63">
-        <v>27188200</v>
+        <v>21694500</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>9.270000457763672</v>
+        <v>8.159999847412109</v>
       </c>
       <c r="B64">
-        <v>9.600000381469727</v>
+        <v>8.159999847412109</v>
       </c>
       <c r="C64">
-        <v>8.949999809265137</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="D64">
-        <v>9.369999885559082</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E64">
-        <v>9.369999885559082</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F64">
-        <v>20635300</v>
+        <v>32650900</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>9.239999771118164</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="B65">
-        <v>9.609999656677246</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C65">
-        <v>8.869999885559082</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="D65">
-        <v>9.529999732971191</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="E65">
-        <v>9.529999732971191</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="F65">
-        <v>16153500</v>
+        <v>24345400</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>8.989999771118164</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="B66">
-        <v>9.310000419616699</v>
+        <v>7.829999923706055</v>
       </c>
       <c r="C66">
-        <v>8.590000152587891</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="D66">
-        <v>8.939999580383301</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="E66">
-        <v>8.939999580383301</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="F66">
-        <v>20332600</v>
+        <v>20545500</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>9.020000457763672</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="B67">
-        <v>9.180000305175781</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C67">
-        <v>8.600000381469727</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="D67">
-        <v>8.920000076293945</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="E67">
-        <v>8.920000076293945</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="F67">
-        <v>18152700</v>
+        <v>14039600</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>8.779999732971191</v>
+        <v>7.5</v>
       </c>
       <c r="B68">
-        <v>9.069999694824219</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="C68">
-        <v>8.149999618530273</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D68">
-        <v>8.680000305175781</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E68">
-        <v>8.680000305175781</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F68">
-        <v>21312200</v>
+        <v>19226400</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>8.859999656677246</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="B69">
-        <v>9</v>
+        <v>7.25</v>
       </c>
       <c r="C69">
-        <v>7.940000057220459</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="D69">
-        <v>7.96999979019165</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="E69">
-        <v>7.96999979019165</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="F69">
-        <v>23581900</v>
+        <v>17697500</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>7.840000152587891</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="B70">
-        <v>8.340000152587891</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="C70">
-        <v>7.769999980926514</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="D70">
-        <v>8.149999618530273</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="E70">
-        <v>8.149999618530273</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="F70">
-        <v>21694500</v>
+        <v>18939100</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>8.159999847412109</v>
+        <v>6.650000095367432</v>
       </c>
       <c r="B71">
-        <v>8.159999847412109</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="C71">
-        <v>7.090000152587891</v>
+        <v>6.25</v>
       </c>
       <c r="D71">
-        <v>7.289999961853027</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="E71">
-        <v>7.289999961853027</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="F71">
-        <v>32650900</v>
+        <v>28814000</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>7.150000095367432</v>
+        <v>6.260000228881836</v>
       </c>
       <c r="B72">
-        <v>7.389999866485596</v>
+        <v>6.650000095367432</v>
       </c>
       <c r="C72">
-        <v>6.739999771118164</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="D72">
-        <v>7.199999809265137</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="E72">
-        <v>7.199999809265137</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="F72">
-        <v>24345400</v>
+        <v>23657400</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>7.519999980926514</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="B73">
-        <v>7.829999923706055</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="C73">
-        <v>7.420000076293945</v>
+        <v>6.190000057220459</v>
       </c>
       <c r="D73">
-        <v>7.550000190734863</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="E73">
-        <v>7.550000190734863</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="F73">
-        <v>20545500</v>
+        <v>24586500</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>7.519999980926514</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B74">
-        <v>7.789999961853027</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="C74">
-        <v>7.300000190734863</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="D74">
-        <v>7.610000133514404</v>
+        <v>6.309999942779541</v>
       </c>
       <c r="E74">
-        <v>7.610000133514404</v>
+        <v>6.309999942779541</v>
       </c>
       <c r="F74">
-        <v>14039600</v>
+        <v>27393100</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="B75">
-        <v>7.670000076293945</v>
+        <v>6.179999828338623</v>
       </c>
       <c r="C75">
-        <v>6.96999979019165</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="D75">
-        <v>7.010000228881836</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="E75">
-        <v>7.010000228881836</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="F75">
-        <v>19226400</v>
+        <v>16874500</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>7.070000171661377</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="B76">
-        <v>7.25</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="C76">
-        <v>6.800000190734863</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="D76">
-        <v>6.929999828338623</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="E76">
-        <v>6.929999828338623</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="F76">
-        <v>17697500</v>
+        <v>16683300</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>6.900000095367432</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="B77">
-        <v>7.110000133514404</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="C77">
-        <v>6.670000076293945</v>
+        <v>6.25</v>
       </c>
       <c r="D77">
-        <v>6.889999866485596</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="E77">
-        <v>6.889999866485596</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="F77">
-        <v>18939100</v>
+        <v>13093000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>6.650000095367432</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="B78">
-        <v>6.699999809265137</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="C78">
-        <v>6.25</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="D78">
-        <v>6.329999923706055</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="E78">
-        <v>6.329999923706055</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="F78">
-        <v>28814000</v>
+        <v>14842900</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>6.260000228881836</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="B79">
-        <v>6.650000095367432</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="C79">
-        <v>6.079999923706055</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="D79">
-        <v>6.53000020980835</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="E79">
-        <v>6.53000020980835</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="F79">
-        <v>23657400</v>
+        <v>34336500</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>6.730000019073486</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="B80">
-        <v>6.800000190734863</v>
+        <v>6.25</v>
       </c>
       <c r="C80">
-        <v>6.190000057220459</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="D80">
-        <v>6.269999980926514</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="E80">
-        <v>6.269999980926514</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="F80">
-        <v>24586500</v>
+        <v>28962000</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>6.150000095367432</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="B81">
-        <v>6.480000019073486</v>
+        <v>5.300000190734863</v>
       </c>
       <c r="C81">
-        <v>5.920000076293945</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="D81">
-        <v>6.309999942779541</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="E81">
-        <v>6.309999942779541</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="F81">
-        <v>27393100</v>
+        <v>67673000</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>6</v>
+        <v>5.059999942779541</v>
       </c>
       <c r="B82">
-        <v>6.179999828338623</v>
+        <v>5.5</v>
       </c>
       <c r="C82">
-        <v>5.909999847412109</v>
+        <v>5.050000190734863</v>
       </c>
       <c r="D82">
-        <v>6.050000190734863</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="E82">
-        <v>6.050000190734863</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="F82">
-        <v>16874500</v>
+        <v>30972900</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>6.099999904632568</v>
+        <v>5.289999961853027</v>
       </c>
       <c r="B83">
-        <v>6.46999979019165</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="C83">
-        <v>6.090000152587891</v>
+        <v>5.190000057220459</v>
       </c>
       <c r="D83">
-        <v>6.409999847412109</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="E83">
-        <v>6.409999847412109</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="F83">
-        <v>16683300</v>
+        <v>21596300</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>6.320000171661377</v>
+        <v>5.349999904632568</v>
       </c>
       <c r="B84">
-        <v>6.53000020980835</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="C84">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="D84">
-        <v>6.400000095367432</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="E84">
-        <v>6.400000095367432</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="F84">
-        <v>13093000</v>
+        <v>31252400</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>6.440000057220459</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="B85">
-        <v>6.550000190734863</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="C85">
-        <v>6.199999809265137</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="D85">
-        <v>6.460000038146973</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="E85">
-        <v>6.460000038146973</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="F85">
-        <v>14842900</v>
+        <v>27299300</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>6.860000133514404</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="B86">
-        <v>6.949999809265137</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="C86">
-        <v>6.239999771118164</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="D86">
-        <v>6.300000190734863</v>
+        <v>5.320000171661377</v>
       </c>
       <c r="E86">
-        <v>6.300000190734863</v>
+        <v>5.320000171661377</v>
       </c>
       <c r="F86">
-        <v>34336500</v>
+        <v>22666300</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>6.139999866485596</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="B87">
-        <v>6.25</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="C87">
-        <v>5.840000152587891</v>
+        <v>4.989999771118164</v>
       </c>
       <c r="D87">
-        <v>5.869999885559082</v>
+        <v>5.139999866485596</v>
       </c>
       <c r="E87">
-        <v>5.869999885559082</v>
+        <v>5.139999866485596</v>
       </c>
       <c r="F87">
-        <v>28962000</v>
+        <v>21000100</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>5.130000114440918</v>
+        <v>5.190000057220459</v>
       </c>
       <c r="B88">
-        <v>5.300000190734863</v>
+        <v>5.360000133514404</v>
       </c>
       <c r="C88">
-        <v>4.829999923706055</v>
+        <v>5.059999942779541</v>
       </c>
       <c r="D88">
-        <v>5.110000133514404</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="E88">
-        <v>5.110000133514404</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="F88">
-        <v>67673000</v>
+        <v>18317500</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>5.059999942779541</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="B89">
-        <v>5.5</v>
+        <v>5.050000190734863</v>
       </c>
       <c r="C89">
-        <v>5.050000190734863</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="D89">
-        <v>5.329999923706055</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="E89">
-        <v>5.329999923706055</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="F89">
-        <v>30972900</v>
+        <v>22386900</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>5.289999961853027</v>
+        <v>5</v>
       </c>
       <c r="B90">
-        <v>5.510000228881836</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="C90">
-        <v>5.190000057220459</v>
+        <v>4.920000076293945</v>
       </c>
       <c r="D90">
-        <v>5.199999809265137</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="E90">
-        <v>5.199999809265137</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="F90">
-        <v>21596300</v>
+        <v>21182500</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>5.349999904632568</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="B91">
-        <v>5.889999866485596</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="C91">
-        <v>5.25</v>
+        <v>5.010000228881836</v>
       </c>
       <c r="D91">
-        <v>5.78000020980835</v>
+        <v>5.070000171661377</v>
       </c>
       <c r="E91">
-        <v>5.78000020980835</v>
+        <v>5.070000171661377</v>
       </c>
       <c r="F91">
-        <v>31252400</v>
+        <v>17923500</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>5.800000190734863</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="B92">
-        <v>5.889999866485596</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="C92">
-        <v>5.46999979019165</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="D92">
-        <v>5.880000114440918</v>
+        <v>4.869999885559082</v>
       </c>
       <c r="E92">
-        <v>5.880000114440918</v>
+        <v>4.869999885559082</v>
       </c>
       <c r="F92">
-        <v>27299300</v>
+        <v>20043500</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>5.760000228881836</v>
+        <v>4.789999961853027</v>
       </c>
       <c r="B93">
-        <v>5.849999904632568</v>
+        <v>4.960000038146973</v>
       </c>
       <c r="C93">
-        <v>5.260000228881836</v>
+        <v>4.679999828338623</v>
       </c>
       <c r="D93">
-        <v>5.320000171661377</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="E93">
-        <v>5.320000171661377</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="F93">
-        <v>22666300</v>
+        <v>20219000</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>5.28000020980835</v>
+        <v>4.760000228881836</v>
       </c>
       <c r="B94">
-        <v>5.409999847412109</v>
+        <v>4.820000171661377</v>
       </c>
       <c r="C94">
-        <v>4.989999771118164</v>
+        <v>4.559999942779541</v>
       </c>
       <c r="D94">
-        <v>5.139999866485596</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="E94">
-        <v>5.139999866485596</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="F94">
-        <v>21000100</v>
+        <v>20967500</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>5.190000057220459</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="B95">
-        <v>5.360000133514404</v>
+        <v>4.650000095367432</v>
       </c>
       <c r="C95">
-        <v>5.059999942779541</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="D95">
-        <v>5.099999904632568</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="E95">
-        <v>5.099999904632568</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="F95">
-        <v>18317500</v>
+        <v>29011200</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>4.96999979019165</v>
+        <v>4.389999866485596</v>
       </c>
       <c r="B96">
-        <v>5.050000190734863</v>
+        <v>4.510000228881836</v>
       </c>
       <c r="C96">
-        <v>4.800000190734863</v>
+        <v>4.110000133514404</v>
       </c>
       <c r="D96">
-        <v>4.96999979019165</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="E96">
-        <v>4.96999979019165</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="F96">
-        <v>22386900</v>
+        <v>30977700</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>5</v>
+        <v>3.990000009536743</v>
       </c>
       <c r="B97">
-        <v>5.340000152587891</v>
+        <v>4.170000076293945</v>
       </c>
       <c r="C97">
-        <v>4.920000076293945</v>
+        <v>3.849999904632568</v>
       </c>
       <c r="D97">
-        <v>5.179999828338623</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="E97">
-        <v>5.179999828338623</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="F97">
-        <v>21182500</v>
+        <v>44178500</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>5.28000020980835</v>
+        <v>3.730000019073486</v>
       </c>
       <c r="B98">
-        <v>5.329999923706055</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="C98">
-        <v>5.010000228881836</v>
+        <v>3.440000057220459</v>
       </c>
       <c r="D98">
-        <v>5.070000171661377</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="E98">
-        <v>5.070000171661377</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="F98">
-        <v>17923500</v>
+        <v>37138500</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>5.130000114440918</v>
+        <v>3.75</v>
       </c>
       <c r="B99">
-        <v>5.199999809265137</v>
+        <v>3.970000028610229</v>
       </c>
       <c r="C99">
-        <v>4.860000133514404</v>
+        <v>3.720000028610229</v>
       </c>
       <c r="D99">
-        <v>4.869999885559082</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="E99">
-        <v>4.869999885559082</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="F99">
-        <v>20043500</v>
+        <v>17530900</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>4.789999961853027</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="B100">
-        <v>4.960000038146973</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="C100">
-        <v>4.679999828338623</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="D100">
-        <v>4.829999923706055</v>
+        <v>3.859999895095825</v>
       </c>
       <c r="E100">
-        <v>4.829999923706055</v>
+        <v>3.859999895095825</v>
       </c>
       <c r="F100">
-        <v>20219000</v>
+        <v>28075400</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>4.760000228881836</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="B101">
-        <v>4.820000171661377</v>
+        <v>3.980000019073486</v>
       </c>
       <c r="C101">
-        <v>4.559999942779541</v>
+        <v>3.5</v>
       </c>
       <c r="D101">
-        <v>4.579999923706055</v>
+        <v>3.559999942779541</v>
       </c>
       <c r="E101">
-        <v>4.579999923706055</v>
+        <v>3.559999942779541</v>
       </c>
       <c r="F101">
-        <v>20967500</v>
+        <v>28877100</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>4.579999923706055</v>
+        <v>3.579999923706055</v>
       </c>
       <c r="B102">
-        <v>4.650000095367432</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="C102">
-        <v>4.28000020980835</v>
+        <v>3.400000095367432</v>
       </c>
       <c r="D102">
-        <v>4.300000190734863</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="E102">
-        <v>4.300000190734863</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="F102">
-        <v>29011200</v>
+        <v>21240900</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>4.389999866485596</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="B103">
-        <v>4.510000228881836</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="C103">
-        <v>4.110000133514404</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="D103">
-        <v>4.130000114440918</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="E103">
-        <v>4.130000114440918</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="F103">
-        <v>30977700</v>
+        <v>27876100</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>3.990000009536743</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="B104">
-        <v>4.170000076293945</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="C104">
-        <v>3.849999904632568</v>
+        <v>4.199999809265137</v>
       </c>
       <c r="D104">
-        <v>3.900000095367432</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="E104">
-        <v>3.900000095367432</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="F104">
-        <v>44178500</v>
+        <v>27707300</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>3.730000019073486</v>
+        <v>4.510000228881836</v>
       </c>
       <c r="B105">
-        <v>3.920000076293945</v>
+        <v>4.519999980926514</v>
       </c>
       <c r="C105">
-        <v>3.440000057220459</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="D105">
-        <v>3.920000076293945</v>
+        <v>4.190000057220459</v>
       </c>
       <c r="E105">
-        <v>3.920000076293945</v>
+        <v>4.190000057220459</v>
       </c>
       <c r="F105">
-        <v>37138500</v>
+        <v>22492300</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>3.75</v>
+        <v>4.010000228881836</v>
       </c>
       <c r="B106">
-        <v>3.970000028610229</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="C106">
-        <v>3.720000028610229</v>
+        <v>3.990000009536743</v>
       </c>
       <c r="D106">
-        <v>3.869999885559082</v>
+        <v>4.070000171661377</v>
       </c>
       <c r="E106">
-        <v>3.869999885559082</v>
+        <v>4.070000171661377</v>
       </c>
       <c r="F106">
-        <v>17530900</v>
+        <v>21628800</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>4.139999866485596</v>
+        <v>4.110000133514404</v>
       </c>
       <c r="B107">
-        <v>4.210000038146973</v>
+        <v>4.380000114440918</v>
       </c>
       <c r="C107">
-        <v>3.799999952316284</v>
+        <v>4.050000190734863</v>
       </c>
       <c r="D107">
-        <v>3.859999895095825</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="E107">
-        <v>3.859999895095825</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="F107">
-        <v>28075400</v>
+        <v>15721500</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>3.910000085830688</v>
+        <v>4.21999979019165</v>
       </c>
       <c r="B108">
-        <v>3.980000019073486</v>
+        <v>4.550000190734863</v>
       </c>
       <c r="C108">
-        <v>3.5</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="D108">
-        <v>3.559999942779541</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="E108">
-        <v>3.559999942779541</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="F108">
-        <v>28877100</v>
+        <v>22408900</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>3.579999923706055</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="B109">
-        <v>3.700000047683716</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="C109">
-        <v>3.400000095367432</v>
+        <v>4.289999961853027</v>
       </c>
       <c r="D109">
-        <v>3.680000066757202</v>
+        <v>4.519999980926514</v>
       </c>
       <c r="E109">
-        <v>3.680000066757202</v>
+        <v>4.519999980926514</v>
       </c>
       <c r="F109">
-        <v>21240900</v>
+        <v>15042900</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>3.680000066757202</v>
+        <v>4.630000114440918</v>
       </c>
       <c r="B110">
-        <v>4.260000228881836</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="C110">
-        <v>3.680000066757202</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="D110">
-        <v>4.239999771118164</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="E110">
-        <v>4.239999771118164</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="F110">
-        <v>27876100</v>
+        <v>18484200</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>4.329999923706055</v>
+        <v>4.690000057220459</v>
       </c>
       <c r="B111">
-        <v>4.599999904632568</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="C111">
-        <v>4.199999809265137</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="D111">
-        <v>4.460000038146973</v>
+        <v>4.820000171661377</v>
       </c>
       <c r="E111">
-        <v>4.460000038146973</v>
+        <v>4.820000171661377</v>
       </c>
       <c r="F111">
-        <v>27707300</v>
+        <v>23555600</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>4.510000228881836</v>
+        <v>4.840000152587891</v>
       </c>
       <c r="B112">
-        <v>4.519999980926514</v>
+        <v>5.039999961853027</v>
       </c>
       <c r="C112">
-        <v>4.139999866485596</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="D112">
-        <v>4.190000057220459</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="E112">
-        <v>4.190000057220459</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="F112">
-        <v>22492300</v>
+        <v>20516500</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>4.010000228881836</v>
+        <v>4.53000020980835</v>
       </c>
       <c r="B113">
-        <v>4.28000020980835</v>
+        <v>4.840000152587891</v>
       </c>
       <c r="C113">
-        <v>3.990000009536743</v>
+        <v>4.53000020980835</v>
       </c>
       <c r="D113">
-        <v>4.070000171661377</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="E113">
-        <v>4.070000171661377</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="F113">
-        <v>21628800</v>
+        <v>15466900</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>4.110000133514404</v>
+        <v>4.75</v>
       </c>
       <c r="B114">
-        <v>4.380000114440918</v>
+        <v>5.519999980926514</v>
       </c>
       <c r="C114">
-        <v>4.050000190734863</v>
+        <v>4.71999979019165</v>
       </c>
       <c r="D114">
-        <v>4.28000020980835</v>
+        <v>5.489999771118164</v>
       </c>
       <c r="E114">
-        <v>4.28000020980835</v>
+        <v>5.489999771118164</v>
       </c>
       <c r="F114">
-        <v>15721500</v>
+        <v>33935200</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>4.21999979019165</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="B115">
-        <v>4.550000190734863</v>
+        <v>5.570000171661377</v>
       </c>
       <c r="C115">
-        <v>4.210000038146973</v>
+        <v>5.210000038146973</v>
       </c>
       <c r="D115">
-        <v>4.369999885559082</v>
+        <v>5.5</v>
       </c>
       <c r="E115">
-        <v>4.369999885559082</v>
+        <v>5.5</v>
       </c>
       <c r="F115">
-        <v>22408900</v>
+        <v>24071600</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>4.329999923706055</v>
+        <v>5.360000133514404</v>
       </c>
       <c r="B116">
-        <v>4.539999961853027</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="C116">
-        <v>4.289999961853027</v>
+        <v>5.210000038146973</v>
       </c>
       <c r="D116">
-        <v>4.519999980926514</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="E116">
-        <v>4.519999980926514</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="F116">
-        <v>15042900</v>
+        <v>18684700</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>4.630000114440918</v>
+        <v>5.25</v>
       </c>
       <c r="B117">
-        <v>4.829999923706055</v>
+        <v>5.25</v>
       </c>
       <c r="C117">
-        <v>4.539999961853027</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="D117">
-        <v>4.809999942779541</v>
+        <v>5.010000228881836</v>
       </c>
       <c r="E117">
-        <v>4.809999942779541</v>
+        <v>5.010000228881836</v>
       </c>
       <c r="F117">
-        <v>18484200</v>
+        <v>18215400</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
+        <v>4.809999942779541</v>
+      </c>
+      <c r="B118">
+        <v>5.059999942779541</v>
+      </c>
+      <c r="C118">
         <v>4.690000057220459</v>
       </c>
-      <c r="B118">
-        <v>5.099999904632568</v>
-      </c>
-      <c r="C118">
-        <v>4.590000152587891</v>
-      </c>
       <c r="D118">
-        <v>4.820000171661377</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="E118">
-        <v>4.820000171661377</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="F118">
-        <v>23555600</v>
+        <v>16994900</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>4.840000152587891</v>
+        <v>4.889999866485596</v>
       </c>
       <c r="B119">
-        <v>5.039999961853027</v>
+        <v>4.949999809265137</v>
       </c>
       <c r="C119">
-        <v>4.579999923706055</v>
+        <v>4.659999847412109</v>
       </c>
       <c r="D119">
-        <v>4.639999866485596</v>
+        <v>4.679999828338623</v>
       </c>
       <c r="E119">
-        <v>4.639999866485596</v>
+        <v>4.679999828338623</v>
       </c>
       <c r="F119">
-        <v>20516500</v>
+        <v>14574800</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>4.53000020980835</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="B120">
-        <v>4.840000152587891</v>
+        <v>5.300000190734863</v>
       </c>
       <c r="C120">
-        <v>4.53000020980835</v>
+        <v>4.25</v>
       </c>
       <c r="D120">
-        <v>4.619999885559082</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="E120">
-        <v>4.619999885559082</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="F120">
-        <v>15466900</v>
+        <v>27836400</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="B121">
-        <v>5.519999980926514</v>
+        <v>5.380000114440918</v>
       </c>
       <c r="C121">
-        <v>4.71999979019165</v>
+        <v>5.010000228881836</v>
       </c>
       <c r="D121">
-        <v>5.489999771118164</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="E121">
-        <v>5.489999771118164</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="F121">
-        <v>34067200</v>
+        <v>21020000</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>5.329999923706055</v>
+        <v>5.610000133514404</v>
       </c>
       <c r="B122">
-        <v>5.570000171661377</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="C122">
-        <v>5.210000038146973</v>
+        <v>5.460000038146973</v>
       </c>
       <c r="D122">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="E122">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="F122">
-        <v>24071600</v>
+        <v>44833000</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>5.360000133514404</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="B123">
-        <v>5.630000114440918</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="C123">
-        <v>5.210000038146973</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="D123">
-        <v>5.260000228881836</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="E123">
-        <v>5.260000228881836</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="F123">
-        <v>18684700</v>
+        <v>31642700</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>5.25</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="B124">
-        <v>5.25</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="C124">
-        <v>4.900000095367432</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="D124">
-        <v>5.010000228881836</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="E124">
-        <v>5.010000228881836</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="F124">
-        <v>18186900</v>
+        <v>21168100</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>4.809999942779541</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="B125">
-        <v>5.059999942779541</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="C125">
-        <v>4.690000057220459</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="D125">
-        <v>4.739999771118164</v>
+        <v>5.690000057220459</v>
       </c>
       <c r="E125">
-        <v>4.739999771118164</v>
+        <v>5.690000057220459</v>
       </c>
       <c r="F125">
-        <v>16994900</v>
+        <v>16245500</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>4.889999866485596</v>
+        <v>5.639999866485596</v>
       </c>
       <c r="B126">
-        <v>4.949999809265137</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="C126">
-        <v>4.659999847412109</v>
+        <v>5.389999866485596</v>
       </c>
       <c r="D126">
-        <v>4.679999828338623</v>
+        <v>5.440000057220459</v>
       </c>
       <c r="E126">
-        <v>4.679999828338623</v>
+        <v>5.440000057220459</v>
       </c>
       <c r="F126">
-        <v>14574800</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>4.309999942779541</v>
-      </c>
-      <c r="B127">
-        <v>5.300000190734863</v>
-      </c>
-      <c r="C127">
-        <v>4.25</v>
-      </c>
-      <c r="D127">
-        <v>5.260000228881836</v>
-      </c>
-      <c r="E127">
-        <v>5.260000228881836</v>
-      </c>
-      <c r="F127">
-        <v>27836400</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>5.25</v>
-      </c>
-      <c r="B128">
-        <v>5.380000114440918</v>
-      </c>
-      <c r="C128">
-        <v>5.010000228881836</v>
-      </c>
-      <c r="D128">
-        <v>5.28000020980835</v>
-      </c>
-      <c r="E128">
-        <v>5.28000020980835</v>
-      </c>
-      <c r="F128">
-        <v>21004200</v>
+        <v>17160059</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/FCEL/HighLow.xlsx
+++ b/Stocks/FCEL/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,1702 +417,1702 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>6.150000095367432</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="B2">
-        <v>6.329999923706055</v>
+        <v>5.75</v>
       </c>
       <c r="C2">
-        <v>5.989999771118164</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="F2">
-        <v>15292000</v>
+        <v>22075100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>6.019999980926514</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="B3">
-        <v>6.059999942779541</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="C3">
-        <v>5.690000057220459</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="D3">
-        <v>5.71999979019165</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E3">
-        <v>5.71999979019165</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F3">
-        <v>17939600</v>
+        <v>214559900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>5.739999771118164</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="B4">
-        <v>6.039999961853027</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="C4">
-        <v>5.699999809265137</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D4">
-        <v>5.820000171661377</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E4">
-        <v>5.820000171661377</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F4">
-        <v>14641800</v>
+        <v>59485900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>5.96999979019165</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B5">
-        <v>5.96999979019165</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="C5">
-        <v>5.550000190734863</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>5.579999923706055</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="E5">
-        <v>5.579999923706055</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="F5">
-        <v>19485900</v>
+        <v>20369000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>5.619999885559082</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="B6">
-        <v>5.75</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="C6">
-        <v>5.340000152587891</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="D6">
-        <v>5.619999885559082</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="E6">
-        <v>5.619999885559082</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="F6">
-        <v>22075100</v>
+        <v>31480400</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>6.199999809265137</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="B7">
-        <v>7.539999961853027</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="C7">
+        <v>5.96999979019165</v>
+      </c>
+      <c r="D7">
         <v>6.119999885559082</v>
       </c>
-      <c r="D7">
-        <v>6.440000057220459</v>
-      </c>
       <c r="E7">
-        <v>6.440000057220459</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F7">
-        <v>214559900</v>
+        <v>23518100</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>6.480000019073486</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="B8">
-        <v>6.610000133514404</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="C8">
-        <v>5.889999866485596</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="D8">
-        <v>6.139999866485596</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>6.139999866485596</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>59485900</v>
+        <v>18779700</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>6.070000171661377</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="B9">
-        <v>6.289999961853027</v>
+        <v>6.75</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="D9">
-        <v>6.150000095367432</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="E9">
-        <v>6.150000095367432</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="F9">
-        <v>20369000</v>
+        <v>34335200</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>6.170000076293945</v>
+        <v>6.760000228881836</v>
       </c>
       <c r="B10">
-        <v>6.550000190734863</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C10">
-        <v>6.130000114440918</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D10">
-        <v>6.550000190734863</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="E10">
-        <v>6.550000190734863</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="F10">
-        <v>31480400</v>
+        <v>39926500</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>6.239999771118164</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B11">
-        <v>6.380000114440918</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="C11">
-        <v>5.96999979019165</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="D11">
-        <v>6.119999885559082</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="E11">
-        <v>6.119999885559082</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="F11">
-        <v>23518100</v>
+        <v>20537600</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>6.269999980926514</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B12">
-        <v>6.300000190734863</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C12">
-        <v>5.949999809265137</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="F12">
-        <v>18779700</v>
+        <v>32138700</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>6.039999961853027</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="B13">
-        <v>6.75</v>
+        <v>7.860000133514404</v>
       </c>
       <c r="C13">
-        <v>6.010000228881836</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="D13">
-        <v>6.659999847412109</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="E13">
-        <v>6.659999847412109</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="F13">
-        <v>34335200</v>
+        <v>27209500</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>6.760000228881836</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="B14">
-        <v>7.309999942779541</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="C14">
-        <v>6.610000133514404</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D14">
-        <v>7.239999771118164</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="E14">
-        <v>7.239999771118164</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="F14">
-        <v>39926500</v>
+        <v>25907200</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>7.050000190734863</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B15">
-        <v>7.239999771118164</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C15">
-        <v>6.949999809265137</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D15">
-        <v>6.96999979019165</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="E15">
-        <v>6.96999979019165</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="F15">
-        <v>20537600</v>
+        <v>15831500</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>7.059999942779541</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="B16">
-        <v>7.789999961853027</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="C16">
-        <v>7.03000020980835</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="D16">
-        <v>7.650000095367432</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="E16">
-        <v>7.650000095367432</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="F16">
-        <v>32138700</v>
+        <v>16087800</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>7.480000019073486</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="B17">
-        <v>7.860000133514404</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="C17">
-        <v>7.170000076293945</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D17">
-        <v>7.190000057220459</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>7.190000057220459</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>27209500</v>
+        <v>19212300</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>7.320000171661377</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="B18">
-        <v>7.349999904632568</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="C18">
-        <v>6.559999942779541</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="D18">
-        <v>6.570000171661377</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="E18">
-        <v>6.570000171661377</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="F18">
-        <v>25907200</v>
+        <v>16756400</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>6.619999885559082</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="B19">
-        <v>6.840000152587891</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="C19">
-        <v>6.559999942779541</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="D19">
-        <v>6.690000057220459</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="E19">
-        <v>6.690000057220459</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="F19">
-        <v>15831500</v>
+        <v>14496300</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>6.739999771118164</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="B20">
-        <v>6.809999942779541</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="C20">
-        <v>6.369999885559082</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="D20">
-        <v>6.429999828338623</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="E20">
-        <v>6.429999828338623</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="F20">
-        <v>16087800</v>
+        <v>17549900</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>6.349999904632568</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="B21">
-        <v>6.369999885559082</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="C21">
-        <v>5.940000057220459</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="F21">
-        <v>19212300</v>
+        <v>13090500</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>6.099999904632568</v>
+        <v>6.369999885559082</v>
       </c>
       <c r="B22">
-        <v>6.28000020980835</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="C22">
-        <v>5.980000019073486</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="D22">
-        <v>6.039999961853027</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="E22">
-        <v>6.039999961853027</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="F22">
-        <v>16756400</v>
+        <v>19742200</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>5.900000095367432</v>
+        <v>6.75</v>
       </c>
       <c r="B23">
-        <v>6.199999809265137</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="C23">
-        <v>5.860000133514404</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="D23">
-        <v>6.070000171661377</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E23">
-        <v>6.070000171661377</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F23">
-        <v>14496300</v>
+        <v>18894600</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>6.119999885559082</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="B24">
-        <v>6.460000038146973</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C24">
-        <v>6.03000020980835</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="D24">
-        <v>6.360000133514404</v>
+        <v>7.25</v>
       </c>
       <c r="E24">
-        <v>6.360000133514404</v>
+        <v>7.25</v>
       </c>
       <c r="F24">
-        <v>17549900</v>
+        <v>29360600</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>6.400000095367432</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="B25">
-        <v>6.599999904632568</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="C25">
-        <v>6.340000152587891</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="D25">
-        <v>6.389999866485596</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="E25">
-        <v>6.389999866485596</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="F25">
-        <v>13090500</v>
+        <v>39061800</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>6.369999885559082</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="B26">
-        <v>6.96999979019165</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="C26">
-        <v>6.349999904632568</v>
+        <v>7.130000114440918</v>
       </c>
       <c r="D26">
-        <v>6.710000038146973</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E26">
-        <v>6.710000038146973</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F26">
-        <v>19742200</v>
+        <v>45530600</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>6.75</v>
+        <v>7.690000057220459</v>
       </c>
       <c r="B27">
-        <v>7.039999961853027</v>
+        <v>8.930000305175781</v>
       </c>
       <c r="C27">
-        <v>6.710000038146973</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="D27">
-        <v>6.920000076293945</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="E27">
-        <v>6.920000076293945</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="F27">
-        <v>18894600</v>
+        <v>158157900</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>7.199999809265137</v>
+        <v>8.649999618530273</v>
       </c>
       <c r="B28">
-        <v>7.309999942779541</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="C28">
-        <v>6.929999828338623</v>
+        <v>8.029999732971191</v>
       </c>
       <c r="D28">
-        <v>7.25</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="E28">
-        <v>7.25</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="F28">
-        <v>29360600</v>
+        <v>133341000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>7.380000114440918</v>
+        <v>8.449999809265137</v>
       </c>
       <c r="B29">
-        <v>7.440000057220459</v>
+        <v>8.659999847412109</v>
       </c>
       <c r="C29">
-        <v>6.869999885559082</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="D29">
-        <v>7.21999979019165</v>
+        <v>8.130000114440918</v>
       </c>
       <c r="E29">
-        <v>7.21999979019165</v>
+        <v>8.130000114440918</v>
       </c>
       <c r="F29">
-        <v>39061800</v>
+        <v>53993700</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>7.260000228881836</v>
+        <v>8.170000076293945</v>
       </c>
       <c r="B30">
-        <v>7.849999904632568</v>
+        <v>8.789999961853027</v>
       </c>
       <c r="C30">
-        <v>7.130000114440918</v>
+        <v>8.039999961853027</v>
       </c>
       <c r="D30">
-        <v>7.389999866485596</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="E30">
-        <v>7.389999866485596</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="F30">
-        <v>45530600</v>
+        <v>63505200</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>7.690000057220459</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="B31">
-        <v>8.930000305175781</v>
+        <v>8.189999580383301</v>
       </c>
       <c r="C31">
-        <v>7.670000076293945</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="D31">
-        <v>8.739999771118164</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E31">
-        <v>8.739999771118164</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F31">
-        <v>158157900</v>
+        <v>45161200</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>8.649999618530273</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="B32">
-        <v>8.899999618530273</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C32">
-        <v>8.029999732971191</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="D32">
-        <v>8.590000152587891</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="E32">
-        <v>8.590000152587891</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="F32">
-        <v>133341000</v>
+        <v>32354000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>8.449999809265137</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="B33">
-        <v>8.659999847412109</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C33">
-        <v>8.050000190734863</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="D33">
-        <v>8.130000114440918</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="E33">
-        <v>8.130000114440918</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="F33">
-        <v>53993700</v>
+        <v>27876700</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>8.170000076293945</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="B34">
-        <v>8.789999961853027</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="C34">
-        <v>8.039999961853027</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="D34">
-        <v>8.109999656677246</v>
+        <v>7</v>
       </c>
       <c r="E34">
-        <v>8.109999656677246</v>
+        <v>7</v>
       </c>
       <c r="F34">
-        <v>63505200</v>
+        <v>24447100</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>8.050000190734863</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B35">
-        <v>8.189999580383301</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="C35">
-        <v>7.210000038146973</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D35">
-        <v>7.289999961853027</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="E35">
-        <v>7.289999961853027</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="F35">
-        <v>45161200</v>
+        <v>52828600</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>7.420000076293945</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="B36">
-        <v>7.559999942779541</v>
+        <v>8.060000419616699</v>
       </c>
       <c r="C36">
-        <v>7.159999847412109</v>
+        <v>7.5</v>
       </c>
       <c r="D36">
-        <v>7.539999961853027</v>
+        <v>7.989999771118164</v>
       </c>
       <c r="E36">
-        <v>7.539999961853027</v>
+        <v>7.989999771118164</v>
       </c>
       <c r="F36">
-        <v>32354000</v>
+        <v>33618200</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>7.590000152587891</v>
+        <v>8.279999732971191</v>
       </c>
       <c r="B37">
-        <v>7.789999961853027</v>
+        <v>9.649999618530273</v>
       </c>
       <c r="C37">
-        <v>7.110000133514404</v>
+        <v>8.25</v>
       </c>
       <c r="D37">
-        <v>7.170000076293945</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="E37">
-        <v>7.170000076293945</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="F37">
-        <v>27876700</v>
+        <v>81021500</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>7.239999771118164</v>
+        <v>9.899999618530273</v>
       </c>
       <c r="B38">
-        <v>7.539999961853027</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="C38">
-        <v>6.960000038146973</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="F38">
-        <v>24447100</v>
+        <v>82411400</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>7.019999980926514</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B39">
-        <v>7.940000057220459</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="C39">
-        <v>7.010000228881836</v>
+        <v>8.779999732971191</v>
       </c>
       <c r="D39">
-        <v>7.570000171661377</v>
+        <v>9.479999542236328</v>
       </c>
       <c r="E39">
-        <v>7.570000171661377</v>
+        <v>9.479999542236328</v>
       </c>
       <c r="F39">
-        <v>52828600</v>
+        <v>33335700</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>7.559999942779541</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="B40">
-        <v>8.060000419616699</v>
+        <v>9.630000114440918</v>
       </c>
       <c r="C40">
-        <v>7.5</v>
+        <v>9.119999885559082</v>
       </c>
       <c r="D40">
-        <v>7.989999771118164</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="E40">
-        <v>7.989999771118164</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="F40">
-        <v>33618200</v>
+        <v>28500800</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>8.279999732971191</v>
+        <v>9.130000114440918</v>
       </c>
       <c r="B41">
-        <v>9.649999618530273</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="C41">
-        <v>8.25</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="D41">
-        <v>9.529999732971191</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="E41">
-        <v>9.529999732971191</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="F41">
-        <v>81021500</v>
+        <v>23868500</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>9.899999618530273</v>
+        <v>9.560000419616699</v>
       </c>
       <c r="B42">
-        <v>9.989999771118164</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="C42">
-        <v>8.970000267028809</v>
+        <v>9.449999809265137</v>
       </c>
       <c r="D42">
-        <v>9.430000305175781</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="E42">
-        <v>9.430000305175781</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="F42">
-        <v>82411400</v>
+        <v>88991800</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>8.989999771118164</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="B43">
-        <v>9.550000190734863</v>
+        <v>11</v>
       </c>
       <c r="C43">
-        <v>8.779999732971191</v>
+        <v>9.850000381469727</v>
       </c>
       <c r="D43">
-        <v>9.479999542236328</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="E43">
-        <v>9.479999542236328</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="F43">
-        <v>33335700</v>
+        <v>46187600</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>9.609999656677246</v>
+        <v>10.25</v>
       </c>
       <c r="B44">
-        <v>9.630000114440918</v>
+        <v>10.96000003814697</v>
       </c>
       <c r="C44">
-        <v>9.119999885559082</v>
+        <v>9.960000038146973</v>
       </c>
       <c r="D44">
-        <v>9.279999732971191</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="E44">
-        <v>9.279999732971191</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F44">
-        <v>28500800</v>
+        <v>35711100</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>9.130000114440918</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="B45">
-        <v>9.279999732971191</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="C45">
-        <v>8.680000305175781</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="D45">
-        <v>8.949999809265137</v>
+        <v>11.11999988555908</v>
       </c>
       <c r="E45">
-        <v>8.949999809265137</v>
+        <v>11.11999988555908</v>
       </c>
       <c r="F45">
-        <v>23868500</v>
+        <v>45159100</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>9.560000419616699</v>
+        <v>11.25</v>
       </c>
       <c r="B46">
-        <v>11.22000026702881</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="C46">
-        <v>9.449999809265137</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="D46">
-        <v>10.8100004196167</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="E46">
-        <v>10.8100004196167</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="F46">
-        <v>88991800</v>
+        <v>34855600</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>10.93000030517578</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="C47">
-        <v>9.850000381469727</v>
+        <v>10.51000022888184</v>
       </c>
       <c r="D47">
-        <v>10.82999992370605</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="E47">
-        <v>10.82999992370605</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="F47">
-        <v>46187600</v>
+        <v>31722900</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>10.25</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="B48">
-        <v>10.96000003814697</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="C48">
-        <v>9.960000038146973</v>
+        <v>9.909999847412109</v>
       </c>
       <c r="D48">
-        <v>10.23999977111816</v>
+        <v>10.59000015258789</v>
       </c>
       <c r="E48">
-        <v>10.23999977111816</v>
+        <v>10.59000015258789</v>
       </c>
       <c r="F48">
-        <v>35711100</v>
+        <v>29685800</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>10.42000007629395</v>
+        <v>10.32999992370605</v>
       </c>
       <c r="B49">
-        <v>11.46000003814697</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="C49">
-        <v>10.10000038146973</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="D49">
-        <v>11.11999988555908</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="E49">
-        <v>11.11999988555908</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F49">
-        <v>45159100</v>
+        <v>23815200</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>11.25</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="B50">
-        <v>11.63000011444092</v>
+        <v>10.26000022888184</v>
       </c>
       <c r="C50">
-        <v>10.80000019073486</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="D50">
-        <v>11.22999954223633</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="E50">
-        <v>11.22999954223633</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="F50">
-        <v>34855600</v>
+        <v>33549300</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>11.39999961853027</v>
+        <v>9.470000267028809</v>
       </c>
       <c r="B51">
-        <v>11.53999996185303</v>
+        <v>10.21000003814697</v>
       </c>
       <c r="C51">
-        <v>10.51000022888184</v>
+        <v>9.460000038146973</v>
       </c>
       <c r="D51">
-        <v>10.77000045776367</v>
+        <v>9.810000419616699</v>
       </c>
       <c r="E51">
-        <v>10.77000045776367</v>
+        <v>9.810000419616699</v>
       </c>
       <c r="F51">
-        <v>31722900</v>
+        <v>24708500</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>10.52999973297119</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="B52">
-        <v>10.69999980926514</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="C52">
-        <v>9.909999847412109</v>
+        <v>9.189999580383301</v>
       </c>
       <c r="D52">
-        <v>10.59000015258789</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="E52">
-        <v>10.59000015258789</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="F52">
-        <v>29685800</v>
+        <v>27188200</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>10.32999992370605</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="B53">
-        <v>11.07999992370605</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="C53">
-        <v>10.19999980926514</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="D53">
-        <v>10.23999977111816</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="E53">
-        <v>10.23999977111816</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="F53">
-        <v>23815200</v>
+        <v>20635300</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>10.22000026702881</v>
+        <v>9.239999771118164</v>
       </c>
       <c r="B54">
-        <v>10.26000022888184</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="C54">
-        <v>9.149999618530273</v>
+        <v>8.869999885559082</v>
       </c>
       <c r="D54">
-        <v>9.460000038146973</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="E54">
-        <v>9.460000038146973</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="F54">
-        <v>33549300</v>
+        <v>16153500</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>9.470000267028809</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B55">
-        <v>10.21000003814697</v>
+        <v>9.310000419616699</v>
       </c>
       <c r="C55">
-        <v>9.460000038146973</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="D55">
-        <v>9.810000419616699</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="E55">
-        <v>9.810000419616699</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="F55">
-        <v>24708500</v>
+        <v>20332600</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>10.02999973297119</v>
+        <v>9.020000457763672</v>
       </c>
       <c r="B56">
-        <v>10.1899995803833</v>
+        <v>9.180000305175781</v>
       </c>
       <c r="C56">
-        <v>9.189999580383301</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="D56">
-        <v>9.409999847412109</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="E56">
-        <v>9.409999847412109</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="F56">
-        <v>27188200</v>
+        <v>18152700</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>9.270000457763672</v>
+        <v>8.779999732971191</v>
       </c>
       <c r="B57">
-        <v>9.600000381469727</v>
+        <v>9.069999694824219</v>
       </c>
       <c r="C57">
-        <v>8.949999809265137</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="D57">
-        <v>9.369999885559082</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="E57">
-        <v>9.369999885559082</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="F57">
-        <v>20635300</v>
+        <v>21312200</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>9.239999771118164</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="B58">
-        <v>9.609999656677246</v>
+        <v>9</v>
       </c>
       <c r="C58">
-        <v>8.869999885559082</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="D58">
-        <v>9.529999732971191</v>
+        <v>7.96999979019165</v>
       </c>
       <c r="E58">
-        <v>9.529999732971191</v>
+        <v>7.96999979019165</v>
       </c>
       <c r="F58">
-        <v>16153500</v>
+        <v>23581900</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>8.989999771118164</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="B59">
-        <v>9.310000419616699</v>
+        <v>8.340000152587891</v>
       </c>
       <c r="C59">
-        <v>8.590000152587891</v>
+        <v>7.769999980926514</v>
       </c>
       <c r="D59">
-        <v>8.939999580383301</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="E59">
-        <v>8.939999580383301</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="F59">
-        <v>20332600</v>
+        <v>21694500</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>9.020000457763672</v>
+        <v>8.159999847412109</v>
       </c>
       <c r="B60">
-        <v>9.180000305175781</v>
+        <v>8.159999847412109</v>
       </c>
       <c r="C60">
-        <v>8.600000381469727</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="D60">
-        <v>8.920000076293945</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E60">
-        <v>8.920000076293945</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F60">
-        <v>18152700</v>
+        <v>32650900</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>8.779999732971191</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="B61">
-        <v>9.069999694824219</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C61">
-        <v>8.149999618530273</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="D61">
-        <v>8.680000305175781</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="E61">
-        <v>8.680000305175781</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="F61">
-        <v>21312200</v>
+        <v>24345400</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>8.859999656677246</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="B62">
-        <v>9</v>
+        <v>7.829999923706055</v>
       </c>
       <c r="C62">
-        <v>7.940000057220459</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="D62">
-        <v>7.96999979019165</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="E62">
-        <v>7.96999979019165</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="F62">
-        <v>23581900</v>
+        <v>20545500</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>7.840000152587891</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="B63">
-        <v>8.340000152587891</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="C63">
-        <v>7.769999980926514</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="D63">
-        <v>8.149999618530273</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="E63">
-        <v>8.149999618530273</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="F63">
-        <v>21694500</v>
+        <v>14039600</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>8.159999847412109</v>
+        <v>7.5</v>
       </c>
       <c r="B64">
-        <v>8.159999847412109</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="C64">
-        <v>7.090000152587891</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D64">
-        <v>7.289999961853027</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E64">
-        <v>7.289999961853027</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F64">
-        <v>32650900</v>
+        <v>19226400</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>7.150000095367432</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="B65">
-        <v>7.389999866485596</v>
+        <v>7.25</v>
       </c>
       <c r="C65">
-        <v>6.739999771118164</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="D65">
-        <v>7.199999809265137</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="E65">
-        <v>7.199999809265137</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="F65">
-        <v>24345400</v>
+        <v>17697500</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>7.519999980926514</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="B66">
-        <v>7.829999923706055</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="C66">
-        <v>7.420000076293945</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="D66">
-        <v>7.550000190734863</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="E66">
-        <v>7.550000190734863</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="F66">
-        <v>20545500</v>
+        <v>18939100</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>7.519999980926514</v>
+        <v>6.650000095367432</v>
       </c>
       <c r="B67">
-        <v>7.789999961853027</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="C67">
-        <v>7.300000190734863</v>
+        <v>6.25</v>
       </c>
       <c r="D67">
-        <v>7.610000133514404</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="E67">
-        <v>7.610000133514404</v>
+        <v>6.329999923706055</v>
       </c>
       <c r="F67">
-        <v>14039600</v>
+        <v>28814000</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>7.5</v>
+        <v>6.260000228881836</v>
       </c>
       <c r="B68">
-        <v>7.670000076293945</v>
+        <v>6.650000095367432</v>
       </c>
       <c r="C68">
-        <v>6.96999979019165</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="D68">
-        <v>7.010000228881836</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="E68">
-        <v>7.010000228881836</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="F68">
-        <v>19226400</v>
+        <v>23657400</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>7.070000171661377</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="B69">
-        <v>7.25</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="C69">
-        <v>6.800000190734863</v>
+        <v>6.190000057220459</v>
       </c>
       <c r="D69">
-        <v>6.929999828338623</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="E69">
-        <v>6.929999828338623</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="F69">
-        <v>17697500</v>
+        <v>24586500</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>6.900000095367432</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="B70">
-        <v>7.110000133514404</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="C70">
-        <v>6.670000076293945</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="D70">
-        <v>6.889999866485596</v>
+        <v>6.309999942779541</v>
       </c>
       <c r="E70">
-        <v>6.889999866485596</v>
+        <v>6.309999942779541</v>
       </c>
       <c r="F70">
-        <v>18939100</v>
+        <v>27393100</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>6.650000095367432</v>
+        <v>6</v>
       </c>
       <c r="B71">
-        <v>6.699999809265137</v>
+        <v>6.179999828338623</v>
       </c>
       <c r="C71">
-        <v>6.25</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="D71">
-        <v>6.329999923706055</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="E71">
-        <v>6.329999923706055</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="F71">
-        <v>28814000</v>
+        <v>16874500</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>6.260000228881836</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="B72">
-        <v>6.650000095367432</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="C72">
-        <v>6.079999923706055</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="D72">
-        <v>6.53000020980835</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="E72">
-        <v>6.53000020980835</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="F72">
-        <v>23657400</v>
+        <v>16683300</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>6.730000019073486</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="B73">
-        <v>6.800000190734863</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="C73">
-        <v>6.190000057220459</v>
+        <v>6.25</v>
       </c>
       <c r="D73">
-        <v>6.269999980926514</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="E73">
-        <v>6.269999980926514</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="F73">
-        <v>24586500</v>
+        <v>13093000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>6.150000095367432</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="B74">
-        <v>6.480000019073486</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="C74">
-        <v>5.920000076293945</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="D74">
-        <v>6.309999942779541</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="E74">
-        <v>6.309999942779541</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="F74">
-        <v>27393100</v>
+        <v>14842900</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>6</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="B75">
-        <v>6.179999828338623</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="C75">
-        <v>5.909999847412109</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="D75">
-        <v>6.050000190734863</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="E75">
-        <v>6.050000190734863</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="F75">
-        <v>16874500</v>
+        <v>34336500</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>6.099999904632568</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="B76">
-        <v>6.46999979019165</v>
+        <v>6.25</v>
       </c>
       <c r="C76">
-        <v>6.090000152587891</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="D76">
-        <v>6.409999847412109</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="E76">
-        <v>6.409999847412109</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="F76">
-        <v>16683300</v>
+        <v>28962000</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>6.320000171661377</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="B77">
-        <v>6.53000020980835</v>
+        <v>5.300000190734863</v>
       </c>
       <c r="C77">
-        <v>6.25</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="D77">
-        <v>6.400000095367432</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="E77">
-        <v>6.400000095367432</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="F77">
-        <v>13093000</v>
+        <v>67673000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>6.440000057220459</v>
+        <v>5.059999942779541</v>
       </c>
       <c r="B78">
-        <v>6.550000190734863</v>
+        <v>5.5</v>
       </c>
       <c r="C78">
-        <v>6.199999809265137</v>
+        <v>5.050000190734863</v>
       </c>
       <c r="D78">
-        <v>6.460000038146973</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="E78">
-        <v>6.460000038146973</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="F78">
-        <v>14842900</v>
+        <v>30972900</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>6.860000133514404</v>
+        <v>5.289999961853027</v>
       </c>
       <c r="B79">
-        <v>6.949999809265137</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="C79">
-        <v>6.239999771118164</v>
+        <v>5.190000057220459</v>
       </c>
       <c r="D79">
-        <v>6.300000190734863</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="E79">
-        <v>6.300000190734863</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="F79">
-        <v>34336500</v>
+        <v>21596300</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>6.139999866485596</v>
+        <v>5.349999904632568</v>
       </c>
       <c r="B80">
-        <v>6.25</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="C80">
-        <v>5.840000152587891</v>
+        <v>5.25</v>
       </c>
       <c r="D80">
-        <v>5.869999885559082</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="E80">
-        <v>5.869999885559082</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="F80">
-        <v>28962000</v>
+        <v>31252400</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>5.130000114440918</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="B81">
-        <v>5.300000190734863</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="C81">
-        <v>4.829999923706055</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="D81">
-        <v>5.110000133514404</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="E81">
-        <v>5.110000133514404</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="F81">
-        <v>67673000</v>
+        <v>27299300</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>5.059999942779541</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="B82">
-        <v>5.5</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="C82">
-        <v>5.050000190734863</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="D82">
-        <v>5.329999923706055</v>
+        <v>5.320000171661377</v>
       </c>
       <c r="E82">
-        <v>5.329999923706055</v>
+        <v>5.320000171661377</v>
       </c>
       <c r="F82">
-        <v>30972900</v>
+        <v>22666300</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>5.289999961853027</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="B83">
-        <v>5.510000228881836</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="C83">
-        <v>5.190000057220459</v>
+        <v>4.989999771118164</v>
       </c>
       <c r="D83">
-        <v>5.199999809265137</v>
+        <v>5.139999866485596</v>
       </c>
       <c r="E83">
-        <v>5.199999809265137</v>
+        <v>5.139999866485596</v>
       </c>
       <c r="F83">
-        <v>21596300</v>
+        <v>21000100</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>5.349999904632568</v>
+        <v>5.190000057220459</v>
       </c>
       <c r="B84">
-        <v>5.889999866485596</v>
+        <v>5.360000133514404</v>
       </c>
       <c r="C84">
-        <v>5.25</v>
+        <v>5.059999942779541</v>
       </c>
       <c r="D84">
-        <v>5.78000020980835</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="E84">
-        <v>5.78000020980835</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="F84">
-        <v>31252400</v>
+        <v>18317500</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>5.800000190734863</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="B85">
-        <v>5.889999866485596</v>
+        <v>5.050000190734863</v>
       </c>
       <c r="C85">
-        <v>5.46999979019165</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="D85">
-        <v>5.880000114440918</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="E85">
-        <v>5.880000114440918</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="F85">
-        <v>27299300</v>
+        <v>22386900</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>5.760000228881836</v>
+        <v>5</v>
       </c>
       <c r="B86">
-        <v>5.849999904632568</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="C86">
-        <v>5.260000228881836</v>
+        <v>4.920000076293945</v>
       </c>
       <c r="D86">
-        <v>5.320000171661377</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="E86">
-        <v>5.320000171661377</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="F86">
-        <v>22666300</v>
+        <v>21182500</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2120,590 +2120,590 @@
         <v>5.28000020980835</v>
       </c>
       <c r="B87">
-        <v>5.409999847412109</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="C87">
-        <v>4.989999771118164</v>
+        <v>5.010000228881836</v>
       </c>
       <c r="D87">
-        <v>5.139999866485596</v>
+        <v>5.070000171661377</v>
       </c>
       <c r="E87">
-        <v>5.139999866485596</v>
+        <v>5.070000171661377</v>
       </c>
       <c r="F87">
-        <v>21000100</v>
+        <v>17923500</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>5.190000057220459</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="B88">
-        <v>5.360000133514404</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="C88">
-        <v>5.059999942779541</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="D88">
-        <v>5.099999904632568</v>
+        <v>4.869999885559082</v>
       </c>
       <c r="E88">
-        <v>5.099999904632568</v>
+        <v>4.869999885559082</v>
       </c>
       <c r="F88">
-        <v>18317500</v>
+        <v>20043500</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>4.96999979019165</v>
+        <v>4.789999961853027</v>
       </c>
       <c r="B89">
-        <v>5.050000190734863</v>
+        <v>4.960000038146973</v>
       </c>
       <c r="C89">
-        <v>4.800000190734863</v>
+        <v>4.679999828338623</v>
       </c>
       <c r="D89">
-        <v>4.96999979019165</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="E89">
-        <v>4.96999979019165</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="F89">
-        <v>22386900</v>
+        <v>20219000</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>5</v>
+        <v>4.760000228881836</v>
       </c>
       <c r="B90">
-        <v>5.340000152587891</v>
+        <v>4.820000171661377</v>
       </c>
       <c r="C90">
-        <v>4.920000076293945</v>
+        <v>4.559999942779541</v>
       </c>
       <c r="D90">
-        <v>5.179999828338623</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="E90">
-        <v>5.179999828338623</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="F90">
-        <v>21182500</v>
+        <v>20967500</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>5.28000020980835</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="B91">
-        <v>5.329999923706055</v>
+        <v>4.650000095367432</v>
       </c>
       <c r="C91">
-        <v>5.010000228881836</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="D91">
-        <v>5.070000171661377</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="E91">
-        <v>5.070000171661377</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="F91">
-        <v>17923500</v>
+        <v>29011200</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>5.130000114440918</v>
+        <v>4.389999866485596</v>
       </c>
       <c r="B92">
-        <v>5.199999809265137</v>
+        <v>4.510000228881836</v>
       </c>
       <c r="C92">
-        <v>4.860000133514404</v>
+        <v>4.110000133514404</v>
       </c>
       <c r="D92">
-        <v>4.869999885559082</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="E92">
-        <v>4.869999885559082</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="F92">
-        <v>20043500</v>
+        <v>30977700</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>4.789999961853027</v>
+        <v>3.990000009536743</v>
       </c>
       <c r="B93">
-        <v>4.960000038146973</v>
+        <v>4.170000076293945</v>
       </c>
       <c r="C93">
-        <v>4.679999828338623</v>
+        <v>3.849999904632568</v>
       </c>
       <c r="D93">
-        <v>4.829999923706055</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="E93">
-        <v>4.829999923706055</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="F93">
-        <v>20219000</v>
+        <v>44178500</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>4.760000228881836</v>
+        <v>3.730000019073486</v>
       </c>
       <c r="B94">
-        <v>4.820000171661377</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="C94">
-        <v>4.559999942779541</v>
+        <v>3.440000057220459</v>
       </c>
       <c r="D94">
-        <v>4.579999923706055</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="E94">
-        <v>4.579999923706055</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="F94">
-        <v>20967500</v>
+        <v>37138500</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>4.579999923706055</v>
+        <v>3.75</v>
       </c>
       <c r="B95">
-        <v>4.650000095367432</v>
+        <v>3.970000028610229</v>
       </c>
       <c r="C95">
-        <v>4.28000020980835</v>
+        <v>3.720000028610229</v>
       </c>
       <c r="D95">
-        <v>4.300000190734863</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="E95">
-        <v>4.300000190734863</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="F95">
-        <v>29011200</v>
+        <v>17530900</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>4.389999866485596</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="B96">
-        <v>4.510000228881836</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="C96">
-        <v>4.110000133514404</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="D96">
-        <v>4.130000114440918</v>
+        <v>3.859999895095825</v>
       </c>
       <c r="E96">
-        <v>4.130000114440918</v>
+        <v>3.859999895095825</v>
       </c>
       <c r="F96">
-        <v>30977700</v>
+        <v>28075400</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>3.990000009536743</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="B97">
-        <v>4.170000076293945</v>
+        <v>3.980000019073486</v>
       </c>
       <c r="C97">
-        <v>3.849999904632568</v>
+        <v>3.5</v>
       </c>
       <c r="D97">
-        <v>3.900000095367432</v>
+        <v>3.559999942779541</v>
       </c>
       <c r="E97">
-        <v>3.900000095367432</v>
+        <v>3.559999942779541</v>
       </c>
       <c r="F97">
-        <v>44178500</v>
+        <v>28877100</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>3.730000019073486</v>
+        <v>3.579999923706055</v>
       </c>
       <c r="B98">
-        <v>3.920000076293945</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="C98">
-        <v>3.440000057220459</v>
+        <v>3.400000095367432</v>
       </c>
       <c r="D98">
-        <v>3.920000076293945</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="E98">
-        <v>3.920000076293945</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="F98">
-        <v>37138500</v>
+        <v>21240900</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>3.75</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="B99">
-        <v>3.970000028610229</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="C99">
-        <v>3.720000028610229</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="D99">
-        <v>3.869999885559082</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="E99">
-        <v>3.869999885559082</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="F99">
-        <v>17530900</v>
+        <v>27876100</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>4.139999866485596</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="B100">
-        <v>4.210000038146973</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="C100">
-        <v>3.799999952316284</v>
+        <v>4.199999809265137</v>
       </c>
       <c r="D100">
-        <v>3.859999895095825</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="E100">
-        <v>3.859999895095825</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="F100">
-        <v>28075400</v>
+        <v>27707300</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>3.910000085830688</v>
+        <v>4.510000228881836</v>
       </c>
       <c r="B101">
-        <v>3.980000019073486</v>
+        <v>4.519999980926514</v>
       </c>
       <c r="C101">
-        <v>3.5</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="D101">
-        <v>3.559999942779541</v>
+        <v>4.190000057220459</v>
       </c>
       <c r="E101">
-        <v>3.559999942779541</v>
+        <v>4.190000057220459</v>
       </c>
       <c r="F101">
-        <v>28877100</v>
+        <v>22492300</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>3.579999923706055</v>
+        <v>4.010000228881836</v>
       </c>
       <c r="B102">
-        <v>3.700000047683716</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="C102">
-        <v>3.400000095367432</v>
+        <v>3.990000009536743</v>
       </c>
       <c r="D102">
-        <v>3.680000066757202</v>
+        <v>4.070000171661377</v>
       </c>
       <c r="E102">
-        <v>3.680000066757202</v>
+        <v>4.070000171661377</v>
       </c>
       <c r="F102">
-        <v>21240900</v>
+        <v>21628800</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>3.680000066757202</v>
+        <v>4.110000133514404</v>
       </c>
       <c r="B103">
-        <v>4.260000228881836</v>
+        <v>4.380000114440918</v>
       </c>
       <c r="C103">
-        <v>3.680000066757202</v>
+        <v>4.050000190734863</v>
       </c>
       <c r="D103">
-        <v>4.239999771118164</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="E103">
-        <v>4.239999771118164</v>
+        <v>4.28000020980835</v>
       </c>
       <c r="F103">
-        <v>27876100</v>
+        <v>15721500</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>4.329999923706055</v>
+        <v>4.21999979019165</v>
       </c>
       <c r="B104">
-        <v>4.599999904632568</v>
+        <v>4.550000190734863</v>
       </c>
       <c r="C104">
-        <v>4.199999809265137</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="D104">
-        <v>4.460000038146973</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="E104">
-        <v>4.460000038146973</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="F104">
-        <v>27707300</v>
+        <v>22408900</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>4.510000228881836</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="B105">
+        <v>4.539999961853027</v>
+      </c>
+      <c r="C105">
+        <v>4.289999961853027</v>
+      </c>
+      <c r="D105">
         <v>4.519999980926514</v>
       </c>
-      <c r="C105">
-        <v>4.139999866485596</v>
-      </c>
-      <c r="D105">
-        <v>4.190000057220459</v>
-      </c>
       <c r="E105">
-        <v>4.190000057220459</v>
+        <v>4.519999980926514</v>
       </c>
       <c r="F105">
-        <v>22492300</v>
+        <v>15042900</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>4.010000228881836</v>
+        <v>4.630000114440918</v>
       </c>
       <c r="B106">
-        <v>4.28000020980835</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="C106">
-        <v>3.990000009536743</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="D106">
-        <v>4.070000171661377</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="E106">
-        <v>4.070000171661377</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="F106">
-        <v>21628800</v>
+        <v>18484200</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>4.110000133514404</v>
+        <v>4.690000057220459</v>
       </c>
       <c r="B107">
-        <v>4.380000114440918</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="C107">
-        <v>4.050000190734863</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="D107">
-        <v>4.28000020980835</v>
+        <v>4.820000171661377</v>
       </c>
       <c r="E107">
-        <v>4.28000020980835</v>
+        <v>4.820000171661377</v>
       </c>
       <c r="F107">
-        <v>15721500</v>
+        <v>23555600</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>4.21999979019165</v>
+        <v>4.840000152587891</v>
       </c>
       <c r="B108">
-        <v>4.550000190734863</v>
+        <v>5.039999961853027</v>
       </c>
       <c r="C108">
-        <v>4.210000038146973</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="D108">
-        <v>4.369999885559082</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="E108">
-        <v>4.369999885559082</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="F108">
-        <v>22408900</v>
+        <v>20516500</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>4.329999923706055</v>
+        <v>4.53000020980835</v>
       </c>
       <c r="B109">
-        <v>4.539999961853027</v>
+        <v>4.840000152587891</v>
       </c>
       <c r="C109">
-        <v>4.289999961853027</v>
+        <v>4.53000020980835</v>
       </c>
       <c r="D109">
-        <v>4.519999980926514</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="E109">
-        <v>4.519999980926514</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="F109">
-        <v>15042900</v>
+        <v>15466900</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>4.630000114440918</v>
+        <v>4.75</v>
       </c>
       <c r="B110">
-        <v>4.829999923706055</v>
+        <v>5.519999980926514</v>
       </c>
       <c r="C110">
-        <v>4.539999961853027</v>
+        <v>4.71999979019165</v>
       </c>
       <c r="D110">
-        <v>4.809999942779541</v>
+        <v>5.489999771118164</v>
       </c>
       <c r="E110">
-        <v>4.809999942779541</v>
+        <v>5.489999771118164</v>
       </c>
       <c r="F110">
-        <v>18484200</v>
+        <v>33935200</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>4.690000057220459</v>
+        <v>5.329999923706055</v>
       </c>
       <c r="B111">
-        <v>5.099999904632568</v>
+        <v>5.570000171661377</v>
       </c>
       <c r="C111">
-        <v>4.590000152587891</v>
+        <v>5.210000038146973</v>
       </c>
       <c r="D111">
-        <v>4.820000171661377</v>
+        <v>5.5</v>
       </c>
       <c r="E111">
-        <v>4.820000171661377</v>
+        <v>5.5</v>
       </c>
       <c r="F111">
-        <v>23555600</v>
+        <v>24071600</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>4.840000152587891</v>
+        <v>5.360000133514404</v>
       </c>
       <c r="B112">
-        <v>5.039999961853027</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="C112">
-        <v>4.579999923706055</v>
+        <v>5.210000038146973</v>
       </c>
       <c r="D112">
-        <v>4.639999866485596</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="E112">
-        <v>4.639999866485596</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="F112">
-        <v>20516500</v>
+        <v>18684700</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>4.53000020980835</v>
+        <v>5.25</v>
       </c>
       <c r="B113">
-        <v>4.840000152587891</v>
+        <v>5.25</v>
       </c>
       <c r="C113">
-        <v>4.53000020980835</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="D113">
-        <v>4.619999885559082</v>
+        <v>5.010000228881836</v>
       </c>
       <c r="E113">
-        <v>4.619999885559082</v>
+        <v>5.010000228881836</v>
       </c>
       <c r="F113">
-        <v>15466900</v>
+        <v>18215400</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>4.75</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="B114">
-        <v>5.519999980926514</v>
+        <v>5.059999942779541</v>
       </c>
       <c r="C114">
-        <v>4.71999979019165</v>
+        <v>4.690000057220459</v>
       </c>
       <c r="D114">
-        <v>5.489999771118164</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="E114">
-        <v>5.489999771118164</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="F114">
-        <v>33935200</v>
+        <v>16994900</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>5.329999923706055</v>
+        <v>4.889999866485596</v>
       </c>
       <c r="B115">
-        <v>5.570000171661377</v>
+        <v>4.949999809265137</v>
       </c>
       <c r="C115">
-        <v>5.210000038146973</v>
+        <v>4.659999847412109</v>
       </c>
       <c r="D115">
-        <v>5.5</v>
+        <v>4.679999828338623</v>
       </c>
       <c r="E115">
-        <v>5.5</v>
+        <v>4.679999828338623</v>
       </c>
       <c r="F115">
-        <v>24071600</v>
+        <v>14574800</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>5.360000133514404</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="B116">
-        <v>5.630000114440918</v>
+        <v>5.300000190734863</v>
       </c>
       <c r="C116">
-        <v>5.210000038146973</v>
+        <v>4.25</v>
       </c>
       <c r="D116">
         <v>5.260000228881836</v>
@@ -2712,7 +2712,7 @@
         <v>5.260000228881836</v>
       </c>
       <c r="F116">
-        <v>18684700</v>
+        <v>27836400</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2720,199 +2720,219 @@
         <v>5.25</v>
       </c>
       <c r="B117">
-        <v>5.25</v>
+        <v>5.380000114440918</v>
       </c>
       <c r="C117">
-        <v>4.900000095367432</v>
+        <v>5.010000228881836</v>
       </c>
       <c r="D117">
-        <v>5.010000228881836</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="E117">
-        <v>5.010000228881836</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="F117">
-        <v>18215400</v>
+        <v>21020000</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>4.809999942779541</v>
+        <v>5.610000133514404</v>
       </c>
       <c r="B118">
-        <v>5.059999942779541</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="C118">
-        <v>4.690000057220459</v>
+        <v>5.460000038146973</v>
       </c>
       <c r="D118">
-        <v>4.739999771118164</v>
+        <v>6</v>
       </c>
       <c r="E118">
-        <v>4.739999771118164</v>
+        <v>6</v>
       </c>
       <c r="F118">
-        <v>16994900</v>
+        <v>44833000</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>4.889999866485596</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="B119">
-        <v>4.949999809265137</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="C119">
-        <v>4.659999847412109</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="D119">
-        <v>4.679999828338623</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="E119">
-        <v>4.679999828338623</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="F119">
-        <v>14574800</v>
+        <v>31642700</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>4.309999942779541</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="B120">
-        <v>5.300000190734863</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="C120">
-        <v>4.25</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="D120">
-        <v>5.260000228881836</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="E120">
-        <v>5.260000228881836</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="F120">
-        <v>27836400</v>
+        <v>21168100</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>5.25</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="B121">
-        <v>5.380000114440918</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="C121">
-        <v>5.010000228881836</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="D121">
-        <v>5.28000020980835</v>
+        <v>5.690000057220459</v>
       </c>
       <c r="E121">
-        <v>5.28000020980835</v>
+        <v>5.690000057220459</v>
       </c>
       <c r="F121">
-        <v>21020000</v>
+        <v>16313300</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>5.610000133514404</v>
+        <v>5.639999866485596</v>
       </c>
       <c r="B122">
-        <v>6.130000114440918</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="C122">
-        <v>5.460000038146973</v>
+        <v>5.389999866485596</v>
       </c>
       <c r="D122">
-        <v>6</v>
+        <v>5.440000057220459</v>
       </c>
       <c r="E122">
-        <v>6</v>
+        <v>5.440000057220459</v>
       </c>
       <c r="F122">
-        <v>44833000</v>
+        <v>17089200</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>6.090000152587891</v>
+        <v>5.599999904632568</v>
       </c>
       <c r="B123">
-        <v>6.239999771118164</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="C123">
-        <v>5.860000133514404</v>
+        <v>5.559999942779541</v>
       </c>
       <c r="D123">
-        <v>6.099999904632568</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="E123">
-        <v>6.099999904632568</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="F123">
-        <v>31642700</v>
+        <v>34801300</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>6.21999979019165</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="B124">
-        <v>6.269999980926514</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="C124">
-        <v>5.820000171661377</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="D124">
-        <v>6.070000171661377</v>
+        <v>6.309999942779541</v>
       </c>
       <c r="E124">
-        <v>6.070000171661377</v>
+        <v>6.309999942779541</v>
       </c>
       <c r="F124">
-        <v>21168100</v>
+        <v>42069400</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>6.119999885559082</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="B125">
-        <v>6.119999885559082</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="C125">
-        <v>5.659999847412109</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="D125">
-        <v>5.690000057220459</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="E125">
-        <v>5.690000057220459</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="F125">
-        <v>16245500</v>
+        <v>27405900</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>5.639999866485596</v>
+        <v>6.260000228881836</v>
       </c>
       <c r="B126">
-        <v>5.940000057220459</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="C126">
-        <v>5.389999866485596</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="D126">
-        <v>5.440000057220459</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="E126">
-        <v>5.440000057220459</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="F126">
-        <v>17160059</v>
+        <v>38316200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>6.989999771118164</v>
+      </c>
+      <c r="B127">
+        <v>7.324999809265137</v>
+      </c>
+      <c r="C127">
+        <v>6.610000133514404</v>
+      </c>
+      <c r="D127">
+        <v>6.710000038146973</v>
+      </c>
+      <c r="E127">
+        <v>6.710000038146973</v>
+      </c>
+      <c r="F127">
+        <v>26360836</v>
       </c>
     </row>
   </sheetData>
